--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_WA10102_ログアウト.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_WA10102_ログアウト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BBD4C5-731F-4AE4-A092-9657BD389C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F11857-8066-4BFD-9ACE-C4711D595E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9909,8 +9909,206 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -10020,215 +10218,17 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -10738,7 +10738,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>/[</a:t>
+            <a:t>/</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
@@ -10748,7 +10748,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>機能名</a:t>
+            <a:t>ログアウト</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
@@ -10758,7 +10758,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>]/[</a:t>
+            <a:t>/</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
@@ -10768,18 +10768,15 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>画面名</a:t>
+            <a:t>ログアウト</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11357,12 +11354,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="166" t="str">
+      <c r="I25" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="166"/>
-      <c r="K25" s="166"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="206"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -11922,51 +11919,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="239" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="176" t="s">
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="242" t="s">
         <v>563</v>
       </c>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="182" t="s">
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="243"/>
+      <c r="J1" s="243"/>
+      <c r="K1" s="243"/>
+      <c r="L1" s="243"/>
+      <c r="M1" s="243"/>
+      <c r="N1" s="244"/>
+      <c r="O1" s="248" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="191" t="s">
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
+      <c r="R1" s="250"/>
+      <c r="S1" s="257" t="s">
         <v>652</v>
       </c>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="192"/>
-      <c r="X1" s="192"/>
-      <c r="Y1" s="192"/>
-      <c r="Z1" s="193"/>
-      <c r="AA1" s="173" t="s">
+      <c r="T1" s="258"/>
+      <c r="U1" s="258"/>
+      <c r="V1" s="258"/>
+      <c r="W1" s="258"/>
+      <c r="X1" s="258"/>
+      <c r="Y1" s="258"/>
+      <c r="Z1" s="259"/>
+      <c r="AA1" s="239" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="200"/>
-      <c r="AD1" s="201"/>
-      <c r="AE1" s="201"/>
-      <c r="AF1" s="202"/>
-      <c r="AG1" s="167"/>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="169"/>
+      <c r="AB1" s="241"/>
+      <c r="AC1" s="266"/>
+      <c r="AD1" s="267"/>
+      <c r="AE1" s="267"/>
+      <c r="AF1" s="268"/>
+      <c r="AG1" s="233"/>
+      <c r="AH1" s="234"/>
+      <c r="AI1" s="235"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -11974,53 +11971,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="176" t="s">
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="242" t="s">
         <v>641</v>
       </c>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="173" t="s">
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="243"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="243"/>
+      <c r="L2" s="243"/>
+      <c r="M2" s="243"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="252"/>
+      <c r="Q2" s="252"/>
+      <c r="R2" s="253"/>
+      <c r="S2" s="260"/>
+      <c r="T2" s="261"/>
+      <c r="U2" s="261"/>
+      <c r="V2" s="261"/>
+      <c r="W2" s="261"/>
+      <c r="X2" s="261"/>
+      <c r="Y2" s="261"/>
+      <c r="Z2" s="262"/>
+      <c r="AA2" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="179" t="str">
+      <c r="AB2" s="241"/>
+      <c r="AC2" s="245" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="180"/>
-      <c r="AE2" s="180"/>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="167" t="str">
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="233" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="169"/>
+      <c r="AH2" s="234"/>
+      <c r="AI2" s="235"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -12028,45 +12025,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="239" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="176" t="s">
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="242" t="s">
         <v>642</v>
       </c>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="188"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="199"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="200"/>
-      <c r="AD3" s="201"/>
-      <c r="AE3" s="201"/>
-      <c r="AF3" s="202"/>
-      <c r="AG3" s="167"/>
-      <c r="AH3" s="168"/>
-      <c r="AI3" s="169"/>
+      <c r="F3" s="243"/>
+      <c r="G3" s="243"/>
+      <c r="H3" s="243"/>
+      <c r="I3" s="243"/>
+      <c r="J3" s="243"/>
+      <c r="K3" s="243"/>
+      <c r="L3" s="243"/>
+      <c r="M3" s="243"/>
+      <c r="N3" s="244"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="255"/>
+      <c r="Q3" s="255"/>
+      <c r="R3" s="256"/>
+      <c r="S3" s="263"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="265"/>
+      <c r="AA3" s="239"/>
+      <c r="AB3" s="241"/>
+      <c r="AC3" s="266"/>
+      <c r="AD3" s="267"/>
+      <c r="AE3" s="267"/>
+      <c r="AF3" s="268"/>
+      <c r="AG3" s="233"/>
+      <c r="AH3" s="234"/>
+      <c r="AI3" s="235"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -12103,1176 +12100,1020 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="236" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="171"/>
-      <c r="D7" s="170" t="s">
+      <c r="C7" s="237"/>
+      <c r="D7" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="172"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="170" t="s">
+      <c r="E7" s="238"/>
+      <c r="F7" s="237"/>
+      <c r="G7" s="236" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="172"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="170" t="s">
+      <c r="H7" s="238"/>
+      <c r="I7" s="237"/>
+      <c r="J7" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="170" t="s">
+      <c r="K7" s="238"/>
+      <c r="L7" s="238"/>
+      <c r="M7" s="238"/>
+      <c r="N7" s="238"/>
+      <c r="O7" s="238"/>
+      <c r="P7" s="237"/>
+      <c r="Q7" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="172"/>
-      <c r="S7" s="172"/>
-      <c r="T7" s="172"/>
-      <c r="U7" s="172"/>
-      <c r="V7" s="172"/>
-      <c r="W7" s="172"/>
-      <c r="X7" s="172"/>
-      <c r="Y7" s="172"/>
-      <c r="Z7" s="172"/>
-      <c r="AA7" s="172"/>
-      <c r="AB7" s="172"/>
-      <c r="AC7" s="172"/>
-      <c r="AD7" s="172"/>
-      <c r="AE7" s="171"/>
-      <c r="AF7" s="170" t="s">
+      <c r="R7" s="238"/>
+      <c r="S7" s="238"/>
+      <c r="T7" s="238"/>
+      <c r="U7" s="238"/>
+      <c r="V7" s="238"/>
+      <c r="W7" s="238"/>
+      <c r="X7" s="238"/>
+      <c r="Y7" s="238"/>
+      <c r="Z7" s="238"/>
+      <c r="AA7" s="238"/>
+      <c r="AB7" s="238"/>
+      <c r="AC7" s="238"/>
+      <c r="AD7" s="238"/>
+      <c r="AE7" s="237"/>
+      <c r="AF7" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="172"/>
-      <c r="AH7" s="172"/>
-      <c r="AI7" s="171"/>
+      <c r="AG7" s="238"/>
+      <c r="AH7" s="238"/>
+      <c r="AI7" s="237"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="215"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="220"/>
-      <c r="H8" s="221"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="222"/>
-      <c r="K8" s="223"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="223"/>
-      <c r="N8" s="223"/>
-      <c r="O8" s="223"/>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="225"/>
-      <c r="R8" s="226"/>
-      <c r="S8" s="226"/>
-      <c r="T8" s="226"/>
-      <c r="U8" s="226"/>
-      <c r="V8" s="226"/>
-      <c r="W8" s="226"/>
-      <c r="X8" s="226"/>
-      <c r="Y8" s="226"/>
-      <c r="Z8" s="226"/>
-      <c r="AA8" s="226"/>
-      <c r="AB8" s="226"/>
-      <c r="AC8" s="226"/>
-      <c r="AD8" s="226"/>
-      <c r="AE8" s="227"/>
-      <c r="AF8" s="222"/>
-      <c r="AG8" s="223"/>
-      <c r="AH8" s="223"/>
-      <c r="AI8" s="224"/>
+      <c r="B8" s="220"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="226"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="227"/>
+      <c r="K8" s="228"/>
+      <c r="L8" s="228"/>
+      <c r="M8" s="228"/>
+      <c r="N8" s="228"/>
+      <c r="O8" s="228"/>
+      <c r="P8" s="229"/>
+      <c r="Q8" s="230"/>
+      <c r="R8" s="231"/>
+      <c r="S8" s="231"/>
+      <c r="T8" s="231"/>
+      <c r="U8" s="231"/>
+      <c r="V8" s="231"/>
+      <c r="W8" s="231"/>
+      <c r="X8" s="231"/>
+      <c r="Y8" s="231"/>
+      <c r="Z8" s="231"/>
+      <c r="AA8" s="231"/>
+      <c r="AB8" s="231"/>
+      <c r="AC8" s="231"/>
+      <c r="AD8" s="231"/>
+      <c r="AE8" s="232"/>
+      <c r="AF8" s="227"/>
+      <c r="AG8" s="228"/>
+      <c r="AH8" s="228"/>
+      <c r="AI8" s="229"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="203"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="205"/>
-      <c r="H9" s="208"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="210"/>
-      <c r="L9" s="210"/>
-      <c r="M9" s="210"/>
-      <c r="N9" s="210"/>
-      <c r="O9" s="210"/>
-      <c r="P9" s="211"/>
-      <c r="Q9" s="212"/>
-      <c r="R9" s="213"/>
-      <c r="S9" s="213"/>
-      <c r="T9" s="213"/>
-      <c r="U9" s="213"/>
-      <c r="V9" s="213"/>
-      <c r="W9" s="213"/>
-      <c r="X9" s="213"/>
-      <c r="Y9" s="213"/>
-      <c r="Z9" s="213"/>
-      <c r="AA9" s="213"/>
-      <c r="AB9" s="213"/>
-      <c r="AC9" s="213"/>
-      <c r="AD9" s="213"/>
-      <c r="AE9" s="214"/>
-      <c r="AF9" s="209"/>
-      <c r="AG9" s="210"/>
-      <c r="AH9" s="210"/>
-      <c r="AI9" s="211"/>
+      <c r="B9" s="207"/>
+      <c r="C9" s="208"/>
+      <c r="D9" s="209"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="209"/>
+      <c r="H9" s="212"/>
+      <c r="I9" s="208"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="214"/>
+      <c r="O9" s="214"/>
+      <c r="P9" s="215"/>
+      <c r="Q9" s="216"/>
+      <c r="R9" s="217"/>
+      <c r="S9" s="217"/>
+      <c r="T9" s="217"/>
+      <c r="U9" s="217"/>
+      <c r="V9" s="217"/>
+      <c r="W9" s="217"/>
+      <c r="X9" s="217"/>
+      <c r="Y9" s="217"/>
+      <c r="Z9" s="217"/>
+      <c r="AA9" s="217"/>
+      <c r="AB9" s="217"/>
+      <c r="AC9" s="217"/>
+      <c r="AD9" s="217"/>
+      <c r="AE9" s="218"/>
+      <c r="AF9" s="213"/>
+      <c r="AG9" s="214"/>
+      <c r="AH9" s="214"/>
+      <c r="AI9" s="215"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="203"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="208"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="209"/>
-      <c r="K10" s="210"/>
-      <c r="L10" s="210"/>
-      <c r="M10" s="210"/>
-      <c r="N10" s="210"/>
-      <c r="O10" s="210"/>
-      <c r="P10" s="211"/>
-      <c r="Q10" s="212"/>
-      <c r="R10" s="213"/>
-      <c r="S10" s="213"/>
-      <c r="T10" s="213"/>
-      <c r="U10" s="213"/>
-      <c r="V10" s="213"/>
-      <c r="W10" s="213"/>
-      <c r="X10" s="213"/>
-      <c r="Y10" s="213"/>
-      <c r="Z10" s="213"/>
-      <c r="AA10" s="213"/>
-      <c r="AB10" s="213"/>
-      <c r="AC10" s="213"/>
-      <c r="AD10" s="213"/>
-      <c r="AE10" s="214"/>
-      <c r="AF10" s="209"/>
-      <c r="AG10" s="210"/>
-      <c r="AH10" s="210"/>
-      <c r="AI10" s="211"/>
+      <c r="B10" s="207"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="209"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="212"/>
+      <c r="I10" s="208"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="214"/>
+      <c r="M10" s="214"/>
+      <c r="N10" s="214"/>
+      <c r="O10" s="214"/>
+      <c r="P10" s="215"/>
+      <c r="Q10" s="216"/>
+      <c r="R10" s="217"/>
+      <c r="S10" s="217"/>
+      <c r="T10" s="217"/>
+      <c r="U10" s="217"/>
+      <c r="V10" s="217"/>
+      <c r="W10" s="217"/>
+      <c r="X10" s="217"/>
+      <c r="Y10" s="217"/>
+      <c r="Z10" s="217"/>
+      <c r="AA10" s="217"/>
+      <c r="AB10" s="217"/>
+      <c r="AC10" s="217"/>
+      <c r="AD10" s="217"/>
+      <c r="AE10" s="218"/>
+      <c r="AF10" s="213"/>
+      <c r="AG10" s="214"/>
+      <c r="AH10" s="214"/>
+      <c r="AI10" s="215"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="203"/>
-      <c r="C11" s="204"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="207"/>
-      <c r="G11" s="203"/>
-      <c r="H11" s="208"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="209"/>
-      <c r="K11" s="210"/>
-      <c r="L11" s="210"/>
-      <c r="M11" s="210"/>
-      <c r="N11" s="210"/>
-      <c r="O11" s="210"/>
-      <c r="P11" s="211"/>
-      <c r="Q11" s="212"/>
-      <c r="R11" s="213"/>
-      <c r="S11" s="213"/>
-      <c r="T11" s="213"/>
-      <c r="U11" s="213"/>
-      <c r="V11" s="213"/>
-      <c r="W11" s="213"/>
-      <c r="X11" s="213"/>
-      <c r="Y11" s="213"/>
-      <c r="Z11" s="213"/>
-      <c r="AA11" s="213"/>
-      <c r="AB11" s="213"/>
-      <c r="AC11" s="213"/>
-      <c r="AD11" s="213"/>
-      <c r="AE11" s="214"/>
-      <c r="AF11" s="209"/>
-      <c r="AG11" s="210"/>
-      <c r="AH11" s="210"/>
-      <c r="AI11" s="211"/>
+      <c r="B11" s="207"/>
+      <c r="C11" s="208"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="212"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="214"/>
+      <c r="L11" s="214"/>
+      <c r="M11" s="214"/>
+      <c r="N11" s="214"/>
+      <c r="O11" s="214"/>
+      <c r="P11" s="215"/>
+      <c r="Q11" s="216"/>
+      <c r="R11" s="217"/>
+      <c r="S11" s="217"/>
+      <c r="T11" s="217"/>
+      <c r="U11" s="217"/>
+      <c r="V11" s="217"/>
+      <c r="W11" s="217"/>
+      <c r="X11" s="217"/>
+      <c r="Y11" s="217"/>
+      <c r="Z11" s="217"/>
+      <c r="AA11" s="217"/>
+      <c r="AB11" s="217"/>
+      <c r="AC11" s="217"/>
+      <c r="AD11" s="217"/>
+      <c r="AE11" s="218"/>
+      <c r="AF11" s="213"/>
+      <c r="AG11" s="214"/>
+      <c r="AH11" s="214"/>
+      <c r="AI11" s="215"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="203"/>
-      <c r="C12" s="204"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="206"/>
-      <c r="F12" s="207"/>
-      <c r="G12" s="203"/>
-      <c r="H12" s="208"/>
-      <c r="I12" s="204"/>
-      <c r="J12" s="209"/>
-      <c r="K12" s="210"/>
-      <c r="L12" s="210"/>
-      <c r="M12" s="210"/>
-      <c r="N12" s="210"/>
-      <c r="O12" s="210"/>
-      <c r="P12" s="211"/>
-      <c r="Q12" s="212"/>
-      <c r="R12" s="213"/>
-      <c r="S12" s="213"/>
-      <c r="T12" s="213"/>
-      <c r="U12" s="213"/>
-      <c r="V12" s="213"/>
-      <c r="W12" s="213"/>
-      <c r="X12" s="213"/>
-      <c r="Y12" s="213"/>
-      <c r="Z12" s="213"/>
-      <c r="AA12" s="213"/>
-      <c r="AB12" s="213"/>
-      <c r="AC12" s="213"/>
-      <c r="AD12" s="213"/>
-      <c r="AE12" s="214"/>
-      <c r="AF12" s="209"/>
-      <c r="AG12" s="210"/>
-      <c r="AH12" s="210"/>
-      <c r="AI12" s="211"/>
+      <c r="B12" s="207"/>
+      <c r="C12" s="208"/>
+      <c r="D12" s="209"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="211"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="208"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="214"/>
+      <c r="L12" s="214"/>
+      <c r="M12" s="214"/>
+      <c r="N12" s="214"/>
+      <c r="O12" s="214"/>
+      <c r="P12" s="215"/>
+      <c r="Q12" s="216"/>
+      <c r="R12" s="217"/>
+      <c r="S12" s="217"/>
+      <c r="T12" s="217"/>
+      <c r="U12" s="217"/>
+      <c r="V12" s="217"/>
+      <c r="W12" s="217"/>
+      <c r="X12" s="217"/>
+      <c r="Y12" s="217"/>
+      <c r="Z12" s="217"/>
+      <c r="AA12" s="217"/>
+      <c r="AB12" s="217"/>
+      <c r="AC12" s="217"/>
+      <c r="AD12" s="217"/>
+      <c r="AE12" s="218"/>
+      <c r="AF12" s="213"/>
+      <c r="AG12" s="214"/>
+      <c r="AH12" s="214"/>
+      <c r="AI12" s="215"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="203"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="205"/>
-      <c r="E13" s="206"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="203"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="209"/>
-      <c r="K13" s="210"/>
-      <c r="L13" s="210"/>
-      <c r="M13" s="210"/>
-      <c r="N13" s="210"/>
-      <c r="O13" s="210"/>
-      <c r="P13" s="211"/>
-      <c r="Q13" s="212"/>
-      <c r="R13" s="213"/>
-      <c r="S13" s="213"/>
-      <c r="T13" s="213"/>
-      <c r="U13" s="213"/>
-      <c r="V13" s="213"/>
-      <c r="W13" s="213"/>
-      <c r="X13" s="213"/>
-      <c r="Y13" s="213"/>
-      <c r="Z13" s="213"/>
-      <c r="AA13" s="213"/>
-      <c r="AB13" s="213"/>
-      <c r="AC13" s="213"/>
-      <c r="AD13" s="213"/>
-      <c r="AE13" s="214"/>
-      <c r="AF13" s="209"/>
-      <c r="AG13" s="210"/>
-      <c r="AH13" s="210"/>
-      <c r="AI13" s="211"/>
+      <c r="B13" s="207"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="212"/>
+      <c r="I13" s="208"/>
+      <c r="J13" s="213"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="214"/>
+      <c r="O13" s="214"/>
+      <c r="P13" s="215"/>
+      <c r="Q13" s="216"/>
+      <c r="R13" s="217"/>
+      <c r="S13" s="217"/>
+      <c r="T13" s="217"/>
+      <c r="U13" s="217"/>
+      <c r="V13" s="217"/>
+      <c r="W13" s="217"/>
+      <c r="X13" s="217"/>
+      <c r="Y13" s="217"/>
+      <c r="Z13" s="217"/>
+      <c r="AA13" s="217"/>
+      <c r="AB13" s="217"/>
+      <c r="AC13" s="217"/>
+      <c r="AD13" s="217"/>
+      <c r="AE13" s="218"/>
+      <c r="AF13" s="213"/>
+      <c r="AG13" s="214"/>
+      <c r="AH13" s="214"/>
+      <c r="AI13" s="215"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="203"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="205"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="208"/>
-      <c r="I14" s="204"/>
-      <c r="J14" s="209"/>
-      <c r="K14" s="210"/>
-      <c r="L14" s="210"/>
-      <c r="M14" s="210"/>
-      <c r="N14" s="210"/>
-      <c r="O14" s="210"/>
-      <c r="P14" s="211"/>
-      <c r="Q14" s="212"/>
-      <c r="R14" s="213"/>
-      <c r="S14" s="213"/>
-      <c r="T14" s="213"/>
-      <c r="U14" s="213"/>
-      <c r="V14" s="213"/>
-      <c r="W14" s="213"/>
-      <c r="X14" s="213"/>
-      <c r="Y14" s="213"/>
-      <c r="Z14" s="213"/>
-      <c r="AA14" s="213"/>
-      <c r="AB14" s="213"/>
-      <c r="AC14" s="213"/>
-      <c r="AD14" s="213"/>
-      <c r="AE14" s="214"/>
-      <c r="AF14" s="209"/>
-      <c r="AG14" s="210"/>
-      <c r="AH14" s="210"/>
-      <c r="AI14" s="211"/>
+      <c r="B14" s="207"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="212"/>
+      <c r="I14" s="208"/>
+      <c r="J14" s="213"/>
+      <c r="K14" s="214"/>
+      <c r="L14" s="214"/>
+      <c r="M14" s="214"/>
+      <c r="N14" s="214"/>
+      <c r="O14" s="214"/>
+      <c r="P14" s="215"/>
+      <c r="Q14" s="216"/>
+      <c r="R14" s="217"/>
+      <c r="S14" s="217"/>
+      <c r="T14" s="217"/>
+      <c r="U14" s="217"/>
+      <c r="V14" s="217"/>
+      <c r="W14" s="217"/>
+      <c r="X14" s="217"/>
+      <c r="Y14" s="217"/>
+      <c r="Z14" s="217"/>
+      <c r="AA14" s="217"/>
+      <c r="AB14" s="217"/>
+      <c r="AC14" s="217"/>
+      <c r="AD14" s="217"/>
+      <c r="AE14" s="218"/>
+      <c r="AF14" s="213"/>
+      <c r="AG14" s="214"/>
+      <c r="AH14" s="214"/>
+      <c r="AI14" s="215"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="203"/>
-      <c r="C15" s="204"/>
-      <c r="D15" s="205"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="208"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="209"/>
-      <c r="K15" s="210"/>
-      <c r="L15" s="210"/>
-      <c r="M15" s="210"/>
-      <c r="N15" s="210"/>
-      <c r="O15" s="210"/>
-      <c r="P15" s="211"/>
-      <c r="Q15" s="212"/>
-      <c r="R15" s="213"/>
-      <c r="S15" s="213"/>
-      <c r="T15" s="213"/>
-      <c r="U15" s="213"/>
-      <c r="V15" s="213"/>
-      <c r="W15" s="213"/>
-      <c r="X15" s="213"/>
-      <c r="Y15" s="213"/>
-      <c r="Z15" s="213"/>
-      <c r="AA15" s="213"/>
-      <c r="AB15" s="213"/>
-      <c r="AC15" s="213"/>
-      <c r="AD15" s="213"/>
-      <c r="AE15" s="214"/>
-      <c r="AF15" s="209"/>
-      <c r="AG15" s="210"/>
-      <c r="AH15" s="210"/>
-      <c r="AI15" s="211"/>
+      <c r="B15" s="207"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="209"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="214"/>
+      <c r="L15" s="214"/>
+      <c r="M15" s="214"/>
+      <c r="N15" s="214"/>
+      <c r="O15" s="214"/>
+      <c r="P15" s="215"/>
+      <c r="Q15" s="216"/>
+      <c r="R15" s="217"/>
+      <c r="S15" s="217"/>
+      <c r="T15" s="217"/>
+      <c r="U15" s="217"/>
+      <c r="V15" s="217"/>
+      <c r="W15" s="217"/>
+      <c r="X15" s="217"/>
+      <c r="Y15" s="217"/>
+      <c r="Z15" s="217"/>
+      <c r="AA15" s="217"/>
+      <c r="AB15" s="217"/>
+      <c r="AC15" s="217"/>
+      <c r="AD15" s="217"/>
+      <c r="AE15" s="218"/>
+      <c r="AF15" s="213"/>
+      <c r="AG15" s="214"/>
+      <c r="AH15" s="214"/>
+      <c r="AI15" s="215"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="203"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="209"/>
-      <c r="K16" s="210"/>
-      <c r="L16" s="210"/>
-      <c r="M16" s="210"/>
-      <c r="N16" s="210"/>
-      <c r="O16" s="210"/>
-      <c r="P16" s="211"/>
-      <c r="Q16" s="212"/>
-      <c r="R16" s="213"/>
-      <c r="S16" s="213"/>
-      <c r="T16" s="213"/>
-      <c r="U16" s="213"/>
-      <c r="V16" s="213"/>
-      <c r="W16" s="213"/>
-      <c r="X16" s="213"/>
-      <c r="Y16" s="213"/>
-      <c r="Z16" s="213"/>
-      <c r="AA16" s="213"/>
-      <c r="AB16" s="213"/>
-      <c r="AC16" s="213"/>
-      <c r="AD16" s="213"/>
-      <c r="AE16" s="214"/>
-      <c r="AF16" s="209"/>
-      <c r="AG16" s="210"/>
-      <c r="AH16" s="210"/>
-      <c r="AI16" s="211"/>
+      <c r="B16" s="207"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="210"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="213"/>
+      <c r="K16" s="214"/>
+      <c r="L16" s="214"/>
+      <c r="M16" s="214"/>
+      <c r="N16" s="214"/>
+      <c r="O16" s="214"/>
+      <c r="P16" s="215"/>
+      <c r="Q16" s="216"/>
+      <c r="R16" s="217"/>
+      <c r="S16" s="217"/>
+      <c r="T16" s="217"/>
+      <c r="U16" s="217"/>
+      <c r="V16" s="217"/>
+      <c r="W16" s="217"/>
+      <c r="X16" s="217"/>
+      <c r="Y16" s="217"/>
+      <c r="Z16" s="217"/>
+      <c r="AA16" s="217"/>
+      <c r="AB16" s="217"/>
+      <c r="AC16" s="217"/>
+      <c r="AD16" s="217"/>
+      <c r="AE16" s="218"/>
+      <c r="AF16" s="213"/>
+      <c r="AG16" s="214"/>
+      <c r="AH16" s="214"/>
+      <c r="AI16" s="215"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="203"/>
-      <c r="C17" s="204"/>
-      <c r="D17" s="205"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="203"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="209"/>
-      <c r="K17" s="210"/>
-      <c r="L17" s="210"/>
-      <c r="M17" s="210"/>
-      <c r="N17" s="210"/>
-      <c r="O17" s="210"/>
-      <c r="P17" s="211"/>
-      <c r="Q17" s="212"/>
-      <c r="R17" s="213"/>
-      <c r="S17" s="213"/>
-      <c r="T17" s="213"/>
-      <c r="U17" s="213"/>
-      <c r="V17" s="213"/>
-      <c r="W17" s="213"/>
-      <c r="X17" s="213"/>
-      <c r="Y17" s="213"/>
-      <c r="Z17" s="213"/>
-      <c r="AA17" s="213"/>
-      <c r="AB17" s="213"/>
-      <c r="AC17" s="213"/>
-      <c r="AD17" s="213"/>
-      <c r="AE17" s="214"/>
-      <c r="AF17" s="209"/>
-      <c r="AG17" s="210"/>
-      <c r="AH17" s="210"/>
-      <c r="AI17" s="211"/>
+      <c r="B17" s="207"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="211"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="213"/>
+      <c r="K17" s="214"/>
+      <c r="L17" s="214"/>
+      <c r="M17" s="214"/>
+      <c r="N17" s="214"/>
+      <c r="O17" s="214"/>
+      <c r="P17" s="215"/>
+      <c r="Q17" s="216"/>
+      <c r="R17" s="217"/>
+      <c r="S17" s="217"/>
+      <c r="T17" s="217"/>
+      <c r="U17" s="217"/>
+      <c r="V17" s="217"/>
+      <c r="W17" s="217"/>
+      <c r="X17" s="217"/>
+      <c r="Y17" s="217"/>
+      <c r="Z17" s="217"/>
+      <c r="AA17" s="217"/>
+      <c r="AB17" s="217"/>
+      <c r="AC17" s="217"/>
+      <c r="AD17" s="217"/>
+      <c r="AE17" s="218"/>
+      <c r="AF17" s="213"/>
+      <c r="AG17" s="214"/>
+      <c r="AH17" s="214"/>
+      <c r="AI17" s="215"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="203"/>
-      <c r="C18" s="204"/>
-      <c r="D18" s="205"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="207"/>
-      <c r="G18" s="203"/>
-      <c r="H18" s="208"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="210"/>
-      <c r="L18" s="210"/>
-      <c r="M18" s="210"/>
-      <c r="N18" s="210"/>
-      <c r="O18" s="210"/>
-      <c r="P18" s="211"/>
-      <c r="Q18" s="212"/>
-      <c r="R18" s="213"/>
-      <c r="S18" s="213"/>
-      <c r="T18" s="213"/>
-      <c r="U18" s="213"/>
-      <c r="V18" s="213"/>
-      <c r="W18" s="213"/>
-      <c r="X18" s="213"/>
-      <c r="Y18" s="213"/>
-      <c r="Z18" s="213"/>
-      <c r="AA18" s="213"/>
-      <c r="AB18" s="213"/>
-      <c r="AC18" s="213"/>
-      <c r="AD18" s="213"/>
-      <c r="AE18" s="214"/>
-      <c r="AF18" s="209"/>
-      <c r="AG18" s="210"/>
-      <c r="AH18" s="210"/>
-      <c r="AI18" s="211"/>
+      <c r="B18" s="207"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="212"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="213"/>
+      <c r="K18" s="214"/>
+      <c r="L18" s="214"/>
+      <c r="M18" s="214"/>
+      <c r="N18" s="214"/>
+      <c r="O18" s="214"/>
+      <c r="P18" s="215"/>
+      <c r="Q18" s="216"/>
+      <c r="R18" s="217"/>
+      <c r="S18" s="217"/>
+      <c r="T18" s="217"/>
+      <c r="U18" s="217"/>
+      <c r="V18" s="217"/>
+      <c r="W18" s="217"/>
+      <c r="X18" s="217"/>
+      <c r="Y18" s="217"/>
+      <c r="Z18" s="217"/>
+      <c r="AA18" s="217"/>
+      <c r="AB18" s="217"/>
+      <c r="AC18" s="217"/>
+      <c r="AD18" s="217"/>
+      <c r="AE18" s="218"/>
+      <c r="AF18" s="213"/>
+      <c r="AG18" s="214"/>
+      <c r="AH18" s="214"/>
+      <c r="AI18" s="215"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="203"/>
-      <c r="C19" s="204"/>
-      <c r="D19" s="205"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="207"/>
-      <c r="G19" s="203"/>
-      <c r="H19" s="208"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="209"/>
-      <c r="K19" s="210"/>
-      <c r="L19" s="210"/>
-      <c r="M19" s="210"/>
-      <c r="N19" s="210"/>
-      <c r="O19" s="210"/>
-      <c r="P19" s="211"/>
-      <c r="Q19" s="212"/>
-      <c r="R19" s="213"/>
-      <c r="S19" s="213"/>
-      <c r="T19" s="213"/>
-      <c r="U19" s="213"/>
-      <c r="V19" s="213"/>
-      <c r="W19" s="213"/>
-      <c r="X19" s="213"/>
-      <c r="Y19" s="213"/>
-      <c r="Z19" s="213"/>
-      <c r="AA19" s="213"/>
-      <c r="AB19" s="213"/>
-      <c r="AC19" s="213"/>
-      <c r="AD19" s="213"/>
-      <c r="AE19" s="214"/>
-      <c r="AF19" s="209"/>
-      <c r="AG19" s="210"/>
-      <c r="AH19" s="210"/>
-      <c r="AI19" s="211"/>
+      <c r="B19" s="207"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="211"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="214"/>
+      <c r="L19" s="214"/>
+      <c r="M19" s="214"/>
+      <c r="N19" s="214"/>
+      <c r="O19" s="214"/>
+      <c r="P19" s="215"/>
+      <c r="Q19" s="216"/>
+      <c r="R19" s="217"/>
+      <c r="S19" s="217"/>
+      <c r="T19" s="217"/>
+      <c r="U19" s="217"/>
+      <c r="V19" s="217"/>
+      <c r="W19" s="217"/>
+      <c r="X19" s="217"/>
+      <c r="Y19" s="217"/>
+      <c r="Z19" s="217"/>
+      <c r="AA19" s="217"/>
+      <c r="AB19" s="217"/>
+      <c r="AC19" s="217"/>
+      <c r="AD19" s="217"/>
+      <c r="AE19" s="218"/>
+      <c r="AF19" s="213"/>
+      <c r="AG19" s="214"/>
+      <c r="AH19" s="214"/>
+      <c r="AI19" s="215"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="203"/>
-      <c r="C20" s="204"/>
-      <c r="D20" s="205"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="207"/>
-      <c r="G20" s="203"/>
-      <c r="H20" s="208"/>
-      <c r="I20" s="204"/>
-      <c r="J20" s="209"/>
-      <c r="K20" s="210"/>
-      <c r="L20" s="210"/>
-      <c r="M20" s="210"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="211"/>
-      <c r="Q20" s="212"/>
-      <c r="R20" s="213"/>
-      <c r="S20" s="213"/>
-      <c r="T20" s="213"/>
-      <c r="U20" s="213"/>
-      <c r="V20" s="213"/>
-      <c r="W20" s="213"/>
-      <c r="X20" s="213"/>
-      <c r="Y20" s="213"/>
-      <c r="Z20" s="213"/>
-      <c r="AA20" s="213"/>
-      <c r="AB20" s="213"/>
-      <c r="AC20" s="213"/>
-      <c r="AD20" s="213"/>
-      <c r="AE20" s="214"/>
-      <c r="AF20" s="209"/>
-      <c r="AG20" s="210"/>
-      <c r="AH20" s="210"/>
-      <c r="AI20" s="211"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="213"/>
+      <c r="K20" s="214"/>
+      <c r="L20" s="214"/>
+      <c r="M20" s="214"/>
+      <c r="N20" s="214"/>
+      <c r="O20" s="214"/>
+      <c r="P20" s="215"/>
+      <c r="Q20" s="216"/>
+      <c r="R20" s="217"/>
+      <c r="S20" s="217"/>
+      <c r="T20" s="217"/>
+      <c r="U20" s="217"/>
+      <c r="V20" s="217"/>
+      <c r="W20" s="217"/>
+      <c r="X20" s="217"/>
+      <c r="Y20" s="217"/>
+      <c r="Z20" s="217"/>
+      <c r="AA20" s="217"/>
+      <c r="AB20" s="217"/>
+      <c r="AC20" s="217"/>
+      <c r="AD20" s="217"/>
+      <c r="AE20" s="218"/>
+      <c r="AF20" s="213"/>
+      <c r="AG20" s="214"/>
+      <c r="AH20" s="214"/>
+      <c r="AI20" s="215"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="203"/>
-      <c r="C21" s="204"/>
-      <c r="D21" s="205"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="203"/>
-      <c r="H21" s="208"/>
-      <c r="I21" s="204"/>
-      <c r="J21" s="209"/>
-      <c r="K21" s="210"/>
-      <c r="L21" s="210"/>
-      <c r="M21" s="210"/>
-      <c r="N21" s="210"/>
-      <c r="O21" s="210"/>
-      <c r="P21" s="211"/>
-      <c r="Q21" s="212"/>
-      <c r="R21" s="213"/>
-      <c r="S21" s="213"/>
-      <c r="T21" s="213"/>
-      <c r="U21" s="213"/>
-      <c r="V21" s="213"/>
-      <c r="W21" s="213"/>
-      <c r="X21" s="213"/>
-      <c r="Y21" s="213"/>
-      <c r="Z21" s="213"/>
-      <c r="AA21" s="213"/>
-      <c r="AB21" s="213"/>
-      <c r="AC21" s="213"/>
-      <c r="AD21" s="213"/>
-      <c r="AE21" s="214"/>
-      <c r="AF21" s="209"/>
-      <c r="AG21" s="210"/>
-      <c r="AH21" s="210"/>
-      <c r="AI21" s="211"/>
+      <c r="B21" s="207"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="207"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="213"/>
+      <c r="K21" s="214"/>
+      <c r="L21" s="214"/>
+      <c r="M21" s="214"/>
+      <c r="N21" s="214"/>
+      <c r="O21" s="214"/>
+      <c r="P21" s="215"/>
+      <c r="Q21" s="216"/>
+      <c r="R21" s="217"/>
+      <c r="S21" s="217"/>
+      <c r="T21" s="217"/>
+      <c r="U21" s="217"/>
+      <c r="V21" s="217"/>
+      <c r="W21" s="217"/>
+      <c r="X21" s="217"/>
+      <c r="Y21" s="217"/>
+      <c r="Z21" s="217"/>
+      <c r="AA21" s="217"/>
+      <c r="AB21" s="217"/>
+      <c r="AC21" s="217"/>
+      <c r="AD21" s="217"/>
+      <c r="AE21" s="218"/>
+      <c r="AF21" s="213"/>
+      <c r="AG21" s="214"/>
+      <c r="AH21" s="214"/>
+      <c r="AI21" s="215"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="203"/>
-      <c r="C22" s="204"/>
-      <c r="D22" s="205"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
-      <c r="G22" s="203"/>
-      <c r="H22" s="208"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="209"/>
-      <c r="K22" s="210"/>
-      <c r="L22" s="210"/>
-      <c r="M22" s="210"/>
-      <c r="N22" s="210"/>
-      <c r="O22" s="210"/>
-      <c r="P22" s="211"/>
-      <c r="Q22" s="212"/>
-      <c r="R22" s="213"/>
-      <c r="S22" s="213"/>
-      <c r="T22" s="213"/>
-      <c r="U22" s="213"/>
-      <c r="V22" s="213"/>
-      <c r="W22" s="213"/>
-      <c r="X22" s="213"/>
-      <c r="Y22" s="213"/>
-      <c r="Z22" s="213"/>
-      <c r="AA22" s="213"/>
-      <c r="AB22" s="213"/>
-      <c r="AC22" s="213"/>
-      <c r="AD22" s="213"/>
-      <c r="AE22" s="214"/>
-      <c r="AF22" s="209"/>
-      <c r="AG22" s="210"/>
-      <c r="AH22" s="210"/>
-      <c r="AI22" s="211"/>
+      <c r="B22" s="207"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="207"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="213"/>
+      <c r="K22" s="214"/>
+      <c r="L22" s="214"/>
+      <c r="M22" s="214"/>
+      <c r="N22" s="214"/>
+      <c r="O22" s="214"/>
+      <c r="P22" s="215"/>
+      <c r="Q22" s="216"/>
+      <c r="R22" s="217"/>
+      <c r="S22" s="217"/>
+      <c r="T22" s="217"/>
+      <c r="U22" s="217"/>
+      <c r="V22" s="217"/>
+      <c r="W22" s="217"/>
+      <c r="X22" s="217"/>
+      <c r="Y22" s="217"/>
+      <c r="Z22" s="217"/>
+      <c r="AA22" s="217"/>
+      <c r="AB22" s="217"/>
+      <c r="AC22" s="217"/>
+      <c r="AD22" s="217"/>
+      <c r="AE22" s="218"/>
+      <c r="AF22" s="213"/>
+      <c r="AG22" s="214"/>
+      <c r="AH22" s="214"/>
+      <c r="AI22" s="215"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="203"/>
-      <c r="C23" s="204"/>
-      <c r="D23" s="205"/>
-      <c r="E23" s="206"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="203"/>
-      <c r="H23" s="208"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="209"/>
-      <c r="K23" s="210"/>
-      <c r="L23" s="210"/>
-      <c r="M23" s="210"/>
-      <c r="N23" s="210"/>
-      <c r="O23" s="210"/>
-      <c r="P23" s="211"/>
-      <c r="Q23" s="212"/>
-      <c r="R23" s="213"/>
-      <c r="S23" s="213"/>
-      <c r="T23" s="213"/>
-      <c r="U23" s="213"/>
-      <c r="V23" s="213"/>
-      <c r="W23" s="213"/>
-      <c r="X23" s="213"/>
-      <c r="Y23" s="213"/>
-      <c r="Z23" s="213"/>
-      <c r="AA23" s="213"/>
-      <c r="AB23" s="213"/>
-      <c r="AC23" s="213"/>
-      <c r="AD23" s="213"/>
-      <c r="AE23" s="214"/>
-      <c r="AF23" s="209"/>
-      <c r="AG23" s="210"/>
-      <c r="AH23" s="210"/>
-      <c r="AI23" s="211"/>
+      <c r="B23" s="207"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="212"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="213"/>
+      <c r="K23" s="214"/>
+      <c r="L23" s="214"/>
+      <c r="M23" s="214"/>
+      <c r="N23" s="214"/>
+      <c r="O23" s="214"/>
+      <c r="P23" s="215"/>
+      <c r="Q23" s="216"/>
+      <c r="R23" s="217"/>
+      <c r="S23" s="217"/>
+      <c r="T23" s="217"/>
+      <c r="U23" s="217"/>
+      <c r="V23" s="217"/>
+      <c r="W23" s="217"/>
+      <c r="X23" s="217"/>
+      <c r="Y23" s="217"/>
+      <c r="Z23" s="217"/>
+      <c r="AA23" s="217"/>
+      <c r="AB23" s="217"/>
+      <c r="AC23" s="217"/>
+      <c r="AD23" s="217"/>
+      <c r="AE23" s="218"/>
+      <c r="AF23" s="213"/>
+      <c r="AG23" s="214"/>
+      <c r="AH23" s="214"/>
+      <c r="AI23" s="215"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="203"/>
-      <c r="C24" s="204"/>
-      <c r="D24" s="205"/>
-      <c r="E24" s="206"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="203"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="204"/>
-      <c r="J24" s="209"/>
-      <c r="K24" s="210"/>
-      <c r="L24" s="210"/>
-      <c r="M24" s="210"/>
-      <c r="N24" s="210"/>
-      <c r="O24" s="210"/>
-      <c r="P24" s="211"/>
-      <c r="Q24" s="212"/>
-      <c r="R24" s="213"/>
-      <c r="S24" s="213"/>
-      <c r="T24" s="213"/>
-      <c r="U24" s="213"/>
-      <c r="V24" s="213"/>
-      <c r="W24" s="213"/>
-      <c r="X24" s="213"/>
-      <c r="Y24" s="213"/>
-      <c r="Z24" s="213"/>
-      <c r="AA24" s="213"/>
-      <c r="AB24" s="213"/>
-      <c r="AC24" s="213"/>
-      <c r="AD24" s="213"/>
-      <c r="AE24" s="214"/>
-      <c r="AF24" s="209"/>
-      <c r="AG24" s="210"/>
-      <c r="AH24" s="210"/>
-      <c r="AI24" s="211"/>
+      <c r="B24" s="207"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="209"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="212"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="213"/>
+      <c r="K24" s="214"/>
+      <c r="L24" s="214"/>
+      <c r="M24" s="214"/>
+      <c r="N24" s="214"/>
+      <c r="O24" s="214"/>
+      <c r="P24" s="215"/>
+      <c r="Q24" s="216"/>
+      <c r="R24" s="217"/>
+      <c r="S24" s="217"/>
+      <c r="T24" s="217"/>
+      <c r="U24" s="217"/>
+      <c r="V24" s="217"/>
+      <c r="W24" s="217"/>
+      <c r="X24" s="217"/>
+      <c r="Y24" s="217"/>
+      <c r="Z24" s="217"/>
+      <c r="AA24" s="217"/>
+      <c r="AB24" s="217"/>
+      <c r="AC24" s="217"/>
+      <c r="AD24" s="217"/>
+      <c r="AE24" s="218"/>
+      <c r="AF24" s="213"/>
+      <c r="AG24" s="214"/>
+      <c r="AH24" s="214"/>
+      <c r="AI24" s="215"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="203"/>
-      <c r="C25" s="204"/>
-      <c r="D25" s="205"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="207"/>
-      <c r="G25" s="203"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="209"/>
-      <c r="K25" s="210"/>
-      <c r="L25" s="210"/>
-      <c r="M25" s="210"/>
-      <c r="N25" s="210"/>
-      <c r="O25" s="210"/>
-      <c r="P25" s="211"/>
-      <c r="Q25" s="212"/>
-      <c r="R25" s="213"/>
-      <c r="S25" s="213"/>
-      <c r="T25" s="213"/>
-      <c r="U25" s="213"/>
-      <c r="V25" s="213"/>
-      <c r="W25" s="213"/>
-      <c r="X25" s="213"/>
-      <c r="Y25" s="213"/>
-      <c r="Z25" s="213"/>
-      <c r="AA25" s="213"/>
-      <c r="AB25" s="213"/>
-      <c r="AC25" s="213"/>
-      <c r="AD25" s="213"/>
-      <c r="AE25" s="214"/>
-      <c r="AF25" s="209"/>
-      <c r="AG25" s="210"/>
-      <c r="AH25" s="210"/>
-      <c r="AI25" s="211"/>
+      <c r="B25" s="207"/>
+      <c r="C25" s="208"/>
+      <c r="D25" s="209"/>
+      <c r="E25" s="210"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="213"/>
+      <c r="K25" s="214"/>
+      <c r="L25" s="214"/>
+      <c r="M25" s="214"/>
+      <c r="N25" s="214"/>
+      <c r="O25" s="214"/>
+      <c r="P25" s="215"/>
+      <c r="Q25" s="216"/>
+      <c r="R25" s="217"/>
+      <c r="S25" s="217"/>
+      <c r="T25" s="217"/>
+      <c r="U25" s="217"/>
+      <c r="V25" s="217"/>
+      <c r="W25" s="217"/>
+      <c r="X25" s="217"/>
+      <c r="Y25" s="217"/>
+      <c r="Z25" s="217"/>
+      <c r="AA25" s="217"/>
+      <c r="AB25" s="217"/>
+      <c r="AC25" s="217"/>
+      <c r="AD25" s="217"/>
+      <c r="AE25" s="218"/>
+      <c r="AF25" s="213"/>
+      <c r="AG25" s="214"/>
+      <c r="AH25" s="214"/>
+      <c r="AI25" s="215"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="203"/>
-      <c r="C26" s="204"/>
-      <c r="D26" s="205"/>
-      <c r="E26" s="206"/>
-      <c r="F26" s="207"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="208"/>
-      <c r="I26" s="204"/>
-      <c r="J26" s="209"/>
-      <c r="K26" s="210"/>
-      <c r="L26" s="210"/>
-      <c r="M26" s="210"/>
-      <c r="N26" s="210"/>
-      <c r="O26" s="210"/>
-      <c r="P26" s="211"/>
-      <c r="Q26" s="212"/>
-      <c r="R26" s="213"/>
-      <c r="S26" s="213"/>
-      <c r="T26" s="213"/>
-      <c r="U26" s="213"/>
-      <c r="V26" s="213"/>
-      <c r="W26" s="213"/>
-      <c r="X26" s="213"/>
-      <c r="Y26" s="213"/>
-      <c r="Z26" s="213"/>
-      <c r="AA26" s="213"/>
-      <c r="AB26" s="213"/>
-      <c r="AC26" s="213"/>
-      <c r="AD26" s="213"/>
-      <c r="AE26" s="214"/>
-      <c r="AF26" s="209"/>
-      <c r="AG26" s="210"/>
-      <c r="AH26" s="210"/>
-      <c r="AI26" s="211"/>
+      <c r="B26" s="207"/>
+      <c r="C26" s="208"/>
+      <c r="D26" s="209"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="208"/>
+      <c r="J26" s="213"/>
+      <c r="K26" s="214"/>
+      <c r="L26" s="214"/>
+      <c r="M26" s="214"/>
+      <c r="N26" s="214"/>
+      <c r="O26" s="214"/>
+      <c r="P26" s="215"/>
+      <c r="Q26" s="216"/>
+      <c r="R26" s="217"/>
+      <c r="S26" s="217"/>
+      <c r="T26" s="217"/>
+      <c r="U26" s="217"/>
+      <c r="V26" s="217"/>
+      <c r="W26" s="217"/>
+      <c r="X26" s="217"/>
+      <c r="Y26" s="217"/>
+      <c r="Z26" s="217"/>
+      <c r="AA26" s="217"/>
+      <c r="AB26" s="217"/>
+      <c r="AC26" s="217"/>
+      <c r="AD26" s="217"/>
+      <c r="AE26" s="218"/>
+      <c r="AF26" s="213"/>
+      <c r="AG26" s="214"/>
+      <c r="AH26" s="214"/>
+      <c r="AI26" s="215"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="203"/>
-      <c r="C27" s="204"/>
-      <c r="D27" s="205"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="203"/>
-      <c r="H27" s="208"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="209"/>
-      <c r="K27" s="210"/>
-      <c r="L27" s="210"/>
-      <c r="M27" s="210"/>
-      <c r="N27" s="210"/>
-      <c r="O27" s="210"/>
-      <c r="P27" s="211"/>
-      <c r="Q27" s="212"/>
-      <c r="R27" s="213"/>
-      <c r="S27" s="213"/>
-      <c r="T27" s="213"/>
-      <c r="U27" s="213"/>
-      <c r="V27" s="213"/>
-      <c r="W27" s="213"/>
-      <c r="X27" s="213"/>
-      <c r="Y27" s="213"/>
-      <c r="Z27" s="213"/>
-      <c r="AA27" s="213"/>
-      <c r="AB27" s="213"/>
-      <c r="AC27" s="213"/>
-      <c r="AD27" s="213"/>
-      <c r="AE27" s="214"/>
-      <c r="AF27" s="209"/>
-      <c r="AG27" s="210"/>
-      <c r="AH27" s="210"/>
-      <c r="AI27" s="211"/>
+      <c r="B27" s="207"/>
+      <c r="C27" s="208"/>
+      <c r="D27" s="209"/>
+      <c r="E27" s="210"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="213"/>
+      <c r="K27" s="214"/>
+      <c r="L27" s="214"/>
+      <c r="M27" s="214"/>
+      <c r="N27" s="214"/>
+      <c r="O27" s="214"/>
+      <c r="P27" s="215"/>
+      <c r="Q27" s="216"/>
+      <c r="R27" s="217"/>
+      <c r="S27" s="217"/>
+      <c r="T27" s="217"/>
+      <c r="U27" s="217"/>
+      <c r="V27" s="217"/>
+      <c r="W27" s="217"/>
+      <c r="X27" s="217"/>
+      <c r="Y27" s="217"/>
+      <c r="Z27" s="217"/>
+      <c r="AA27" s="217"/>
+      <c r="AB27" s="217"/>
+      <c r="AC27" s="217"/>
+      <c r="AD27" s="217"/>
+      <c r="AE27" s="218"/>
+      <c r="AF27" s="213"/>
+      <c r="AG27" s="214"/>
+      <c r="AH27" s="214"/>
+      <c r="AI27" s="215"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="203"/>
-      <c r="C28" s="204"/>
-      <c r="D28" s="205"/>
-      <c r="E28" s="206"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="203"/>
-      <c r="H28" s="208"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="209"/>
-      <c r="K28" s="210"/>
-      <c r="L28" s="210"/>
-      <c r="M28" s="210"/>
-      <c r="N28" s="210"/>
-      <c r="O28" s="210"/>
-      <c r="P28" s="211"/>
-      <c r="Q28" s="212"/>
-      <c r="R28" s="213"/>
-      <c r="S28" s="213"/>
-      <c r="T28" s="213"/>
-      <c r="U28" s="213"/>
-      <c r="V28" s="213"/>
-      <c r="W28" s="213"/>
-      <c r="X28" s="213"/>
-      <c r="Y28" s="213"/>
-      <c r="Z28" s="213"/>
-      <c r="AA28" s="213"/>
-      <c r="AB28" s="213"/>
-      <c r="AC28" s="213"/>
-      <c r="AD28" s="213"/>
-      <c r="AE28" s="214"/>
-      <c r="AF28" s="209"/>
-      <c r="AG28" s="210"/>
-      <c r="AH28" s="210"/>
-      <c r="AI28" s="211"/>
+      <c r="B28" s="207"/>
+      <c r="C28" s="208"/>
+      <c r="D28" s="209"/>
+      <c r="E28" s="210"/>
+      <c r="F28" s="211"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="212"/>
+      <c r="I28" s="208"/>
+      <c r="J28" s="213"/>
+      <c r="K28" s="214"/>
+      <c r="L28" s="214"/>
+      <c r="M28" s="214"/>
+      <c r="N28" s="214"/>
+      <c r="O28" s="214"/>
+      <c r="P28" s="215"/>
+      <c r="Q28" s="216"/>
+      <c r="R28" s="217"/>
+      <c r="S28" s="217"/>
+      <c r="T28" s="217"/>
+      <c r="U28" s="217"/>
+      <c r="V28" s="217"/>
+      <c r="W28" s="217"/>
+      <c r="X28" s="217"/>
+      <c r="Y28" s="217"/>
+      <c r="Z28" s="217"/>
+      <c r="AA28" s="217"/>
+      <c r="AB28" s="217"/>
+      <c r="AC28" s="217"/>
+      <c r="AD28" s="217"/>
+      <c r="AE28" s="218"/>
+      <c r="AF28" s="213"/>
+      <c r="AG28" s="214"/>
+      <c r="AH28" s="214"/>
+      <c r="AI28" s="215"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="203"/>
-      <c r="C29" s="204"/>
-      <c r="D29" s="205"/>
-      <c r="E29" s="206"/>
-      <c r="F29" s="207"/>
-      <c r="G29" s="203"/>
-      <c r="H29" s="208"/>
-      <c r="I29" s="204"/>
-      <c r="J29" s="209"/>
-      <c r="K29" s="210"/>
-      <c r="L29" s="210"/>
-      <c r="M29" s="210"/>
-      <c r="N29" s="210"/>
-      <c r="O29" s="210"/>
-      <c r="P29" s="211"/>
-      <c r="Q29" s="212"/>
-      <c r="R29" s="213"/>
-      <c r="S29" s="213"/>
-      <c r="T29" s="213"/>
-      <c r="U29" s="213"/>
-      <c r="V29" s="213"/>
-      <c r="W29" s="213"/>
-      <c r="X29" s="213"/>
-      <c r="Y29" s="213"/>
-      <c r="Z29" s="213"/>
-      <c r="AA29" s="213"/>
-      <c r="AB29" s="213"/>
-      <c r="AC29" s="213"/>
-      <c r="AD29" s="213"/>
-      <c r="AE29" s="214"/>
-      <c r="AF29" s="209"/>
-      <c r="AG29" s="210"/>
-      <c r="AH29" s="210"/>
-      <c r="AI29" s="211"/>
+      <c r="B29" s="207"/>
+      <c r="C29" s="208"/>
+      <c r="D29" s="209"/>
+      <c r="E29" s="210"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="212"/>
+      <c r="I29" s="208"/>
+      <c r="J29" s="213"/>
+      <c r="K29" s="214"/>
+      <c r="L29" s="214"/>
+      <c r="M29" s="214"/>
+      <c r="N29" s="214"/>
+      <c r="O29" s="214"/>
+      <c r="P29" s="215"/>
+      <c r="Q29" s="216"/>
+      <c r="R29" s="217"/>
+      <c r="S29" s="217"/>
+      <c r="T29" s="217"/>
+      <c r="U29" s="217"/>
+      <c r="V29" s="217"/>
+      <c r="W29" s="217"/>
+      <c r="X29" s="217"/>
+      <c r="Y29" s="217"/>
+      <c r="Z29" s="217"/>
+      <c r="AA29" s="217"/>
+      <c r="AB29" s="217"/>
+      <c r="AC29" s="217"/>
+      <c r="AD29" s="217"/>
+      <c r="AE29" s="218"/>
+      <c r="AF29" s="213"/>
+      <c r="AG29" s="214"/>
+      <c r="AH29" s="214"/>
+      <c r="AI29" s="215"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="203"/>
-      <c r="C30" s="204"/>
-      <c r="D30" s="205"/>
-      <c r="E30" s="206"/>
-      <c r="F30" s="207"/>
-      <c r="G30" s="203"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="204"/>
-      <c r="J30" s="209"/>
-      <c r="K30" s="210"/>
-      <c r="L30" s="210"/>
-      <c r="M30" s="210"/>
-      <c r="N30" s="210"/>
-      <c r="O30" s="210"/>
-      <c r="P30" s="211"/>
-      <c r="Q30" s="212"/>
-      <c r="R30" s="213"/>
-      <c r="S30" s="213"/>
-      <c r="T30" s="213"/>
-      <c r="U30" s="213"/>
-      <c r="V30" s="213"/>
-      <c r="W30" s="213"/>
-      <c r="X30" s="213"/>
-      <c r="Y30" s="213"/>
-      <c r="Z30" s="213"/>
-      <c r="AA30" s="213"/>
-      <c r="AB30" s="213"/>
-      <c r="AC30" s="213"/>
-      <c r="AD30" s="213"/>
-      <c r="AE30" s="214"/>
-      <c r="AF30" s="209"/>
-      <c r="AG30" s="210"/>
-      <c r="AH30" s="210"/>
-      <c r="AI30" s="211"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="209"/>
+      <c r="E30" s="210"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="207"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="208"/>
+      <c r="J30" s="213"/>
+      <c r="K30" s="214"/>
+      <c r="L30" s="214"/>
+      <c r="M30" s="214"/>
+      <c r="N30" s="214"/>
+      <c r="O30" s="214"/>
+      <c r="P30" s="215"/>
+      <c r="Q30" s="216"/>
+      <c r="R30" s="217"/>
+      <c r="S30" s="217"/>
+      <c r="T30" s="217"/>
+      <c r="U30" s="217"/>
+      <c r="V30" s="217"/>
+      <c r="W30" s="217"/>
+      <c r="X30" s="217"/>
+      <c r="Y30" s="217"/>
+      <c r="Z30" s="217"/>
+      <c r="AA30" s="217"/>
+      <c r="AB30" s="217"/>
+      <c r="AC30" s="217"/>
+      <c r="AD30" s="217"/>
+      <c r="AE30" s="218"/>
+      <c r="AF30" s="213"/>
+      <c r="AG30" s="214"/>
+      <c r="AH30" s="214"/>
+      <c r="AI30" s="215"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="203"/>
-      <c r="C31" s="204"/>
-      <c r="D31" s="205"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="203"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="204"/>
-      <c r="J31" s="209"/>
-      <c r="K31" s="210"/>
-      <c r="L31" s="210"/>
-      <c r="M31" s="210"/>
-      <c r="N31" s="210"/>
-      <c r="O31" s="210"/>
-      <c r="P31" s="211"/>
-      <c r="Q31" s="212"/>
-      <c r="R31" s="213"/>
-      <c r="S31" s="213"/>
-      <c r="T31" s="213"/>
-      <c r="U31" s="213"/>
-      <c r="V31" s="213"/>
-      <c r="W31" s="213"/>
-      <c r="X31" s="213"/>
-      <c r="Y31" s="213"/>
-      <c r="Z31" s="213"/>
-      <c r="AA31" s="213"/>
-      <c r="AB31" s="213"/>
-      <c r="AC31" s="213"/>
-      <c r="AD31" s="213"/>
-      <c r="AE31" s="214"/>
-      <c r="AF31" s="209"/>
-      <c r="AG31" s="210"/>
-      <c r="AH31" s="210"/>
-      <c r="AI31" s="211"/>
+      <c r="B31" s="207"/>
+      <c r="C31" s="208"/>
+      <c r="D31" s="209"/>
+      <c r="E31" s="210"/>
+      <c r="F31" s="211"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="212"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="213"/>
+      <c r="K31" s="214"/>
+      <c r="L31" s="214"/>
+      <c r="M31" s="214"/>
+      <c r="N31" s="214"/>
+      <c r="O31" s="214"/>
+      <c r="P31" s="215"/>
+      <c r="Q31" s="216"/>
+      <c r="R31" s="217"/>
+      <c r="S31" s="217"/>
+      <c r="T31" s="217"/>
+      <c r="U31" s="217"/>
+      <c r="V31" s="217"/>
+      <c r="W31" s="217"/>
+      <c r="X31" s="217"/>
+      <c r="Y31" s="217"/>
+      <c r="Z31" s="217"/>
+      <c r="AA31" s="217"/>
+      <c r="AB31" s="217"/>
+      <c r="AC31" s="217"/>
+      <c r="AD31" s="217"/>
+      <c r="AE31" s="218"/>
+      <c r="AF31" s="213"/>
+      <c r="AG31" s="214"/>
+      <c r="AH31" s="214"/>
+      <c r="AI31" s="215"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="203"/>
-      <c r="C32" s="204"/>
-      <c r="D32" s="205"/>
-      <c r="E32" s="206"/>
-      <c r="F32" s="207"/>
-      <c r="G32" s="203"/>
-      <c r="H32" s="208"/>
-      <c r="I32" s="204"/>
-      <c r="J32" s="209"/>
-      <c r="K32" s="228"/>
-      <c r="L32" s="210"/>
-      <c r="M32" s="210"/>
-      <c r="N32" s="210"/>
-      <c r="O32" s="210"/>
-      <c r="P32" s="211"/>
-      <c r="Q32" s="212"/>
-      <c r="R32" s="213"/>
-      <c r="S32" s="213"/>
-      <c r="T32" s="213"/>
-      <c r="U32" s="213"/>
-      <c r="V32" s="213"/>
-      <c r="W32" s="213"/>
-      <c r="X32" s="213"/>
-      <c r="Y32" s="213"/>
-      <c r="Z32" s="213"/>
-      <c r="AA32" s="213"/>
-      <c r="AB32" s="213"/>
-      <c r="AC32" s="213"/>
-      <c r="AD32" s="213"/>
-      <c r="AE32" s="214"/>
-      <c r="AF32" s="209"/>
-      <c r="AG32" s="210"/>
-      <c r="AH32" s="210"/>
-      <c r="AI32" s="211"/>
+      <c r="B32" s="207"/>
+      <c r="C32" s="208"/>
+      <c r="D32" s="209"/>
+      <c r="E32" s="210"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="212"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="213"/>
+      <c r="K32" s="219"/>
+      <c r="L32" s="214"/>
+      <c r="M32" s="214"/>
+      <c r="N32" s="214"/>
+      <c r="O32" s="214"/>
+      <c r="P32" s="215"/>
+      <c r="Q32" s="216"/>
+      <c r="R32" s="217"/>
+      <c r="S32" s="217"/>
+      <c r="T32" s="217"/>
+      <c r="U32" s="217"/>
+      <c r="V32" s="217"/>
+      <c r="W32" s="217"/>
+      <c r="X32" s="217"/>
+      <c r="Y32" s="217"/>
+      <c r="Z32" s="217"/>
+      <c r="AA32" s="217"/>
+      <c r="AB32" s="217"/>
+      <c r="AC32" s="217"/>
+      <c r="AD32" s="217"/>
+      <c r="AE32" s="218"/>
+      <c r="AF32" s="213"/>
+      <c r="AG32" s="214"/>
+      <c r="AH32" s="214"/>
+      <c r="AI32" s="215"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="203"/>
-      <c r="C33" s="204"/>
-      <c r="D33" s="205"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="203"/>
-      <c r="H33" s="208"/>
-      <c r="I33" s="204"/>
-      <c r="J33" s="209"/>
-      <c r="K33" s="210"/>
-      <c r="L33" s="210"/>
-      <c r="M33" s="210"/>
-      <c r="N33" s="210"/>
-      <c r="O33" s="210"/>
-      <c r="P33" s="211"/>
-      <c r="Q33" s="212"/>
-      <c r="R33" s="213"/>
-      <c r="S33" s="213"/>
-      <c r="T33" s="213"/>
-      <c r="U33" s="213"/>
-      <c r="V33" s="213"/>
-      <c r="W33" s="213"/>
-      <c r="X33" s="213"/>
-      <c r="Y33" s="213"/>
-      <c r="Z33" s="213"/>
-      <c r="AA33" s="213"/>
-      <c r="AB33" s="213"/>
-      <c r="AC33" s="213"/>
-      <c r="AD33" s="213"/>
-      <c r="AE33" s="214"/>
-      <c r="AF33" s="209"/>
-      <c r="AG33" s="210"/>
-      <c r="AH33" s="210"/>
-      <c r="AI33" s="211"/>
+      <c r="B33" s="207"/>
+      <c r="C33" s="208"/>
+      <c r="D33" s="209"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="212"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="213"/>
+      <c r="K33" s="214"/>
+      <c r="L33" s="214"/>
+      <c r="M33" s="214"/>
+      <c r="N33" s="214"/>
+      <c r="O33" s="214"/>
+      <c r="P33" s="215"/>
+      <c r="Q33" s="216"/>
+      <c r="R33" s="217"/>
+      <c r="S33" s="217"/>
+      <c r="T33" s="217"/>
+      <c r="U33" s="217"/>
+      <c r="V33" s="217"/>
+      <c r="W33" s="217"/>
+      <c r="X33" s="217"/>
+      <c r="Y33" s="217"/>
+      <c r="Z33" s="217"/>
+      <c r="AA33" s="217"/>
+      <c r="AB33" s="217"/>
+      <c r="AC33" s="217"/>
+      <c r="AD33" s="217"/>
+      <c r="AE33" s="218"/>
+      <c r="AF33" s="213"/>
+      <c r="AG33" s="214"/>
+      <c r="AH33" s="214"/>
+      <c r="AI33" s="215"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13296,6 +13137,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -13489,10 +13486,10 @@
       <c r="J11" s="113"/>
       <c r="K11" s="113"/>
       <c r="L11" s="91"/>
-      <c r="M11" s="231"/>
-      <c r="N11" s="232"/>
-      <c r="O11" s="232"/>
-      <c r="P11" s="231"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="167"/>
+      <c r="O11" s="167"/>
+      <c r="P11" s="166"/>
       <c r="Q11" s="90"/>
     </row>
     <row r="12" spans="1:17" ht="22.5">
@@ -13525,10 +13522,10 @@
       <c r="J12" s="113"/>
       <c r="K12" s="113"/>
       <c r="L12" s="91"/>
-      <c r="M12" s="231"/>
-      <c r="N12" s="232"/>
-      <c r="O12" s="232"/>
-      <c r="P12" s="231"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="167"/>
+      <c r="O12" s="167"/>
+      <c r="P12" s="166"/>
       <c r="Q12" s="90"/>
     </row>
     <row r="13" spans="1:17" s="33" customFormat="1" ht="33.75">
@@ -13564,10 +13561,10 @@
       <c r="K13" s="113"/>
       <c r="L13" s="91"/>
       <c r="M13" s="90"/>
-      <c r="N13" s="232"/>
+      <c r="N13" s="167"/>
       <c r="O13" s="90"/>
-      <c r="P13" s="232"/>
-      <c r="Q13" s="231"/>
+      <c r="P13" s="167"/>
+      <c r="Q13" s="166"/>
     </row>
     <row r="14" spans="1:17" s="33" customFormat="1" ht="22.5">
       <c r="A14" s="44" t="str" cm="1">
@@ -13598,10 +13595,10 @@
       <c r="K14" s="113"/>
       <c r="L14" s="91"/>
       <c r="M14" s="90"/>
-      <c r="N14" s="232"/>
+      <c r="N14" s="167"/>
       <c r="O14" s="90"/>
-      <c r="P14" s="232"/>
-      <c r="Q14" s="231"/>
+      <c r="P14" s="167"/>
+      <c r="Q14" s="166"/>
     </row>
     <row r="15" spans="1:17" s="33" customFormat="1" ht="22.5">
       <c r="A15" s="44" t="str" cm="1">
@@ -13631,11 +13628,11 @@
       <c r="J15" s="113"/>
       <c r="K15" s="113"/>
       <c r="L15" s="91"/>
-      <c r="M15" s="231"/>
-      <c r="N15" s="231"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="166"/>
       <c r="O15" s="90"/>
-      <c r="P15" s="232"/>
-      <c r="Q15" s="231"/>
+      <c r="P15" s="167"/>
+      <c r="Q15" s="166"/>
     </row>
     <row r="16" spans="1:17" s="33" customFormat="1" ht="22.5">
       <c r="A16" s="44" t="str" cm="1">
@@ -13665,10 +13662,10 @@
       <c r="J16" s="113"/>
       <c r="K16" s="113"/>
       <c r="L16" s="91"/>
-      <c r="M16" s="231"/>
+      <c r="M16" s="166"/>
       <c r="N16" s="90"/>
-      <c r="O16" s="232"/>
-      <c r="P16" s="231"/>
+      <c r="O16" s="167"/>
+      <c r="P16" s="166"/>
       <c r="Q16" s="90"/>
     </row>
     <row r="17" spans="1:17" s="33" customFormat="1" ht="33.75">
@@ -13699,10 +13696,10 @@
       <c r="J17" s="113"/>
       <c r="K17" s="73"/>
       <c r="L17" s="91"/>
-      <c r="M17" s="231"/>
+      <c r="M17" s="166"/>
       <c r="N17" s="90"/>
-      <c r="O17" s="232"/>
-      <c r="P17" s="231"/>
+      <c r="O17" s="167"/>
+      <c r="P17" s="166"/>
       <c r="Q17" s="90"/>
     </row>
     <row r="18" spans="1:17" ht="22.5">
@@ -13737,10 +13734,10 @@
       <c r="J18" s="113"/>
       <c r="K18" s="113"/>
       <c r="L18" s="91"/>
-      <c r="M18" s="231"/>
+      <c r="M18" s="166"/>
       <c r="N18" s="90"/>
-      <c r="O18" s="232"/>
-      <c r="P18" s="231"/>
+      <c r="O18" s="167"/>
+      <c r="P18" s="166"/>
       <c r="Q18" s="90"/>
     </row>
     <row r="19" spans="1:17" ht="22.5">
@@ -13771,10 +13768,10 @@
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
       <c r="L19" s="91"/>
-      <c r="M19" s="231"/>
+      <c r="M19" s="166"/>
       <c r="N19" s="90"/>
-      <c r="O19" s="232"/>
-      <c r="P19" s="231"/>
+      <c r="O19" s="167"/>
+      <c r="P19" s="166"/>
       <c r="Q19" s="90"/>
     </row>
     <row r="20" spans="1:17" ht="22.5">
@@ -13805,10 +13802,10 @@
       <c r="J20" s="113"/>
       <c r="K20" s="113"/>
       <c r="L20" s="91"/>
-      <c r="M20" s="231"/>
+      <c r="M20" s="166"/>
       <c r="N20" s="90"/>
-      <c r="O20" s="232"/>
-      <c r="P20" s="231"/>
+      <c r="O20" s="167"/>
+      <c r="P20" s="166"/>
       <c r="Q20" s="90"/>
     </row>
     <row r="21" spans="1:17" ht="22.5">
@@ -13842,9 +13839,9 @@
       <c r="K21" s="113"/>
       <c r="L21" s="91"/>
       <c r="M21" s="90"/>
-      <c r="N21" s="232"/>
+      <c r="N21" s="167"/>
       <c r="O21" s="90"/>
-      <c r="P21" s="231"/>
+      <c r="P21" s="166"/>
       <c r="Q21" s="90"/>
     </row>
     <row r="22" spans="1:17" ht="22.5">
@@ -13876,9 +13873,9 @@
       <c r="K22" s="113"/>
       <c r="L22" s="91"/>
       <c r="M22" s="90"/>
-      <c r="N22" s="232"/>
+      <c r="N22" s="167"/>
       <c r="O22" s="90"/>
-      <c r="P22" s="231"/>
+      <c r="P22" s="166"/>
       <c r="Q22" s="90"/>
     </row>
     <row r="23" spans="1:17" ht="22.5">
@@ -13910,9 +13907,9 @@
       <c r="K23" s="113"/>
       <c r="L23" s="91"/>
       <c r="M23" s="90"/>
-      <c r="N23" s="232"/>
+      <c r="N23" s="167"/>
       <c r="O23" s="90"/>
-      <c r="P23" s="231"/>
+      <c r="P23" s="166"/>
       <c r="Q23" s="90"/>
     </row>
     <row r="24" spans="1:17" ht="22.5">
@@ -13944,9 +13941,9 @@
       <c r="K24" s="113"/>
       <c r="L24" s="91"/>
       <c r="M24" s="90"/>
-      <c r="N24" s="232"/>
+      <c r="N24" s="167"/>
       <c r="O24" s="90"/>
-      <c r="P24" s="231"/>
+      <c r="P24" s="166"/>
       <c r="Q24" s="90"/>
     </row>
     <row r="25" spans="1:17" s="33" customFormat="1" ht="22.5">
@@ -13982,10 +13979,10 @@
       <c r="K25" s="113"/>
       <c r="L25" s="91"/>
       <c r="M25" s="90"/>
-      <c r="N25" s="232"/>
+      <c r="N25" s="167"/>
       <c r="O25" s="90"/>
-      <c r="P25" s="232"/>
-      <c r="Q25" s="231"/>
+      <c r="P25" s="167"/>
+      <c r="Q25" s="166"/>
     </row>
     <row r="26" spans="1:17" s="33" customFormat="1">
       <c r="A26" s="44" t="str" cm="1">
@@ -14015,11 +14012,11 @@
       <c r="J26" s="113"/>
       <c r="K26" s="113"/>
       <c r="L26" s="91"/>
-      <c r="M26" s="231"/>
-      <c r="N26" s="231"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="166"/>
       <c r="O26" s="90"/>
-      <c r="P26" s="232"/>
-      <c r="Q26" s="231"/>
+      <c r="P26" s="167"/>
+      <c r="Q26" s="166"/>
     </row>
     <row r="27" spans="1:17" s="33" customFormat="1" ht="33.75">
       <c r="A27" s="44" t="str" cm="1">
@@ -14054,10 +14051,10 @@
       <c r="K27" s="113"/>
       <c r="L27" s="91"/>
       <c r="M27" s="90"/>
-      <c r="N27" s="232"/>
+      <c r="N27" s="167"/>
       <c r="O27" s="90"/>
-      <c r="P27" s="232"/>
-      <c r="Q27" s="231"/>
+      <c r="P27" s="167"/>
+      <c r="Q27" s="166"/>
     </row>
     <row r="28" spans="1:17" s="33" customFormat="1" ht="22.5">
       <c r="A28" s="44" t="str" cm="1">
@@ -14087,11 +14084,11 @@
       <c r="J28" s="113"/>
       <c r="K28" s="113"/>
       <c r="L28" s="91"/>
-      <c r="M28" s="231"/>
-      <c r="N28" s="231"/>
+      <c r="M28" s="166"/>
+      <c r="N28" s="166"/>
       <c r="O28" s="90"/>
-      <c r="P28" s="232"/>
-      <c r="Q28" s="231"/>
+      <c r="P28" s="167"/>
+      <c r="Q28" s="166"/>
     </row>
     <row r="29" spans="1:17" ht="22.5">
       <c r="A29" s="44" t="str" cm="1">
@@ -14124,7 +14121,7 @@
       <c r="K29" s="113"/>
       <c r="L29" s="91"/>
       <c r="M29" s="90"/>
-      <c r="N29" s="232"/>
+      <c r="N29" s="167"/>
       <c r="O29" s="90"/>
       <c r="P29" s="90"/>
       <c r="Q29" s="90"/>
@@ -14192,7 +14189,7 @@
       <c r="K31" s="113"/>
       <c r="L31" s="91"/>
       <c r="M31" s="90"/>
-      <c r="N31" s="232"/>
+      <c r="N31" s="167"/>
       <c r="O31" s="90"/>
       <c r="P31" s="90"/>
       <c r="Q31" s="90"/>
@@ -14332,7 +14329,7 @@
       <c r="K35" s="113"/>
       <c r="L35" s="91"/>
       <c r="M35" s="90"/>
-      <c r="N35" s="232"/>
+      <c r="N35" s="167"/>
       <c r="O35" s="90"/>
       <c r="P35" s="90"/>
       <c r="Q35" s="90"/>
@@ -14369,7 +14366,7 @@
       <c r="J36" s="113" t="s">
         <v>658</v>
       </c>
-      <c r="K36" s="233"/>
+      <c r="K36" s="168"/>
       <c r="L36" s="91"/>
       <c r="M36" s="90"/>
       <c r="N36" s="90"/>
@@ -14403,7 +14400,7 @@
       <c r="J37" s="113" t="s">
         <v>658</v>
       </c>
-      <c r="K37" s="233"/>
+      <c r="K37" s="168"/>
       <c r="L37" s="91"/>
       <c r="M37" s="90"/>
       <c r="N37" s="90"/>
@@ -14440,7 +14437,7 @@
       <c r="K38" s="113"/>
       <c r="L38" s="91"/>
       <c r="M38" s="90"/>
-      <c r="N38" s="232"/>
+      <c r="N38" s="167"/>
       <c r="O38" s="90"/>
       <c r="P38" s="90"/>
       <c r="Q38" s="90"/>
@@ -14462,7 +14459,7 @@
       <c r="C39" s="116"/>
       <c r="D39" s="118"/>
       <c r="E39" s="119"/>
-      <c r="F39" s="234" t="s">
+      <c r="F39" s="169" t="s">
         <v>89</v>
       </c>
       <c r="G39" s="113"/>
@@ -14473,10 +14470,10 @@
       </c>
       <c r="K39" s="113"/>
       <c r="L39" s="91"/>
-      <c r="M39" s="231"/>
-      <c r="N39" s="232"/>
-      <c r="O39" s="232"/>
-      <c r="P39" s="231"/>
+      <c r="M39" s="166"/>
+      <c r="N39" s="167"/>
+      <c r="O39" s="167"/>
+      <c r="P39" s="166"/>
       <c r="Q39" s="90"/>
     </row>
     <row r="40" spans="1:17" s="33" customFormat="1" ht="33.75">
@@ -14511,10 +14508,10 @@
       </c>
       <c r="K40" s="73"/>
       <c r="L40" s="91"/>
-      <c r="M40" s="231"/>
+      <c r="M40" s="166"/>
       <c r="N40" s="90"/>
-      <c r="O40" s="232"/>
-      <c r="P40" s="231"/>
+      <c r="O40" s="167"/>
+      <c r="P40" s="166"/>
       <c r="Q40" s="90"/>
     </row>
     <row r="41" spans="1:17" s="33" customFormat="1">
@@ -14530,8 +14527,8 @@
 )</f>
         <v>12-2-1</v>
       </c>
-      <c r="B41" s="235"/>
-      <c r="C41" s="235"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
       <c r="D41" s="118"/>
       <c r="E41" s="119"/>
       <c r="F41" s="112" t="s">
@@ -14545,10 +14542,10 @@
       </c>
       <c r="K41" s="73"/>
       <c r="L41" s="91"/>
-      <c r="M41" s="231"/>
+      <c r="M41" s="166"/>
       <c r="N41" s="90"/>
-      <c r="O41" s="232"/>
-      <c r="P41" s="231"/>
+      <c r="O41" s="167"/>
+      <c r="P41" s="166"/>
       <c r="Q41" s="90"/>
     </row>
     <row r="42" spans="1:17" s="33" customFormat="1" ht="22.5">
@@ -17054,7 +17051,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="236" t="s">
+      <c r="B112" s="269" t="s">
         <v>194</v>
       </c>
       <c r="C112" s="120"/>
@@ -17090,7 +17087,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="236"/>
+      <c r="B113" s="269"/>
       <c r="C113" s="120"/>
       <c r="D113" s="115"/>
       <c r="E113" s="139"/>
@@ -17762,7 +17759,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="236" t="s">
+      <c r="B132" s="269" t="s">
         <v>221</v>
       </c>
       <c r="C132" s="120"/>
@@ -17798,7 +17795,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="236"/>
+      <c r="B133" s="269"/>
       <c r="C133" s="120"/>
       <c r="D133" s="115"/>
       <c r="E133" s="115"/>
@@ -23019,7 +23016,7 @@
         <v>95-4-1</v>
       </c>
       <c r="B282" s="116"/>
-      <c r="C282" s="237"/>
+      <c r="C282" s="171"/>
       <c r="D282" s="119"/>
       <c r="E282" s="119"/>
       <c r="F282" s="112" t="s">
@@ -23476,8 +23473,8 @@
 )</f>
         <v>100-9-1</v>
       </c>
-      <c r="B295" s="235"/>
-      <c r="C295" s="235"/>
+      <c r="B295" s="170"/>
+      <c r="C295" s="170"/>
       <c r="D295" s="118"/>
       <c r="E295" s="119"/>
       <c r="F295" s="112" t="s">
@@ -23693,7 +23690,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="22.5">
-      <c r="A11" s="238" t="str" cm="1">
+      <c r="A11" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E11),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E11)&gt;0)*ROW($E$11:E11),0)),
@@ -23735,7 +23732,7 @@
       <c r="Q11" s="91"/>
     </row>
     <row r="12" spans="1:17" ht="22.5">
-      <c r="A12" s="238" t="str" cm="1">
+      <c r="A12" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E12),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E12)&gt;0)*ROW($E$11:E12),0)),
@@ -23771,7 +23768,7 @@
       <c r="Q12" s="91"/>
     </row>
     <row r="13" spans="1:17" ht="33.75">
-      <c r="A13" s="238" t="str" cm="1">
+      <c r="A13" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E13),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E13)&gt;0)*ROW($E$11:E13),0)),
@@ -23809,7 +23806,7 @@
       <c r="Q13" s="91"/>
     </row>
     <row r="14" spans="1:17" ht="22.5">
-      <c r="A14" s="238" t="str" cm="1">
+      <c r="A14" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E14),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E14)&gt;0)*ROW($E$11:E14),0)),
@@ -23843,7 +23840,7 @@
       <c r="Q14" s="91"/>
     </row>
     <row r="15" spans="1:17" ht="22.5">
-      <c r="A15" s="238" t="str" cm="1">
+      <c r="A15" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E15),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E15)&gt;0)*ROW($E$11:E15),0)),
@@ -23877,7 +23874,7 @@
       <c r="Q15" s="91"/>
     </row>
     <row r="16" spans="1:17" ht="22.5">
-      <c r="A16" s="238" t="str" cm="1">
+      <c r="A16" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E16),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E16)&gt;0)*ROW($E$11:E16),0)),
@@ -23911,7 +23908,7 @@
       <c r="Q16" s="91"/>
     </row>
     <row r="17" spans="1:17" ht="33.75">
-      <c r="A17" s="238" t="str" cm="1">
+      <c r="A17" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E17),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E17)&gt;0)*ROW($E$11:E17),0)),
@@ -23945,7 +23942,7 @@
       <c r="Q17" s="91"/>
     </row>
     <row r="18" spans="1:17" ht="22.5">
-      <c r="A18" s="238" t="str" cm="1">
+      <c r="A18" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E18),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E18)&gt;0)*ROW($E$11:E18),0)),
@@ -23983,7 +23980,7 @@
       <c r="Q18" s="91"/>
     </row>
     <row r="19" spans="1:17" ht="22.5">
-      <c r="A19" s="238" t="str" cm="1">
+      <c r="A19" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E19),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E19)&gt;0)*ROW($E$11:E19),0)),
@@ -24017,7 +24014,7 @@
       <c r="Q19" s="91"/>
     </row>
     <row r="20" spans="1:17" ht="22.5">
-      <c r="A20" s="238" t="str" cm="1">
+      <c r="A20" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E20),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E20)&gt;0)*ROW($E$11:E20),0)),
@@ -24051,7 +24048,7 @@
       <c r="Q20" s="91"/>
     </row>
     <row r="21" spans="1:17" ht="22.5">
-      <c r="A21" s="238" t="str" cm="1">
+      <c r="A21" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E21),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E21)&gt;0)*ROW($E$11:E21),0)),
@@ -24087,7 +24084,7 @@
       <c r="Q21" s="91"/>
     </row>
     <row r="22" spans="1:17" ht="22.5">
-      <c r="A22" s="238" t="str" cm="1">
+      <c r="A22" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E22),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E22)&gt;0)*ROW($E$11:E22),0)),
@@ -24121,7 +24118,7 @@
       <c r="Q22" s="91"/>
     </row>
     <row r="23" spans="1:17" ht="22.5">
-      <c r="A23" s="238" t="str" cm="1">
+      <c r="A23" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E23),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E23)&gt;0)*ROW($E$11:E23),0)),
@@ -24155,7 +24152,7 @@
       <c r="Q23" s="91"/>
     </row>
     <row r="24" spans="1:17" ht="22.5">
-      <c r="A24" s="238" t="str" cm="1">
+      <c r="A24" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E24),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E24)&gt;0)*ROW($E$11:E24),0)),
@@ -24189,7 +24186,7 @@
       <c r="Q24" s="91"/>
     </row>
     <row r="25" spans="1:17" ht="22.5">
-      <c r="A25" s="238" t="str" cm="1">
+      <c r="A25" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E25),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E25)&gt;0)*ROW($E$11:E25),0)),
@@ -24227,7 +24224,7 @@
       <c r="Q25" s="91"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="238" t="str" cm="1">
+      <c r="A26" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A26" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E26),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E26)&gt;0)*ROW($E$11:E26),0)),
@@ -24261,7 +24258,7 @@
       <c r="Q26" s="91"/>
     </row>
     <row r="27" spans="1:17" ht="33.75">
-      <c r="A27" s="238" t="str" cm="1">
+      <c r="A27" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E27),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E27)&gt;0)*ROW($E$11:E27),0)),
@@ -24299,7 +24296,7 @@
       <c r="Q27" s="91"/>
     </row>
     <row r="28" spans="1:17" ht="22.5">
-      <c r="A28" s="238" t="str" cm="1">
+      <c r="A28" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E28),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E28)&gt;0)*ROW($E$11:E28),0)),
@@ -24333,7 +24330,7 @@
       <c r="Q28" s="91"/>
     </row>
     <row r="29" spans="1:17" ht="22.5">
-      <c r="A29" s="238" t="str" cm="1">
+      <c r="A29" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E29),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E29)&gt;0)*ROW($E$11:E29),0)),
@@ -24369,7 +24366,7 @@
       <c r="Q29" s="91"/>
     </row>
     <row r="30" spans="1:17" ht="22.5">
-      <c r="A30" s="238" t="str" cm="1">
+      <c r="A30" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E30),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E30)&gt;0)*ROW($E$11:E30),0)),
@@ -24403,7 +24400,7 @@
       <c r="Q30" s="91"/>
     </row>
     <row r="31" spans="1:17" ht="22.5">
-      <c r="A31" s="238" t="str" cm="1">
+      <c r="A31" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E31),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E31)&gt;0)*ROW($E$11:E31),0)),
@@ -24437,7 +24434,7 @@
       <c r="Q31" s="91"/>
     </row>
     <row r="32" spans="1:17" ht="22.5">
-      <c r="A32" s="238" t="str" cm="1">
+      <c r="A32" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E32),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E32)&gt;0)*ROW($E$11:E32),0)),
@@ -24471,7 +24468,7 @@
       <c r="Q32" s="91"/>
     </row>
     <row r="33" spans="1:17" ht="22.5">
-      <c r="A33" s="238" t="str" cm="1">
+      <c r="A33" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E33),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E33)&gt;0)*ROW($E$11:E33),0)),
@@ -24507,7 +24504,7 @@
       <c r="Q33" s="91"/>
     </row>
     <row r="34" spans="1:17" ht="22.5">
-      <c r="A34" s="238" t="str" cm="1">
+      <c r="A34" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E34),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E34)&gt;0)*ROW($E$11:E34),0)),
@@ -24541,7 +24538,7 @@
       <c r="Q34" s="91"/>
     </row>
     <row r="35" spans="1:17" ht="45">
-      <c r="A35" s="238" t="str" cm="1">
+      <c r="A35" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E35),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E35)&gt;0)*ROW($E$11:E35),0)),
@@ -24577,7 +24574,7 @@
       <c r="Q35" s="91"/>
     </row>
     <row r="36" spans="1:17" ht="33.75">
-      <c r="A36" s="238" t="str" cm="1">
+      <c r="A36" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E36),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E36)&gt;0)*ROW($E$11:E36),0)),
@@ -24590,16 +24587,16 @@
         <v>11-1-1</v>
       </c>
       <c r="B36" s="156"/>
-      <c r="C36" s="239" t="s">
+      <c r="C36" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="239" t="s">
+      <c r="D36" s="173" t="s">
         <v>497</v>
       </c>
       <c r="E36" s="155" t="s">
         <v>497</v>
       </c>
-      <c r="F36" s="240" t="s">
+      <c r="F36" s="174" t="s">
         <v>86</v>
       </c>
       <c r="G36" s="89" t="s">
@@ -24617,7 +24614,7 @@
       <c r="Q36" s="91"/>
     </row>
     <row r="37" spans="1:17" ht="33.75">
-      <c r="A37" s="238" t="str" cm="1">
+      <c r="A37" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E37),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E37)&gt;0)*ROW($E$11:E37),0)),
@@ -24651,7 +24648,7 @@
       <c r="Q37" s="91"/>
     </row>
     <row r="38" spans="1:17" ht="22.5">
-      <c r="A38" s="238" t="str" cm="1">
+      <c r="A38" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E38),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E38)&gt;0)*ROW($E$11:E38),0)),
@@ -24685,7 +24682,7 @@
       <c r="Q38" s="91"/>
     </row>
     <row r="39" spans="1:17" ht="22.5">
-      <c r="A39" s="238" t="str" cm="1">
+      <c r="A39" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E39),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E39)&gt;0)*ROW($E$11:E39),0)),
@@ -24719,7 +24716,7 @@
       <c r="Q39" s="91"/>
     </row>
     <row r="40" spans="1:17" ht="33.75">
-      <c r="A40" s="238" t="str" cm="1">
+      <c r="A40" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E40)&gt;0)*ROW($E$11:E40),0)),
@@ -24757,7 +24754,7 @@
       <c r="Q40" s="91"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="238" t="str" cm="1">
+      <c r="A41" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A41" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E41),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E41)&gt;0)*ROW($E$11:E41),0)),
@@ -24791,7 +24788,7 @@
       <c r="Q41" s="91"/>
     </row>
     <row r="42" spans="1:17" ht="22.5">
-      <c r="A42" s="238" t="str" cm="1">
+      <c r="A42" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A42" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E42),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E42)&gt;0)*ROW($E$11:E42),0)),
@@ -24806,13 +24803,13 @@
       <c r="B42" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="241" t="s">
+      <c r="C42" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="241" t="s">
+      <c r="D42" s="175" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="242" t="s">
+      <c r="E42" s="176" t="s">
         <v>96</v>
       </c>
       <c r="F42" s="88" t="s">
@@ -24833,7 +24830,7 @@
       <c r="Q42" s="91"/>
     </row>
     <row r="43" spans="1:17" ht="22.5">
-      <c r="A43" s="238" t="str" cm="1">
+      <c r="A43" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E43)&gt;0)*ROW($E$11:E43),0)),
@@ -24867,7 +24864,7 @@
       <c r="Q43" s="91"/>
     </row>
     <row r="44" spans="1:17" ht="33.75">
-      <c r="A44" s="238" t="str" cm="1">
+      <c r="A44" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E44),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E44)&gt;0)*ROW($E$11:E44),0)),
@@ -24901,7 +24898,7 @@
       <c r="Q44" s="91"/>
     </row>
     <row r="45" spans="1:17" ht="22.5">
-      <c r="A45" s="238" t="str" cm="1">
+      <c r="A45" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E45)&gt;0)*ROW($E$11:E45),0)),
@@ -24937,7 +24934,7 @@
       <c r="Q45" s="91"/>
     </row>
     <row r="46" spans="1:17" ht="22.5">
-      <c r="A46" s="238" t="str" cm="1">
+      <c r="A46" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E46),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E46)&gt;0)*ROW($E$11:E46),0)),
@@ -24971,7 +24968,7 @@
       <c r="Q46" s="91"/>
     </row>
     <row r="47" spans="1:17" ht="33.75">
-      <c r="A47" s="238" t="str" cm="1">
+      <c r="A47" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E47),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E47)&gt;0)*ROW($E$11:E47),0)),
@@ -25005,7 +25002,7 @@
       <c r="Q47" s="91"/>
     </row>
     <row r="48" spans="1:17" ht="22.5">
-      <c r="A48" s="238" t="str" cm="1">
+      <c r="A48" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A48" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E48),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E48)&gt;0)*ROW($E$11:E48),0)),
@@ -25023,7 +25020,7 @@
       <c r="E48" s="159" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="243" t="s">
+      <c r="F48" s="177" t="s">
         <v>104</v>
       </c>
       <c r="G48" s="89"/>
@@ -25041,7 +25038,7 @@
       <c r="Q48" s="91"/>
     </row>
     <row r="49" spans="1:17" ht="22.5">
-      <c r="A49" s="238" t="str" cm="1">
+      <c r="A49" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E49),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E49)&gt;0)*ROW($E$11:E49),0)),
@@ -25057,7 +25054,7 @@
       <c r="C49" s="156"/>
       <c r="D49" s="156"/>
       <c r="E49" s="158"/>
-      <c r="F49" s="243" t="s">
+      <c r="F49" s="177" t="s">
         <v>105</v>
       </c>
       <c r="G49" s="89"/>
@@ -25075,7 +25072,7 @@
       <c r="Q49" s="91"/>
     </row>
     <row r="50" spans="1:17" ht="22.5">
-      <c r="A50" s="238" t="str" cm="1">
+      <c r="A50" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E50),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E50)&gt;0)*ROW($E$11:E50),0)),
@@ -25111,7 +25108,7 @@
       <c r="Q50" s="91"/>
     </row>
     <row r="51" spans="1:17" ht="22.5">
-      <c r="A51" s="238" t="str" cm="1">
+      <c r="A51" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E51),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E51)&gt;0)*ROW($E$11:E51),0)),
@@ -25145,7 +25142,7 @@
       <c r="Q51" s="91"/>
     </row>
     <row r="52" spans="1:17" ht="22.5">
-      <c r="A52" s="238" t="str" cm="1">
+      <c r="A52" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E52),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E52)&gt;0)*ROW($E$11:E52),0)),
@@ -25179,7 +25176,7 @@
       <c r="Q52" s="91"/>
     </row>
     <row r="53" spans="1:17" ht="22.5">
-      <c r="A53" s="238" t="str" cm="1">
+      <c r="A53" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E53),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E53)&gt;0)*ROW($E$11:E53),0)),
@@ -25213,7 +25210,7 @@
       <c r="Q53" s="91"/>
     </row>
     <row r="54" spans="1:17" ht="22.5">
-      <c r="A54" s="238" t="str" cm="1">
+      <c r="A54" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E54),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E54)&gt;0)*ROW($E$11:E54),0)),
@@ -25247,7 +25244,7 @@
       <c r="Q54" s="91"/>
     </row>
     <row r="55" spans="1:17" ht="22.5">
-      <c r="A55" s="238" t="str" cm="1">
+      <c r="A55" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E55),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E55)&gt;0)*ROW($E$11:E55),0)),
@@ -25281,7 +25278,7 @@
       <c r="Q55" s="91"/>
     </row>
     <row r="56" spans="1:17" ht="33.75">
-      <c r="A56" s="238" t="str" cm="1">
+      <c r="A56" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E56)&gt;0)*ROW($E$11:E56),0)),
@@ -25299,7 +25296,7 @@
       <c r="E56" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="F56" s="243" t="s">
+      <c r="F56" s="177" t="s">
         <v>114</v>
       </c>
       <c r="G56" s="89"/>
@@ -25317,7 +25314,7 @@
       <c r="Q56" s="91"/>
     </row>
     <row r="57" spans="1:17" ht="22.5">
-      <c r="A57" s="238" t="str" cm="1">
+      <c r="A57" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E57),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E57)&gt;0)*ROW($E$11:E57),0)),
@@ -25353,7 +25350,7 @@
       <c r="Q57" s="91"/>
     </row>
     <row r="58" spans="1:17" ht="22.5">
-      <c r="A58" s="238" t="str" cm="1">
+      <c r="A58" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E58),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E58)&gt;0)*ROW($E$11:E58),0)),
@@ -25389,7 +25386,7 @@
       <c r="Q58" s="91"/>
     </row>
     <row r="59" spans="1:17" ht="22.5">
-      <c r="A59" s="238" t="str" cm="1">
+      <c r="A59" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E59),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E59)&gt;0)*ROW($E$11:E59),0)),
@@ -25427,7 +25424,7 @@
       <c r="Q59" s="91"/>
     </row>
     <row r="60" spans="1:17" ht="22.5">
-      <c r="A60" s="238" t="str" cm="1">
+      <c r="A60" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E60),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E60)&gt;0)*ROW($E$11:E60),0)),
@@ -25443,7 +25440,7 @@
       <c r="C60" s="157"/>
       <c r="D60" s="156"/>
       <c r="E60" s="159"/>
-      <c r="F60" s="243" t="s">
+      <c r="F60" s="177" t="s">
         <v>535</v>
       </c>
       <c r="G60" s="89"/>
@@ -25461,7 +25458,7 @@
       <c r="Q60" s="91"/>
     </row>
     <row r="61" spans="1:17" ht="22.5">
-      <c r="A61" s="238" t="str" cm="1">
+      <c r="A61" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E61),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E61)&gt;0)*ROW($E$11:E61),0)),
@@ -25495,7 +25492,7 @@
       <c r="Q61" s="91"/>
     </row>
     <row r="62" spans="1:17" ht="22.5">
-      <c r="A62" s="238" t="str" cm="1">
+      <c r="A62" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E62),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E62)&gt;0)*ROW($E$11:E62),0)),
@@ -25529,7 +25526,7 @@
       <c r="Q62" s="91"/>
     </row>
     <row r="63" spans="1:17" ht="22.5">
-      <c r="A63" s="238" t="str" cm="1">
+      <c r="A63" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E63),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E63)&gt;0)*ROW($E$11:E63),0)),
@@ -25563,7 +25560,7 @@
       <c r="Q63" s="91"/>
     </row>
     <row r="64" spans="1:17" ht="33.75">
-      <c r="A64" s="238" t="str" cm="1">
+      <c r="A64" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E64),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E64)&gt;0)*ROW($E$11:E64),0)),
@@ -25599,7 +25596,7 @@
       <c r="Q64" s="91"/>
     </row>
     <row r="65" spans="1:17" ht="33.75">
-      <c r="A65" s="238" t="str" cm="1">
+      <c r="A65" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E65),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E65)&gt;0)*ROW($E$11:E65),0)),
@@ -25633,7 +25630,7 @@
       <c r="Q65" s="91"/>
     </row>
     <row r="66" spans="1:17" ht="33.75">
-      <c r="A66" s="238" t="str" cm="1">
+      <c r="A66" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E66),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E66)&gt;0)*ROW($E$11:E66),0)),
@@ -25667,7 +25664,7 @@
       <c r="Q66" s="91"/>
     </row>
     <row r="67" spans="1:17" ht="33.75">
-      <c r="A67" s="238" t="str" cm="1">
+      <c r="A67" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E67),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E67)&gt;0)*ROW($E$11:E67),0)),
@@ -25701,7 +25698,7 @@
       <c r="Q67" s="91"/>
     </row>
     <row r="68" spans="1:17" ht="33.75">
-      <c r="A68" s="238" t="str" cm="1">
+      <c r="A68" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E68),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E68)&gt;0)*ROW($E$11:E68),0)),
@@ -25735,7 +25732,7 @@
       <c r="Q68" s="91"/>
     </row>
     <row r="69" spans="1:17" ht="22.5">
-      <c r="A69" s="238" t="str" cm="1">
+      <c r="A69" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E69),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E69)&gt;0)*ROW($E$11:E69),0)),
@@ -25769,7 +25766,7 @@
       <c r="Q69" s="91"/>
     </row>
     <row r="70" spans="1:17" ht="22.5">
-      <c r="A70" s="238" t="str" cm="1">
+      <c r="A70" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E70),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E70)&gt;0)*ROW($E$11:E70),0)),
@@ -25803,7 +25800,7 @@
       <c r="Q70" s="91"/>
     </row>
     <row r="71" spans="1:17" ht="33.75">
-      <c r="A71" s="238" t="str" cm="1">
+      <c r="A71" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E71),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E71)&gt;0)*ROW($E$11:E71),0)),
@@ -25837,7 +25834,7 @@
       <c r="Q71" s="91"/>
     </row>
     <row r="72" spans="1:17" ht="22.5">
-      <c r="A72" s="238" t="str" cm="1">
+      <c r="A72" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E72),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E72)&gt;0)*ROW($E$11:E72),0)),
@@ -25855,7 +25852,7 @@
       <c r="E72" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="F72" s="244" t="s">
+      <c r="F72" s="178" t="s">
         <v>135</v>
       </c>
       <c r="G72" s="87"/>
@@ -25865,15 +25862,15 @@
         <v>662</v>
       </c>
       <c r="K72" s="73"/>
-      <c r="L72" s="232"/>
-      <c r="M72" s="231"/>
+      <c r="L72" s="167"/>
+      <c r="M72" s="166"/>
       <c r="N72" s="90"/>
       <c r="O72" s="111"/>
       <c r="P72" s="91"/>
       <c r="Q72" s="91"/>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" s="238" t="str" cm="1">
+      <c r="A73" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A73" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E73),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E73)&gt;0)*ROW($E$11:E73),0)),
@@ -25886,7 +25883,7 @@
         <v>23-1-1</v>
       </c>
       <c r="B73" s="156"/>
-      <c r="C73" s="245"/>
+      <c r="C73" s="179"/>
       <c r="D73" s="156"/>
       <c r="E73" s="159" t="s">
         <v>136</v>
@@ -25909,7 +25906,7 @@
       <c r="Q73" s="91"/>
     </row>
     <row r="74" spans="1:17">
-      <c r="A74" s="238" t="str" cm="1">
+      <c r="A74" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A74" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E74),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E74)&gt;0)*ROW($E$11:E74),0)),
@@ -25922,7 +25919,7 @@
         <v>23-2-1</v>
       </c>
       <c r="B74" s="156"/>
-      <c r="C74" s="245"/>
+      <c r="C74" s="179"/>
       <c r="D74" s="156"/>
       <c r="E74" s="159"/>
       <c r="F74" s="88" t="s">
@@ -25943,7 +25940,7 @@
       <c r="Q74" s="91"/>
     </row>
     <row r="75" spans="1:17">
-      <c r="A75" s="238" t="str" cm="1">
+      <c r="A75" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A75" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E75),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E75)&gt;0)*ROW($E$11:E75),0)),
@@ -25956,7 +25953,7 @@
         <v>23-3-1</v>
       </c>
       <c r="B75" s="156"/>
-      <c r="C75" s="245"/>
+      <c r="C75" s="179"/>
       <c r="D75" s="156"/>
       <c r="E75" s="159"/>
       <c r="F75" s="88" t="s">
@@ -25977,7 +25974,7 @@
       <c r="Q75" s="91"/>
     </row>
     <row r="76" spans="1:17">
-      <c r="A76" s="238" t="str" cm="1">
+      <c r="A76" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A76" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E76),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E76)&gt;0)*ROW($E$11:E76),0)),
@@ -25990,7 +25987,7 @@
         <v>23-4-1</v>
       </c>
       <c r="B76" s="156"/>
-      <c r="C76" s="245"/>
+      <c r="C76" s="179"/>
       <c r="D76" s="156"/>
       <c r="E76" s="159"/>
       <c r="F76" s="88" t="s">
@@ -26011,7 +26008,7 @@
       <c r="Q76" s="91"/>
     </row>
     <row r="77" spans="1:17" ht="22.5">
-      <c r="A77" s="238" t="str" cm="1">
+      <c r="A77" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A77" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E77),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E77)&gt;0)*ROW($E$11:E77),0)),
@@ -26045,7 +26042,7 @@
       <c r="Q77" s="91"/>
     </row>
     <row r="78" spans="1:17" ht="22.5">
-      <c r="A78" s="238" t="str" cm="1">
+      <c r="A78" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A78" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E78),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E78)&gt;0)*ROW($E$11:E78),0)),
@@ -26057,14 +26054,14 @@
 )</f>
         <v>24-1-1</v>
       </c>
-      <c r="B78" s="246"/>
-      <c r="C78" s="239" t="s">
+      <c r="B78" s="180"/>
+      <c r="C78" s="173" t="s">
         <v>142</v>
       </c>
       <c r="D78" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="E78" s="239" t="s">
+      <c r="E78" s="173" t="s">
         <v>493</v>
       </c>
       <c r="F78" s="88" t="s">
@@ -26085,7 +26082,7 @@
       <c r="Q78" s="91"/>
     </row>
     <row r="79" spans="1:17" ht="33.75">
-      <c r="A79" s="238" t="str" cm="1">
+      <c r="A79" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A79" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E79),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E79)&gt;0)*ROW($E$11:E79),0)),
@@ -26119,7 +26116,7 @@
       <c r="Q79" s="91"/>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="238" t="str" cm="1">
+      <c r="A80" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A80" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E80),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E80)&gt;0)*ROW($E$11:E80),0)),
@@ -26155,7 +26152,7 @@
       <c r="Q80" s="91"/>
     </row>
     <row r="81" spans="1:17" ht="33.75">
-      <c r="A81" s="238" t="str" cm="1">
+      <c r="A81" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E81),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E81)&gt;0)*ROW($E$11:E81),0)),
@@ -26191,7 +26188,7 @@
       <c r="Q81" s="91"/>
     </row>
     <row r="82" spans="1:17" ht="33.75">
-      <c r="A82" s="238" t="str" cm="1">
+      <c r="A82" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A82" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E82),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E82)&gt;0)*ROW($E$11:E82),0)),
@@ -26225,7 +26222,7 @@
       <c r="Q82" s="91"/>
     </row>
     <row r="83" spans="1:17" ht="22.5">
-      <c r="A83" s="238" t="str" cm="1">
+      <c r="A83" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E83),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E83)&gt;0)*ROW($E$11:E83),0)),
@@ -26261,7 +26258,7 @@
       <c r="Q83" s="91"/>
     </row>
     <row r="84" spans="1:17" ht="22.5">
-      <c r="A84" s="238" t="str" cm="1">
+      <c r="A84" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A84" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E84),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E84)&gt;0)*ROW($E$11:E84),0)),
@@ -26297,7 +26294,7 @@
       <c r="Q84" s="91"/>
     </row>
     <row r="85" spans="1:17" ht="22.5">
-      <c r="A85" s="238" t="str" cm="1">
+      <c r="A85" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E85),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E85)&gt;0)*ROW($E$11:E85),0)),
@@ -26337,7 +26334,7 @@
       <c r="Q85" s="91"/>
     </row>
     <row r="86" spans="1:17">
-      <c r="A86" s="238" t="str" cm="1">
+      <c r="A86" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A86" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E86),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E86)&gt;0)*ROW($E$11:E86),0)),
@@ -26373,7 +26370,7 @@
       <c r="Q86" s="91"/>
     </row>
     <row r="87" spans="1:17" ht="33.75">
-      <c r="A87" s="238" t="str" cm="1">
+      <c r="A87" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A87" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E87),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E87)&gt;0)*ROW($E$11:E87),0)),
@@ -26409,7 +26406,7 @@
       <c r="Q87" s="91"/>
     </row>
     <row r="88" spans="1:17" ht="22.5">
-      <c r="A88" s="238" t="str" cm="1">
+      <c r="A88" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E88),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E88)&gt;0)*ROW($E$11:E88),0)),
@@ -26431,7 +26428,7 @@
       <c r="E88" s="159" t="s">
         <v>497</v>
       </c>
-      <c r="F88" s="243" t="s">
+      <c r="F88" s="177" t="s">
         <v>160</v>
       </c>
       <c r="G88" s="89"/>
@@ -26449,7 +26446,7 @@
       <c r="Q88" s="91"/>
     </row>
     <row r="89" spans="1:17" ht="33.75">
-      <c r="A89" s="238" t="str" cm="1">
+      <c r="A89" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E89),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E89)&gt;0)*ROW($E$11:E89),0)),
@@ -26483,7 +26480,7 @@
       <c r="Q89" s="91"/>
     </row>
     <row r="90" spans="1:17">
-      <c r="A90" s="238" t="str" cm="1">
+      <c r="A90" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A90" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E90),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E90)&gt;0)*ROW($E$11:E90),0)),
@@ -26519,7 +26516,7 @@
       <c r="Q90" s="91"/>
     </row>
     <row r="91" spans="1:17" ht="33.75">
-      <c r="A91" s="238" t="str" cm="1">
+      <c r="A91" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E91),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E91)&gt;0)*ROW($E$11:E91),0)),
@@ -26555,7 +26552,7 @@
       <c r="Q91" s="91"/>
     </row>
     <row r="92" spans="1:17" ht="33.75">
-      <c r="A92" s="238" t="str" cm="1">
+      <c r="A92" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E92),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E92)&gt;0)*ROW($E$11:E92),0)),
@@ -26589,7 +26586,7 @@
       <c r="Q92" s="91"/>
     </row>
     <row r="93" spans="1:17" ht="33.75">
-      <c r="A93" s="238" t="str" cm="1">
+      <c r="A93" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E93),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E93)&gt;0)*ROW($E$11:E93),0)),
@@ -26625,7 +26622,7 @@
       <c r="Q93" s="91"/>
     </row>
     <row r="94" spans="1:17" ht="22.5">
-      <c r="A94" s="238" t="str" cm="1">
+      <c r="A94" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A94" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E94),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E94)&gt;0)*ROW($E$11:E94),0)),
@@ -26665,7 +26662,7 @@
       <c r="Q94" s="91"/>
     </row>
     <row r="95" spans="1:17" ht="33.75">
-      <c r="A95" s="238" t="str" cm="1">
+      <c r="A95" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A95" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E95),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E95)&gt;0)*ROW($E$11:E95),0)),
@@ -26699,7 +26696,7 @@
       <c r="Q95" s="91"/>
     </row>
     <row r="96" spans="1:17">
-      <c r="A96" s="238" t="str" cm="1">
+      <c r="A96" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A96" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E96),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E96)&gt;0)*ROW($E$11:E96),0)),
@@ -26733,7 +26730,7 @@
       <c r="Q96" s="91"/>
     </row>
     <row r="97" spans="1:17" ht="33.75">
-      <c r="A97" s="238" t="str" cm="1">
+      <c r="A97" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E97),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E97)&gt;0)*ROW($E$11:E97),0)),
@@ -26767,7 +26764,7 @@
       <c r="Q97" s="91"/>
     </row>
     <row r="98" spans="1:17" ht="33.75">
-      <c r="A98" s="238" t="str" cm="1">
+      <c r="A98" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E98),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E98)&gt;0)*ROW($E$11:E98),0)),
@@ -26801,7 +26798,7 @@
       <c r="Q98" s="91"/>
     </row>
     <row r="99" spans="1:17" ht="22.5">
-      <c r="A99" s="238" t="str" cm="1">
+      <c r="A99" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E99),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E99)&gt;0)*ROW($E$11:E99),0)),
@@ -26837,7 +26834,7 @@
       <c r="Q99" s="91"/>
     </row>
     <row r="100" spans="1:17" ht="33.75">
-      <c r="A100" s="238" t="str" cm="1">
+      <c r="A100" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A100" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E100),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E100)&gt;0)*ROW($E$11:E100),0)),
@@ -26871,7 +26868,7 @@
       <c r="Q100" s="91"/>
     </row>
     <row r="101" spans="1:17">
-      <c r="A101" s="238" t="str" cm="1">
+      <c r="A101" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A101" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E101),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E101)&gt;0)*ROW($E$11:E101),0)),
@@ -26905,7 +26902,7 @@
       <c r="Q101" s="91"/>
     </row>
     <row r="102" spans="1:17" ht="33.75">
-      <c r="A102" s="238" t="str" cm="1">
+      <c r="A102" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E102),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E102)&gt;0)*ROW($E$11:E102),0)),
@@ -26939,7 +26936,7 @@
       <c r="Q102" s="91"/>
     </row>
     <row r="103" spans="1:17" ht="33.75">
-      <c r="A103" s="238" t="str" cm="1">
+      <c r="A103" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E103),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E103)&gt;0)*ROW($E$11:E103),0)),
@@ -26973,7 +26970,7 @@
       <c r="Q103" s="91"/>
     </row>
     <row r="104" spans="1:17" ht="33.75">
-      <c r="A104" s="238" t="str" cm="1">
+      <c r="A104" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A104" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E104),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E104)&gt;0)*ROW($E$11:E104),0)),
@@ -27009,7 +27006,7 @@
       <c r="Q104" s="91"/>
     </row>
     <row r="105" spans="1:17" ht="33.75">
-      <c r="A105" s="238" t="str" cm="1">
+      <c r="A105" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E105),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E105)&gt;0)*ROW($E$11:E105),0)),
@@ -27051,7 +27048,7 @@
       <c r="Q105" s="91"/>
     </row>
     <row r="106" spans="1:17">
-      <c r="A106" s="238" t="str" cm="1">
+      <c r="A106" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A106" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E106),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E106)&gt;0)*ROW($E$11:E106),0)),
@@ -27091,7 +27088,7 @@
       <c r="Q106" s="91"/>
     </row>
     <row r="107" spans="1:17">
-      <c r="A107" s="238" t="str" cm="1">
+      <c r="A107" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A107" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E107),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E107)&gt;0)*ROW($E$11:E107),0)),
@@ -27125,7 +27122,7 @@
       <c r="Q107" s="91"/>
     </row>
     <row r="108" spans="1:17" ht="22.5">
-      <c r="A108" s="238" t="str" cm="1">
+      <c r="A108" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A108" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E108),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E108)&gt;0)*ROW($E$11:E108),0)),
@@ -27165,7 +27162,7 @@
       <c r="Q108" s="91"/>
     </row>
     <row r="109" spans="1:17" ht="22.5">
-      <c r="A109" s="238" t="str" cm="1">
+      <c r="A109" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E109),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E109)&gt;0)*ROW($E$11:E109),0)),
@@ -27205,7 +27202,7 @@
       <c r="Q109" s="91"/>
     </row>
     <row r="110" spans="1:17">
-      <c r="A110" s="238" t="str" cm="1">
+      <c r="A110" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A110" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E110),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E110)&gt;0)*ROW($E$11:E110),0)),
@@ -27239,7 +27236,7 @@
       <c r="Q110" s="91"/>
     </row>
     <row r="111" spans="1:17" ht="22.5">
-      <c r="A111" s="238" t="str" cm="1">
+      <c r="A111" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E111),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E111)&gt;0)*ROW($E$11:E111),0)),
@@ -27260,7 +27257,7 @@
       <c r="D111" s="155" t="s">
         <v>497</v>
       </c>
-      <c r="E111" s="247" t="s">
+      <c r="E111" s="181" t="s">
         <v>497</v>
       </c>
       <c r="F111" s="88" t="s">
@@ -27281,7 +27278,7 @@
       <c r="Q111" s="91"/>
     </row>
     <row r="112" spans="1:17" ht="22.5">
-      <c r="A112" s="238" t="str" cm="1">
+      <c r="A112" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A112" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E112),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E112)&gt;0)*ROW($E$11:E112),0)),
@@ -27293,7 +27290,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="248" t="s">
+      <c r="B112" s="270" t="s">
         <v>540</v>
       </c>
       <c r="C112" s="159"/>
@@ -27317,7 +27314,7 @@
       <c r="Q112" s="91"/>
     </row>
     <row r="113" spans="1:17" ht="22.5">
-      <c r="A113" s="238" t="str" cm="1">
+      <c r="A113" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E113),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E113)&gt;0)*ROW($E$11:E113),0)),
@@ -27329,7 +27326,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="248"/>
+      <c r="B113" s="270"/>
       <c r="C113" s="159"/>
       <c r="D113" s="156"/>
       <c r="E113" s="161"/>
@@ -27351,7 +27348,7 @@
       <c r="Q113" s="91"/>
     </row>
     <row r="114" spans="1:17" ht="22.5">
-      <c r="A114" s="238" t="str" cm="1">
+      <c r="A114" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E114),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E114)&gt;0)*ROW($E$11:E114),0)),
@@ -27385,7 +27382,7 @@
       <c r="Q114" s="91"/>
     </row>
     <row r="115" spans="1:17" ht="22.5">
-      <c r="A115" s="238" t="str" cm="1">
+      <c r="A115" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A115" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E115),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E115)&gt;0)*ROW($E$11:E115),0)),
@@ -27421,7 +27418,7 @@
       <c r="Q115" s="91"/>
     </row>
     <row r="116" spans="1:17" ht="22.5">
-      <c r="A116" s="238" t="str" cm="1">
+      <c r="A116" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E116),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E116)&gt;0)*ROW($E$11:E116),0)),
@@ -27455,7 +27452,7 @@
       <c r="Q116" s="91"/>
     </row>
     <row r="117" spans="1:17" ht="22.5">
-      <c r="A117" s="238" t="str" cm="1">
+      <c r="A117" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A117" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E117),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E117)&gt;0)*ROW($E$11:E117),0)),
@@ -27489,7 +27486,7 @@
       <c r="Q117" s="91"/>
     </row>
     <row r="118" spans="1:17" ht="22.5">
-      <c r="A118" s="238" t="str" cm="1">
+      <c r="A118" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A118" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E118),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E118)&gt;0)*ROW($E$11:E118),0)),
@@ -27523,7 +27520,7 @@
       <c r="Q118" s="91"/>
     </row>
     <row r="119" spans="1:17" ht="33.75">
-      <c r="A119" s="238" t="str" cm="1">
+      <c r="A119" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E119),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E119)&gt;0)*ROW($E$11:E119),0)),
@@ -27557,7 +27554,7 @@
       <c r="Q119" s="91"/>
     </row>
     <row r="120" spans="1:17" ht="33.75">
-      <c r="A120" s="238" t="str" cm="1">
+      <c r="A120" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E120),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E120)&gt;0)*ROW($E$11:E120),0)),
@@ -27593,7 +27590,7 @@
       <c r="Q120" s="91"/>
     </row>
     <row r="121" spans="1:17" ht="33.75">
-      <c r="A121" s="238" t="str" cm="1">
+      <c r="A121" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E121),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E121)&gt;0)*ROW($E$11:E121),0)),
@@ -27627,7 +27624,7 @@
       <c r="Q121" s="91"/>
     </row>
     <row r="122" spans="1:17" ht="45">
-      <c r="A122" s="238" t="str" cm="1">
+      <c r="A122" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E122),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E122)&gt;0)*ROW($E$11:E122),0)),
@@ -27661,7 +27658,7 @@
       <c r="Q122" s="91"/>
     </row>
     <row r="123" spans="1:17" ht="45">
-      <c r="A123" s="238" t="str" cm="1">
+      <c r="A123" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E123),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E123)&gt;0)*ROW($E$11:E123),0)),
@@ -27695,7 +27692,7 @@
       <c r="Q123" s="91"/>
     </row>
     <row r="124" spans="1:17" ht="33.75">
-      <c r="A124" s="238" t="str" cm="1">
+      <c r="A124" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E124),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E124)&gt;0)*ROW($E$11:E124),0)),
@@ -27729,7 +27726,7 @@
       <c r="Q124" s="91"/>
     </row>
     <row r="125" spans="1:17" ht="33.75">
-      <c r="A125" s="238" t="str" cm="1">
+      <c r="A125" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E125),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E125)&gt;0)*ROW($E$11:E125),0)),
@@ -27765,7 +27762,7 @@
       <c r="Q125" s="91"/>
     </row>
     <row r="126" spans="1:17" ht="33.75">
-      <c r="A126" s="238" t="str" cm="1">
+      <c r="A126" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E126),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E126)&gt;0)*ROW($E$11:E126),0)),
@@ -27803,7 +27800,7 @@
       <c r="Q126" s="91"/>
     </row>
     <row r="127" spans="1:17" ht="33.75">
-      <c r="A127" s="238" t="str" cm="1">
+      <c r="A127" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E127),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E127)&gt;0)*ROW($E$11:E127),0)),
@@ -27843,7 +27840,7 @@
       <c r="Q127" s="91"/>
     </row>
     <row r="128" spans="1:17" ht="22.5">
-      <c r="A128" s="238" t="str" cm="1">
+      <c r="A128" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E128),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E128)&gt;0)*ROW($E$11:E128),0)),
@@ -27879,7 +27876,7 @@
       <c r="Q128" s="91"/>
     </row>
     <row r="129" spans="1:17" ht="22.5">
-      <c r="A129" s="238" t="str" cm="1">
+      <c r="A129" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E129),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E129)&gt;0)*ROW($E$11:E129),0)),
@@ -27913,7 +27910,7 @@
       <c r="Q129" s="91"/>
     </row>
     <row r="130" spans="1:17" ht="45">
-      <c r="A130" s="238" t="str" cm="1">
+      <c r="A130" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E130),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E130)&gt;0)*ROW($E$11:E130),0)),
@@ -27947,7 +27944,7 @@
       <c r="Q130" s="91"/>
     </row>
     <row r="131" spans="1:17" ht="22.5">
-      <c r="A131" s="238" t="str" cm="1">
+      <c r="A131" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A131" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E131),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E131)&gt;0)*ROW($E$11:E131),0)),
@@ -27968,7 +27965,7 @@
       <c r="D131" s="155" t="s">
         <v>497</v>
       </c>
-      <c r="E131" s="247" t="s">
+      <c r="E131" s="181" t="s">
         <v>497</v>
       </c>
       <c r="F131" s="88" t="s">
@@ -27989,7 +27986,7 @@
       <c r="Q131" s="91"/>
     </row>
     <row r="132" spans="1:17" ht="22.5">
-      <c r="A132" s="238" t="str" cm="1">
+      <c r="A132" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E132),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E132)&gt;0)*ROW($E$11:E132),0)),
@@ -28001,7 +27998,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="248" t="s">
+      <c r="B132" s="270" t="s">
         <v>221</v>
       </c>
       <c r="C132" s="159"/>
@@ -28025,7 +28022,7 @@
       <c r="Q132" s="91"/>
     </row>
     <row r="133" spans="1:17" ht="22.5">
-      <c r="A133" s="238" t="str" cm="1">
+      <c r="A133" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E133),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E133)&gt;0)*ROW($E$11:E133),0)),
@@ -28037,7 +28034,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="248"/>
+      <c r="B133" s="270"/>
       <c r="C133" s="159"/>
       <c r="D133" s="156"/>
       <c r="E133" s="159"/>
@@ -28059,7 +28056,7 @@
       <c r="Q133" s="91"/>
     </row>
     <row r="134" spans="1:17" ht="22.5">
-      <c r="A134" s="238" t="str" cm="1">
+      <c r="A134" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E134),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E134)&gt;0)*ROW($E$11:E134),0)),
@@ -28093,7 +28090,7 @@
       <c r="Q134" s="91"/>
     </row>
     <row r="135" spans="1:17" ht="22.5">
-      <c r="A135" s="238" t="str" cm="1">
+      <c r="A135" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E135),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E135)&gt;0)*ROW($E$11:E135),0)),
@@ -28129,7 +28126,7 @@
       <c r="Q135" s="91"/>
     </row>
     <row r="136" spans="1:17" ht="33.75">
-      <c r="A136" s="238" t="str" cm="1">
+      <c r="A136" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E136),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E136)&gt;0)*ROW($E$11:E136),0)),
@@ -28163,7 +28160,7 @@
       <c r="Q136" s="91"/>
     </row>
     <row r="137" spans="1:17" ht="33.75">
-      <c r="A137" s="238" t="str" cm="1">
+      <c r="A137" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E137),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E137)&gt;0)*ROW($E$11:E137),0)),
@@ -28201,7 +28198,7 @@
       <c r="Q137" s="91"/>
     </row>
     <row r="138" spans="1:17" ht="33.75">
-      <c r="A138" s="238" t="str" cm="1">
+      <c r="A138" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E138),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E138)&gt;0)*ROW($E$11:E138),0)),
@@ -28241,7 +28238,7 @@
       <c r="Q138" s="91"/>
     </row>
     <row r="139" spans="1:17" ht="33.75">
-      <c r="A139" s="238" t="str" cm="1">
+      <c r="A139" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E139),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E139)&gt;0)*ROW($E$11:E139),0)),
@@ -28277,7 +28274,7 @@
       <c r="Q139" s="91"/>
     </row>
     <row r="140" spans="1:17" ht="33.75">
-      <c r="A140" s="238" t="str" cm="1">
+      <c r="A140" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E140),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E140)&gt;0)*ROW($E$11:E140),0)),
@@ -28313,7 +28310,7 @@
       <c r="Q140" s="91"/>
     </row>
     <row r="141" spans="1:17" ht="33.75">
-      <c r="A141" s="238" t="str" cm="1">
+      <c r="A141" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E141)&gt;0)*ROW($E$11:E141),0)),
@@ -28349,7 +28346,7 @@
       <c r="Q141" s="91"/>
     </row>
     <row r="142" spans="1:17" ht="33.75">
-      <c r="A142" s="238" t="str" cm="1">
+      <c r="A142" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E142),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E142)&gt;0)*ROW($E$11:E142),0)),
@@ -28385,7 +28382,7 @@
       <c r="Q142" s="91"/>
     </row>
     <row r="143" spans="1:17" ht="22.5">
-      <c r="A143" s="238" t="str" cm="1">
+      <c r="A143" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E143),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E143)&gt;0)*ROW($E$11:E143),0)),
@@ -28421,7 +28418,7 @@
       <c r="Q143" s="91"/>
     </row>
     <row r="144" spans="1:17" ht="22.5">
-      <c r="A144" s="238" t="str" cm="1">
+      <c r="A144" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E144),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E144)&gt;0)*ROW($E$11:E144),0)),
@@ -28455,7 +28452,7 @@
       <c r="Q144" s="91"/>
     </row>
     <row r="145" spans="1:17" ht="22.5">
-      <c r="A145" s="238" t="str" cm="1">
+      <c r="A145" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E145),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E145)&gt;0)*ROW($E$11:E145),0)),
@@ -28489,7 +28486,7 @@
       <c r="Q145" s="91"/>
     </row>
     <row r="146" spans="1:17" ht="22.5">
-      <c r="A146" s="238" t="str" cm="1">
+      <c r="A146" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E146),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E146)&gt;0)*ROW($E$11:E146),0)),
@@ -28523,7 +28520,7 @@
       <c r="Q146" s="91"/>
     </row>
     <row r="147" spans="1:17" ht="22.5">
-      <c r="A147" s="238" t="str" cm="1">
+      <c r="A147" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E147),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E147)&gt;0)*ROW($E$11:E147),0)),
@@ -28557,7 +28554,7 @@
       <c r="Q147" s="91"/>
     </row>
     <row r="148" spans="1:17" ht="22.5">
-      <c r="A148" s="238" t="str" cm="1">
+      <c r="A148" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E148),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E148)&gt;0)*ROW($E$11:E148),0)),
@@ -28591,7 +28588,7 @@
       <c r="Q148" s="91"/>
     </row>
     <row r="149" spans="1:17" ht="22.5">
-      <c r="A149" s="238" t="str" cm="1">
+      <c r="A149" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E149),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E149)&gt;0)*ROW($E$11:E149),0)),
@@ -28629,7 +28626,7 @@
       <c r="Q149" s="91"/>
     </row>
     <row r="150" spans="1:17" ht="22.5">
-      <c r="A150" s="238" t="str" cm="1">
+      <c r="A150" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E150),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E150)&gt;0)*ROW($E$11:E150),0)),
@@ -28663,7 +28660,7 @@
       <c r="Q150" s="91"/>
     </row>
     <row r="151" spans="1:17" ht="33.75">
-      <c r="A151" s="238" t="str" cm="1">
+      <c r="A151" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E151),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E151)&gt;0)*ROW($E$11:E151),0)),
@@ -28699,7 +28696,7 @@
       <c r="Q151" s="91"/>
     </row>
     <row r="152" spans="1:17" ht="33.75">
-      <c r="A152" s="238" t="str" cm="1">
+      <c r="A152" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E152),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E152)&gt;0)*ROW($E$11:E152),0)),
@@ -28733,7 +28730,7 @@
       <c r="Q152" s="91"/>
     </row>
     <row r="153" spans="1:17" ht="33.75">
-      <c r="A153" s="238" t="str" cm="1">
+      <c r="A153" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E153),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E153)&gt;0)*ROW($E$11:E153),0)),
@@ -28767,7 +28764,7 @@
       <c r="Q153" s="91"/>
     </row>
     <row r="154" spans="1:17" ht="33.75">
-      <c r="A154" s="238" t="str" cm="1">
+      <c r="A154" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E154),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E154)&gt;0)*ROW($E$11:E154),0)),
@@ -28801,7 +28798,7 @@
       <c r="Q154" s="91"/>
     </row>
     <row r="155" spans="1:17" ht="33.75">
-      <c r="A155" s="238" t="str" cm="1">
+      <c r="A155" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E155),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E155)&gt;0)*ROW($E$11:E155),0)),
@@ -28835,7 +28832,7 @@
       <c r="Q155" s="91"/>
     </row>
     <row r="156" spans="1:17" ht="22.5">
-      <c r="A156" s="238" t="str" cm="1">
+      <c r="A156" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E156),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E156)&gt;0)*ROW($E$11:E156),0)),
@@ -28869,7 +28866,7 @@
       <c r="Q156" s="91"/>
     </row>
     <row r="157" spans="1:17" ht="22.5">
-      <c r="A157" s="238" t="str" cm="1">
+      <c r="A157" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E157),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E157)&gt;0)*ROW($E$11:E157),0)),
@@ -28903,7 +28900,7 @@
       <c r="Q157" s="91"/>
     </row>
     <row r="158" spans="1:17" ht="33.75">
-      <c r="A158" s="238" t="str" cm="1">
+      <c r="A158" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A158" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E158),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E158)&gt;0)*ROW($E$11:E158),0)),
@@ -28937,7 +28934,7 @@
       <c r="Q158" s="91"/>
     </row>
     <row r="159" spans="1:17" ht="33.75">
-      <c r="A159" s="238" t="str" cm="1">
+      <c r="A159" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E159),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E159)&gt;0)*ROW($E$11:E159),0)),
@@ -28971,7 +28968,7 @@
       <c r="Q159" s="91"/>
     </row>
     <row r="160" spans="1:17" ht="33.75">
-      <c r="A160" s="238" t="str" cm="1">
+      <c r="A160" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E160)&gt;0)*ROW($E$11:E160),0)),
@@ -29005,7 +29002,7 @@
       <c r="Q160" s="91"/>
     </row>
     <row r="161" spans="1:17" ht="33.75">
-      <c r="A161" s="238" t="str" cm="1">
+      <c r="A161" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E161),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E161)&gt;0)*ROW($E$11:E161),0)),
@@ -29039,7 +29036,7 @@
       <c r="Q161" s="91"/>
     </row>
     <row r="162" spans="1:17">
-      <c r="A162" s="238" t="str" cm="1">
+      <c r="A162" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A162" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E162),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E162)&gt;0)*ROW($E$11:E162),0)),
@@ -29075,7 +29072,7 @@
       <c r="Q162" s="91"/>
     </row>
     <row r="163" spans="1:17">
-      <c r="A163" s="238" t="str" cm="1">
+      <c r="A163" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A163" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E163),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E163)&gt;0)*ROW($E$11:E163),0)),
@@ -29109,7 +29106,7 @@
       <c r="Q163" s="91"/>
     </row>
     <row r="164" spans="1:17" ht="22.5">
-      <c r="A164" s="238" t="str" cm="1">
+      <c r="A164" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E164),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E164)&gt;0)*ROW($E$11:E164),0)),
@@ -29143,7 +29140,7 @@
       <c r="Q164" s="91"/>
     </row>
     <row r="165" spans="1:17" ht="22.5">
-      <c r="A165" s="238" t="str" cm="1">
+      <c r="A165" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E165),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E165)&gt;0)*ROW($E$11:E165),0)),
@@ -29177,7 +29174,7 @@
       <c r="Q165" s="91"/>
     </row>
     <row r="166" spans="1:17" ht="22.5">
-      <c r="A166" s="238" t="str" cm="1">
+      <c r="A166" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E166),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E166)&gt;0)*ROW($E$11:E166),0)),
@@ -29211,7 +29208,7 @@
       <c r="Q166" s="91"/>
     </row>
     <row r="167" spans="1:17" ht="33.75">
-      <c r="A167" s="238" t="str" cm="1">
+      <c r="A167" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E167),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E167)&gt;0)*ROW($E$11:E167),0)),
@@ -29245,7 +29242,7 @@
       <c r="Q167" s="91"/>
     </row>
     <row r="168" spans="1:17" ht="22.5">
-      <c r="A168" s="238" t="str" cm="1">
+      <c r="A168" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E168),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E168)&gt;0)*ROW($E$11:E168),0)),
@@ -29279,7 +29276,7 @@
       <c r="Q168" s="91"/>
     </row>
     <row r="169" spans="1:17" ht="22.5">
-      <c r="A169" s="238" t="str" cm="1">
+      <c r="A169" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E169),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E169)&gt;0)*ROW($E$11:E169),0)),
@@ -29292,9 +29289,9 @@
         <v>62-1-1</v>
       </c>
       <c r="B169" s="155"/>
-      <c r="C169" s="239"/>
+      <c r="C169" s="173"/>
       <c r="D169" s="155"/>
-      <c r="E169" s="239" t="s">
+      <c r="E169" s="173" t="s">
         <v>203</v>
       </c>
       <c r="F169" s="88" t="s">
@@ -29315,7 +29312,7 @@
       <c r="Q169" s="91"/>
     </row>
     <row r="170" spans="1:17" ht="33.75">
-      <c r="A170" s="238" t="str" cm="1">
+      <c r="A170" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E170),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E170)&gt;0)*ROW($E$11:E170),0)),
@@ -29349,7 +29346,7 @@
       <c r="Q170" s="91"/>
     </row>
     <row r="171" spans="1:17" ht="33.75">
-      <c r="A171" s="238" t="str" cm="1">
+      <c r="A171" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E171),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E171)&gt;0)*ROW($E$11:E171),0)),
@@ -29383,7 +29380,7 @@
       <c r="Q171" s="91"/>
     </row>
     <row r="172" spans="1:17" ht="45">
-      <c r="A172" s="238" t="str" cm="1">
+      <c r="A172" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E172),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E172)&gt;0)*ROW($E$11:E172),0)),
@@ -29417,7 +29414,7 @@
       <c r="Q172" s="91"/>
     </row>
     <row r="173" spans="1:17" ht="45">
-      <c r="A173" s="238" t="str" cm="1">
+      <c r="A173" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A173" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E173),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E173)&gt;0)*ROW($E$11:E173),0)),
@@ -29451,7 +29448,7 @@
       <c r="Q173" s="91"/>
     </row>
     <row r="174" spans="1:17" ht="33.75">
-      <c r="A174" s="238" t="str" cm="1">
+      <c r="A174" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A174" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E174),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E174)&gt;0)*ROW($E$11:E174),0)),
@@ -29485,7 +29482,7 @@
       <c r="Q174" s="91"/>
     </row>
     <row r="175" spans="1:17" ht="45">
-      <c r="A175" s="238" t="str" cm="1">
+      <c r="A175" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E175)&gt;0)*ROW($E$11:E175),0)),
@@ -29519,7 +29516,7 @@
       <c r="Q175" s="91"/>
     </row>
     <row r="176" spans="1:17" ht="45">
-      <c r="A176" s="238" t="str" cm="1">
+      <c r="A176" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E176),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E176)&gt;0)*ROW($E$11:E176),0)),
@@ -29553,7 +29550,7 @@
       <c r="Q176" s="91"/>
     </row>
     <row r="177" spans="1:17" ht="22.5">
-      <c r="A177" s="238" t="str" cm="1">
+      <c r="A177" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E177),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E177)&gt;0)*ROW($E$11:E177),0)),
@@ -29587,7 +29584,7 @@
       <c r="Q177" s="91"/>
     </row>
     <row r="178" spans="1:17" ht="33.75">
-      <c r="A178" s="238" t="str" cm="1">
+      <c r="A178" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E178),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E178)&gt;0)*ROW($E$11:E178),0)),
@@ -29623,7 +29620,7 @@
       <c r="Q178" s="91"/>
     </row>
     <row r="179" spans="1:17" ht="22.5">
-      <c r="A179" s="238" t="str" cm="1">
+      <c r="A179" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E179),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E179)&gt;0)*ROW($E$11:E179),0)),
@@ -29659,7 +29656,7 @@
       <c r="Q179" s="91"/>
     </row>
     <row r="180" spans="1:17" ht="22.5">
-      <c r="A180" s="238" t="str" cm="1">
+      <c r="A180" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E180),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E180)&gt;0)*ROW($E$11:E180),0)),
@@ -29701,7 +29698,7 @@
       <c r="Q180" s="91"/>
     </row>
     <row r="181" spans="1:17" ht="22.5">
-      <c r="A181" s="238" t="str" cm="1">
+      <c r="A181" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E181),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E181)&gt;0)*ROW($E$11:E181),0)),
@@ -29739,7 +29736,7 @@
       <c r="Q181" s="91"/>
     </row>
     <row r="182" spans="1:17" ht="22.5">
-      <c r="A182" s="238" t="str" cm="1">
+      <c r="A182" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E182),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E182)&gt;0)*ROW($E$11:E182),0)),
@@ -29777,7 +29774,7 @@
       <c r="Q182" s="91"/>
     </row>
     <row r="183" spans="1:17" ht="22.5">
-      <c r="A183" s="238" t="str" cm="1">
+      <c r="A183" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E183),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E183)&gt;0)*ROW($E$11:E183),0)),
@@ -29819,7 +29816,7 @@
       <c r="Q183" s="91"/>
     </row>
     <row r="184" spans="1:17" ht="22.5">
-      <c r="A184" s="238" t="str" cm="1">
+      <c r="A184" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E184)&gt;0)*ROW($E$11:E184),0)),
@@ -29855,7 +29852,7 @@
       <c r="Q184" s="91"/>
     </row>
     <row r="185" spans="1:17" ht="22.5">
-      <c r="A185" s="238" t="str" cm="1">
+      <c r="A185" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E185)&gt;0)*ROW($E$11:E185),0)),
@@ -29868,7 +29865,7 @@
         <v>69-2-1</v>
       </c>
       <c r="B185" s="156"/>
-      <c r="C185" s="245"/>
+      <c r="C185" s="179"/>
       <c r="D185" s="156"/>
       <c r="E185" s="158"/>
       <c r="F185" s="88" t="s">
@@ -29889,7 +29886,7 @@
       <c r="Q185" s="91"/>
     </row>
     <row r="186" spans="1:17" ht="22.5">
-      <c r="A186" s="238" t="str" cm="1">
+      <c r="A186" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E186)&gt;0)*ROW($E$11:E186),0)),
@@ -29925,7 +29922,7 @@
       <c r="Q186" s="91"/>
     </row>
     <row r="187" spans="1:17" ht="22.5">
-      <c r="A187" s="238" t="str" cm="1">
+      <c r="A187" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E187)&gt;0)*ROW($E$11:E187),0)),
@@ -29939,7 +29936,7 @@
       </c>
       <c r="B187" s="156"/>
       <c r="C187" s="159"/>
-      <c r="D187" s="249"/>
+      <c r="D187" s="182"/>
       <c r="E187" s="158"/>
       <c r="F187" s="88" t="s">
         <v>293</v>
@@ -29959,7 +29956,7 @@
       <c r="Q187" s="91"/>
     </row>
     <row r="188" spans="1:17" ht="33.75">
-      <c r="A188" s="238" t="str" cm="1">
+      <c r="A188" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E188)&gt;0)*ROW($E$11:E188),0)),
@@ -29997,7 +29994,7 @@
       <c r="Q188" s="91"/>
     </row>
     <row r="189" spans="1:17" ht="22.5">
-      <c r="A189" s="238" t="str" cm="1">
+      <c r="A189" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E189)&gt;0)*ROW($E$11:E189),0)),
@@ -30037,7 +30034,7 @@
       <c r="Q189" s="91"/>
     </row>
     <row r="190" spans="1:17" ht="22.5">
-      <c r="A190" s="238" t="str" cm="1">
+      <c r="A190" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E190),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E190)&gt;0)*ROW($E$11:E190),0)),
@@ -30050,7 +30047,7 @@
         <v>72-2-1</v>
       </c>
       <c r="B190" s="156"/>
-      <c r="C190" s="245"/>
+      <c r="C190" s="179"/>
       <c r="D190" s="156"/>
       <c r="E190" s="159"/>
       <c r="F190" s="88" t="s">
@@ -30071,7 +30068,7 @@
       <c r="Q190" s="91"/>
     </row>
     <row r="191" spans="1:17" ht="22.5">
-      <c r="A191" s="238" t="str" cm="1">
+      <c r="A191" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E191),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E191)&gt;0)*ROW($E$11:E191),0)),
@@ -30084,7 +30081,7 @@
         <v>72-3-1</v>
       </c>
       <c r="B191" s="156"/>
-      <c r="C191" s="245"/>
+      <c r="C191" s="179"/>
       <c r="D191" s="156"/>
       <c r="E191" s="159"/>
       <c r="F191" s="88" t="s">
@@ -30105,7 +30102,7 @@
       <c r="Q191" s="91"/>
     </row>
     <row r="192" spans="1:17" ht="22.5">
-      <c r="A192" s="238" t="str" cm="1">
+      <c r="A192" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E192),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E192)&gt;0)*ROW($E$11:E192),0)),
@@ -30118,7 +30115,7 @@
         <v>72-4-1</v>
       </c>
       <c r="B192" s="156"/>
-      <c r="C192" s="245"/>
+      <c r="C192" s="179"/>
       <c r="D192" s="156"/>
       <c r="E192" s="159"/>
       <c r="F192" s="88" t="s">
@@ -30139,7 +30136,7 @@
       <c r="Q192" s="91"/>
     </row>
     <row r="193" spans="1:17" ht="22.5">
-      <c r="A193" s="238" t="str" cm="1">
+      <c r="A193" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E193),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E193)&gt;0)*ROW($E$11:E193),0)),
@@ -30152,7 +30149,7 @@
         <v>72-5-1</v>
       </c>
       <c r="B193" s="156"/>
-      <c r="C193" s="245"/>
+      <c r="C193" s="179"/>
       <c r="D193" s="156"/>
       <c r="E193" s="159"/>
       <c r="F193" s="88" t="s">
@@ -30173,7 +30170,7 @@
       <c r="Q193" s="91"/>
     </row>
     <row r="194" spans="1:17" ht="22.5">
-      <c r="A194" s="238" t="str" cm="1">
+      <c r="A194" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E194),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E194)&gt;0)*ROW($E$11:E194),0)),
@@ -30186,7 +30183,7 @@
         <v>72-6-1</v>
       </c>
       <c r="B194" s="156"/>
-      <c r="C194" s="245"/>
+      <c r="C194" s="179"/>
       <c r="D194" s="156"/>
       <c r="E194" s="159"/>
       <c r="F194" s="88" t="s">
@@ -30207,7 +30204,7 @@
       <c r="Q194" s="91"/>
     </row>
     <row r="195" spans="1:17" ht="22.5">
-      <c r="A195" s="238" t="str" cm="1">
+      <c r="A195" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E195),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E195)&gt;0)*ROW($E$11:E195),0)),
@@ -30220,7 +30217,7 @@
         <v>72-7-1</v>
       </c>
       <c r="B195" s="156"/>
-      <c r="C195" s="245"/>
+      <c r="C195" s="179"/>
       <c r="D195" s="156"/>
       <c r="E195" s="158"/>
       <c r="F195" s="88" t="s">
@@ -30241,7 +30238,7 @@
       <c r="Q195" s="91"/>
     </row>
     <row r="196" spans="1:17" ht="22.5">
-      <c r="A196" s="238" t="str" cm="1">
+      <c r="A196" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E196),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E196)&gt;0)*ROW($E$11:E196),0)),
@@ -30277,7 +30274,7 @@
       <c r="Q196" s="91"/>
     </row>
     <row r="197" spans="1:17" ht="22.5">
-      <c r="A197" s="238" t="str" cm="1">
+      <c r="A197" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E197),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E197)&gt;0)*ROW($E$11:E197),0)),
@@ -30315,7 +30312,7 @@
       <c r="Q197" s="91"/>
     </row>
     <row r="198" spans="1:17" ht="22.5">
-      <c r="A198" s="238" t="str" cm="1">
+      <c r="A198" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E198),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E198)&gt;0)*ROW($E$11:E198),0)),
@@ -30349,7 +30346,7 @@
       <c r="Q198" s="91"/>
     </row>
     <row r="199" spans="1:17">
-      <c r="A199" s="238" t="str" cm="1">
+      <c r="A199" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A199" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E199),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E199)&gt;0)*ROW($E$11:E199),0)),
@@ -30383,7 +30380,7 @@
       <c r="Q199" s="91"/>
     </row>
     <row r="200" spans="1:17" ht="22.5">
-      <c r="A200" s="238" t="str" cm="1">
+      <c r="A200" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E200)&gt;0)*ROW($E$11:E200),0)),
@@ -30417,7 +30414,7 @@
       <c r="Q200" s="91"/>
     </row>
     <row r="201" spans="1:17" ht="33.75">
-      <c r="A201" s="238" t="str" cm="1">
+      <c r="A201" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A201" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E201),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E201)&gt;0)*ROW($E$11:E201),0)),
@@ -30451,7 +30448,7 @@
       <c r="Q201" s="91"/>
     </row>
     <row r="202" spans="1:17" ht="33.75">
-      <c r="A202" s="238" t="str" cm="1">
+      <c r="A202" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E202),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E202)&gt;0)*ROW($E$11:E202),0)),
@@ -30485,7 +30482,7 @@
       <c r="Q202" s="91"/>
     </row>
     <row r="203" spans="1:17" ht="45">
-      <c r="A203" s="238" t="str" cm="1">
+      <c r="A203" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E203),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E203)&gt;0)*ROW($E$11:E203),0)),
@@ -30519,7 +30516,7 @@
       <c r="Q203" s="91"/>
     </row>
     <row r="204" spans="1:17" ht="33.75">
-      <c r="A204" s="238" t="str" cm="1">
+      <c r="A204" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E204),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E204)&gt;0)*ROW($E$11:E204),0)),
@@ -30553,7 +30550,7 @@
       <c r="Q204" s="91"/>
     </row>
     <row r="205" spans="1:17" ht="33.75">
-      <c r="A205" s="238" t="str" cm="1">
+      <c r="A205" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E205),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E205)&gt;0)*ROW($E$11:E205),0)),
@@ -30587,7 +30584,7 @@
       <c r="Q205" s="91"/>
     </row>
     <row r="206" spans="1:17" ht="22.5">
-      <c r="A206" s="238" t="str" cm="1">
+      <c r="A206" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E206),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E206)&gt;0)*ROW($E$11:E206),0)),
@@ -30621,7 +30618,7 @@
       <c r="Q206" s="91"/>
     </row>
     <row r="207" spans="1:17" ht="22.5">
-      <c r="A207" s="238" t="str" cm="1">
+      <c r="A207" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E207)&gt;0)*ROW($E$11:E207),0)),
@@ -30655,7 +30652,7 @@
       <c r="Q207" s="91"/>
     </row>
     <row r="208" spans="1:17" ht="33.75">
-      <c r="A208" s="238" t="str" cm="1">
+      <c r="A208" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E208)&gt;0)*ROW($E$11:E208),0)),
@@ -30689,7 +30686,7 @@
       <c r="Q208" s="91"/>
     </row>
     <row r="209" spans="1:17" ht="22.5">
-      <c r="A209" s="238" t="str" cm="1">
+      <c r="A209" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E209)&gt;0)*ROW($E$11:E209),0)),
@@ -30723,7 +30720,7 @@
       <c r="Q209" s="91"/>
     </row>
     <row r="210" spans="1:17" ht="22.5">
-      <c r="A210" s="238" t="str" cm="1">
+      <c r="A210" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E210),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E210)&gt;0)*ROW($E$11:E210),0)),
@@ -30740,7 +30737,7 @@
       <c r="D210" s="155" t="s">
         <v>551</v>
       </c>
-      <c r="E210" s="239" t="s">
+      <c r="E210" s="173" t="s">
         <v>125</v>
       </c>
       <c r="F210" s="88" t="s">
@@ -30761,7 +30758,7 @@
       <c r="Q210" s="91"/>
     </row>
     <row r="211" spans="1:17" ht="22.5">
-      <c r="A211" s="238" t="str" cm="1">
+      <c r="A211" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E211)&gt;0)*ROW($E$11:E211),0)),
@@ -30795,7 +30792,7 @@
       <c r="Q211" s="91"/>
     </row>
     <row r="212" spans="1:17" ht="22.5">
-      <c r="A212" s="238" t="str" cm="1">
+      <c r="A212" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E212)&gt;0)*ROW($E$11:E212),0)),
@@ -30829,7 +30826,7 @@
       <c r="Q212" s="91"/>
     </row>
     <row r="213" spans="1:17">
-      <c r="A213" s="238" t="str" cm="1">
+      <c r="A213" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E213),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E213)&gt;0)*ROW($E$11:E213),0)),
@@ -30863,7 +30860,7 @@
       <c r="Q213" s="91"/>
     </row>
     <row r="214" spans="1:17" ht="22.5">
-      <c r="A214" s="238" t="str" cm="1">
+      <c r="A214" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E214)&gt;0)*ROW($E$11:E214),0)),
@@ -30897,7 +30894,7 @@
       <c r="Q214" s="91"/>
     </row>
     <row r="215" spans="1:17" ht="45">
-      <c r="A215" s="238" t="str" cm="1">
+      <c r="A215" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E215),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E215)&gt;0)*ROW($E$11:E215),0)),
@@ -30931,7 +30928,7 @@
       <c r="Q215" s="91"/>
     </row>
     <row r="216" spans="1:17" ht="33.75">
-      <c r="A216" s="238" t="str" cm="1">
+      <c r="A216" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E216)&gt;0)*ROW($E$11:E216),0)),
@@ -30965,7 +30962,7 @@
       <c r="Q216" s="91"/>
     </row>
     <row r="217" spans="1:17" ht="33.75">
-      <c r="A217" s="238" t="str" cm="1">
+      <c r="A217" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E217),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E217)&gt;0)*ROW($E$11:E217),0)),
@@ -30999,7 +30996,7 @@
       <c r="Q217" s="91"/>
     </row>
     <row r="218" spans="1:17" ht="45">
-      <c r="A218" s="238" t="str" cm="1">
+      <c r="A218" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E218),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E218)&gt;0)*ROW($E$11:E218),0)),
@@ -31033,7 +31030,7 @@
       <c r="Q218" s="91"/>
     </row>
     <row r="219" spans="1:17" ht="33.75">
-      <c r="A219" s="238" t="str" cm="1">
+      <c r="A219" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E219),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E219)&gt;0)*ROW($E$11:E219),0)),
@@ -31067,7 +31064,7 @@
       <c r="Q219" s="91"/>
     </row>
     <row r="220" spans="1:17" ht="33.75">
-      <c r="A220" s="238" t="str" cm="1">
+      <c r="A220" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E220),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E220)&gt;0)*ROW($E$11:E220),0)),
@@ -31101,7 +31098,7 @@
       <c r="Q220" s="91"/>
     </row>
     <row r="221" spans="1:17" ht="22.5">
-      <c r="A221" s="238" t="str" cm="1">
+      <c r="A221" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E221),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E221)&gt;0)*ROW($E$11:E221),0)),
@@ -31135,7 +31132,7 @@
       <c r="Q221" s="91"/>
     </row>
     <row r="222" spans="1:17" ht="22.5">
-      <c r="A222" s="238" t="str" cm="1">
+      <c r="A222" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E222)&gt;0)*ROW($E$11:E222),0)),
@@ -31169,7 +31166,7 @@
       <c r="Q222" s="91"/>
     </row>
     <row r="223" spans="1:17" ht="33.75">
-      <c r="A223" s="238" t="str" cm="1">
+      <c r="A223" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E223)&gt;0)*ROW($E$11:E223),0)),
@@ -31203,7 +31200,7 @@
       <c r="Q223" s="91"/>
     </row>
     <row r="224" spans="1:17" ht="22.5">
-      <c r="A224" s="238" t="str" cm="1">
+      <c r="A224" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E224)&gt;0)*ROW($E$11:E224),0)),
@@ -31237,7 +31234,7 @@
       <c r="Q224" s="91"/>
     </row>
     <row r="225" spans="1:17" ht="45">
-      <c r="A225" s="238" t="str" cm="1">
+      <c r="A225" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E225)&gt;0)*ROW($E$11:E225),0)),
@@ -31273,7 +31270,7 @@
       <c r="Q225" s="91"/>
     </row>
     <row r="226" spans="1:17" ht="45">
-      <c r="A226" s="238" t="str" cm="1">
+      <c r="A226" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E226),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E226)&gt;0)*ROW($E$11:E226),0)),
@@ -31307,7 +31304,7 @@
       <c r="Q226" s="91"/>
     </row>
     <row r="227" spans="1:17" ht="33.75">
-      <c r="A227" s="238" t="str" cm="1">
+      <c r="A227" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E227),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E227)&gt;0)*ROW($E$11:E227),0)),
@@ -31341,7 +31338,7 @@
       <c r="Q227" s="91"/>
     </row>
     <row r="228" spans="1:17" ht="33.75">
-      <c r="A228" s="238" t="str" cm="1">
+      <c r="A228" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E228),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E228)&gt;0)*ROW($E$11:E228),0)),
@@ -31377,7 +31374,7 @@
       <c r="Q228" s="91"/>
     </row>
     <row r="229" spans="1:17" ht="22.5">
-      <c r="A229" s="238" t="str" cm="1">
+      <c r="A229" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E229),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E229)&gt;0)*ROW($E$11:E229),0)),
@@ -31392,7 +31389,7 @@
       <c r="B229" s="158"/>
       <c r="C229" s="158"/>
       <c r="D229" s="158"/>
-      <c r="E229" s="250" t="s">
+      <c r="E229" s="183" t="s">
         <v>338</v>
       </c>
       <c r="F229" s="88" t="s">
@@ -31413,7 +31410,7 @@
       <c r="Q229" s="91"/>
     </row>
     <row r="230" spans="1:17" ht="22.5">
-      <c r="A230" s="238" t="str" cm="1">
+      <c r="A230" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E230),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E230)&gt;0)*ROW($E$11:E230),0)),
@@ -31455,7 +31452,7 @@
       <c r="Q230" s="91"/>
     </row>
     <row r="231" spans="1:17" ht="22.5">
-      <c r="A231" s="238" t="str" cm="1">
+      <c r="A231" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E231),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E231)&gt;0)*ROW($E$11:E231),0)),
@@ -31491,7 +31488,7 @@
       <c r="Q231" s="91"/>
     </row>
     <row r="232" spans="1:17" ht="22.5">
-      <c r="A232" s="238" t="str" cm="1">
+      <c r="A232" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E232)&gt;0)*ROW($E$11:E232),0)),
@@ -31525,7 +31522,7 @@
       <c r="Q232" s="91"/>
     </row>
     <row r="233" spans="1:17" ht="22.5">
-      <c r="A233" s="238" t="str" cm="1">
+      <c r="A233" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E233),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E233)&gt;0)*ROW($E$11:E233),0)),
@@ -31559,7 +31556,7 @@
       <c r="Q233" s="91"/>
     </row>
     <row r="234" spans="1:17" ht="22.5">
-      <c r="A234" s="238" t="str" cm="1">
+      <c r="A234" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E234)&gt;0)*ROW($E$11:E234),0)),
@@ -31593,7 +31590,7 @@
       <c r="Q234" s="91"/>
     </row>
     <row r="235" spans="1:17" ht="33.75">
-      <c r="A235" s="238" t="str" cm="1">
+      <c r="A235" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E235),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E235)&gt;0)*ROW($E$11:E235),0)),
@@ -31627,7 +31624,7 @@
       <c r="Q235" s="91"/>
     </row>
     <row r="236" spans="1:17" ht="33.75">
-      <c r="A236" s="238" t="str" cm="1">
+      <c r="A236" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E236),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E236)&gt;0)*ROW($E$11:E236),0)),
@@ -31663,7 +31660,7 @@
       <c r="Q236" s="91"/>
     </row>
     <row r="237" spans="1:17" ht="33.75">
-      <c r="A237" s="238" t="str" cm="1">
+      <c r="A237" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E237),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E237)&gt;0)*ROW($E$11:E237),0)),
@@ -31697,7 +31694,7 @@
       <c r="Q237" s="91"/>
     </row>
     <row r="238" spans="1:17" ht="45">
-      <c r="A238" s="238" t="str" cm="1">
+      <c r="A238" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E238),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E238)&gt;0)*ROW($E$11:E238),0)),
@@ -31731,7 +31728,7 @@
       <c r="Q238" s="91"/>
     </row>
     <row r="239" spans="1:17" ht="45">
-      <c r="A239" s="238" t="str" cm="1">
+      <c r="A239" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E239),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E239)&gt;0)*ROW($E$11:E239),0)),
@@ -31765,7 +31762,7 @@
       <c r="Q239" s="91"/>
     </row>
     <row r="240" spans="1:17" ht="33.75">
-      <c r="A240" s="238" t="str" cm="1">
+      <c r="A240" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E240),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E240)&gt;0)*ROW($E$11:E240),0)),
@@ -31799,7 +31796,7 @@
       <c r="Q240" s="91"/>
     </row>
     <row r="241" spans="1:17" ht="33.75">
-      <c r="A241" s="238" t="str" cm="1">
+      <c r="A241" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E241),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E241)&gt;0)*ROW($E$11:E241),0)),
@@ -31835,7 +31832,7 @@
       <c r="Q241" s="91"/>
     </row>
     <row r="242" spans="1:17" ht="33.75">
-      <c r="A242" s="238" t="str" cm="1">
+      <c r="A242" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E242)&gt;0)*ROW($E$11:E242),0)),
@@ -31875,7 +31872,7 @@
       <c r="Q242" s="91"/>
     </row>
     <row r="243" spans="1:17" ht="22.5">
-      <c r="A243" s="238" t="str" cm="1">
+      <c r="A243" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E243),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E243)&gt;0)*ROW($E$11:E243),0)),
@@ -31896,7 +31893,7 @@
       <c r="D243" s="155" t="s">
         <v>497</v>
       </c>
-      <c r="E243" s="239" t="s">
+      <c r="E243" s="173" t="s">
         <v>497</v>
       </c>
       <c r="F243" s="88" t="s">
@@ -31917,7 +31914,7 @@
       <c r="Q243" s="91"/>
     </row>
     <row r="244" spans="1:17" ht="22.5">
-      <c r="A244" s="238" t="str" cm="1">
+      <c r="A244" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E244),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E244)&gt;0)*ROW($E$11:E244),0)),
@@ -31951,7 +31948,7 @@
       <c r="Q244" s="91"/>
     </row>
     <row r="245" spans="1:17" ht="33.75">
-      <c r="A245" s="238" t="str" cm="1">
+      <c r="A245" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A245" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E245),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E245)&gt;0)*ROW($E$11:E245),0)),
@@ -31989,7 +31986,7 @@
       <c r="Q245" s="91"/>
     </row>
     <row r="246" spans="1:17" ht="33.75">
-      <c r="A246" s="238" t="str" cm="1">
+      <c r="A246" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A246" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E246),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E246)&gt;0)*ROW($E$11:E246),0)),
@@ -32023,7 +32020,7 @@
       <c r="Q246" s="91"/>
     </row>
     <row r="247" spans="1:17" ht="33.75">
-      <c r="A247" s="238" t="str" cm="1">
+      <c r="A247" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A247" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E247),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E247)&gt;0)*ROW($E$11:E247),0)),
@@ -32063,7 +32060,7 @@
       <c r="Q247" s="91"/>
     </row>
     <row r="248" spans="1:17" ht="33.75">
-      <c r="A248" s="238" t="str" cm="1">
+      <c r="A248" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A248" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E248),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E248)&gt;0)*ROW($E$11:E248),0)),
@@ -32099,7 +32096,7 @@
       <c r="Q248" s="91"/>
     </row>
     <row r="249" spans="1:17" ht="33.75">
-      <c r="A249" s="238" t="str" cm="1">
+      <c r="A249" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E249),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E249)&gt;0)*ROW($E$11:E249),0)),
@@ -32135,7 +32132,7 @@
       <c r="Q249" s="91"/>
     </row>
     <row r="250" spans="1:17" ht="33.75">
-      <c r="A250" s="238" t="str" cm="1">
+      <c r="A250" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A250" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E250),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E250)&gt;0)*ROW($E$11:E250),0)),
@@ -32171,7 +32168,7 @@
       <c r="Q250" s="91"/>
     </row>
     <row r="251" spans="1:17" ht="22.5">
-      <c r="A251" s="238" t="str" cm="1">
+      <c r="A251" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E251),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E251)&gt;0)*ROW($E$11:E251),0)),
@@ -32209,7 +32206,7 @@
       <c r="Q251" s="91"/>
     </row>
     <row r="252" spans="1:17" ht="22.5">
-      <c r="A252" s="238" t="str" cm="1">
+      <c r="A252" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E252),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E252)&gt;0)*ROW($E$11:E252),0)),
@@ -32243,7 +32240,7 @@
       <c r="Q252" s="91"/>
     </row>
     <row r="253" spans="1:17" ht="33.75">
-      <c r="A253" s="238" t="str" cm="1">
+      <c r="A253" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A253" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E253),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E253)&gt;0)*ROW($E$11:E253),0)),
@@ -32279,7 +32276,7 @@
       <c r="Q253" s="91"/>
     </row>
     <row r="254" spans="1:17" ht="33.75">
-      <c r="A254" s="238" t="str" cm="1">
+      <c r="A254" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E254),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E254)&gt;0)*ROW($E$11:E254),0)),
@@ -32313,7 +32310,7 @@
       <c r="Q254" s="91"/>
     </row>
     <row r="255" spans="1:17" ht="33.75">
-      <c r="A255" s="238" t="str" cm="1">
+      <c r="A255" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E255),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E255)&gt;0)*ROW($E$11:E255),0)),
@@ -32347,7 +32344,7 @@
       <c r="Q255" s="91"/>
     </row>
     <row r="256" spans="1:17" ht="33.75">
-      <c r="A256" s="238" t="str" cm="1">
+      <c r="A256" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E256),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E256)&gt;0)*ROW($E$11:E256),0)),
@@ -32381,7 +32378,7 @@
       <c r="Q256" s="91"/>
     </row>
     <row r="257" spans="1:17" ht="33.75">
-      <c r="A257" s="238" t="str" cm="1">
+      <c r="A257" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A257" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E257),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E257)&gt;0)*ROW($E$11:E257),0)),
@@ -32415,7 +32412,7 @@
       <c r="Q257" s="91"/>
     </row>
     <row r="258" spans="1:17" ht="22.5">
-      <c r="A258" s="238" t="str" cm="1">
+      <c r="A258" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A258" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E258),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E258)&gt;0)*ROW($E$11:E258),0)),
@@ -32449,7 +32446,7 @@
       <c r="Q258" s="91"/>
     </row>
     <row r="259" spans="1:17" ht="22.5">
-      <c r="A259" s="238" t="str" cm="1">
+      <c r="A259" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A259" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E259),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E259)&gt;0)*ROW($E$11:E259),0)),
@@ -32483,7 +32480,7 @@
       <c r="Q259" s="91"/>
     </row>
     <row r="260" spans="1:17" ht="33.75">
-      <c r="A260" s="238" t="str" cm="1">
+      <c r="A260" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A260" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E260),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E260)&gt;0)*ROW($E$11:E260),0)),
@@ -32517,7 +32514,7 @@
       <c r="Q260" s="91"/>
     </row>
     <row r="261" spans="1:17" ht="33.75">
-      <c r="A261" s="238" t="str" cm="1">
+      <c r="A261" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E261),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E261)&gt;0)*ROW($E$11:E261),0)),
@@ -32551,7 +32548,7 @@
       <c r="Q261" s="91"/>
     </row>
     <row r="262" spans="1:17" ht="33.75">
-      <c r="A262" s="238" t="str" cm="1">
+      <c r="A262" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E262)&gt;0)*ROW($E$11:E262),0)),
@@ -32585,7 +32582,7 @@
       <c r="Q262" s="91"/>
     </row>
     <row r="263" spans="1:17" ht="33.75">
-      <c r="A263" s="238" t="str" cm="1">
+      <c r="A263" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E263),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E263)&gt;0)*ROW($E$11:E263),0)),
@@ -32619,7 +32616,7 @@
       <c r="Q263" s="91"/>
     </row>
     <row r="264" spans="1:17">
-      <c r="A264" s="238" t="str" cm="1">
+      <c r="A264" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A264" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E264),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E264)&gt;0)*ROW($E$11:E264),0)),
@@ -32655,7 +32652,7 @@
       <c r="Q264" s="91"/>
     </row>
     <row r="265" spans="1:17">
-      <c r="A265" s="238" t="str" cm="1">
+      <c r="A265" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A265" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E265),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E265)&gt;0)*ROW($E$11:E265),0)),
@@ -32689,7 +32686,7 @@
       <c r="Q265" s="91"/>
     </row>
     <row r="266" spans="1:17" ht="22.5">
-      <c r="A266" s="238" t="str" cm="1">
+      <c r="A266" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A266" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E266),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E266)&gt;0)*ROW($E$11:E266),0)),
@@ -32723,7 +32720,7 @@
       <c r="Q266" s="91"/>
     </row>
     <row r="267" spans="1:17" ht="22.5">
-      <c r="A267" s="238" t="str" cm="1">
+      <c r="A267" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A267" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E267),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E267)&gt;0)*ROW($E$11:E267),0)),
@@ -32757,7 +32754,7 @@
       <c r="Q267" s="91"/>
     </row>
     <row r="268" spans="1:17" ht="22.5">
-      <c r="A268" s="238" t="str" cm="1">
+      <c r="A268" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E268),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E268)&gt;0)*ROW($E$11:E268),0)),
@@ -32791,7 +32788,7 @@
       <c r="Q268" s="91"/>
     </row>
     <row r="269" spans="1:17" ht="33.75">
-      <c r="A269" s="238" t="str" cm="1">
+      <c r="A269" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A269" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E269),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E269)&gt;0)*ROW($E$11:E269),0)),
@@ -32825,7 +32822,7 @@
       <c r="Q269" s="91"/>
     </row>
     <row r="270" spans="1:17" ht="22.5">
-      <c r="A270" s="238" t="str" cm="1">
+      <c r="A270" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E270),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E270)&gt;0)*ROW($E$11:E270),0)),
@@ -32861,7 +32858,7 @@
       <c r="Q270" s="91"/>
     </row>
     <row r="271" spans="1:17" ht="33.75">
-      <c r="A271" s="238" t="str" cm="1">
+      <c r="A271" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A271" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E271),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E271)&gt;0)*ROW($E$11:E271),0)),
@@ -32895,7 +32892,7 @@
       <c r="Q271" s="91"/>
     </row>
     <row r="272" spans="1:17" ht="45">
-      <c r="A272" s="238" t="str" cm="1">
+      <c r="A272" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E272),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E272)&gt;0)*ROW($E$11:E272),0)),
@@ -32929,7 +32926,7 @@
       <c r="Q272" s="91"/>
     </row>
     <row r="273" spans="1:17" ht="45">
-      <c r="A273" s="238" t="str" cm="1">
+      <c r="A273" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A273" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E273),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E273)&gt;0)*ROW($E$11:E273),0)),
@@ -32963,7 +32960,7 @@
       <c r="Q273" s="91"/>
     </row>
     <row r="274" spans="1:17" ht="22.5">
-      <c r="A274" s="238" t="str" cm="1">
+      <c r="A274" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E274),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E274)&gt;0)*ROW($E$11:E274),0)),
@@ -32997,7 +32994,7 @@
       <c r="Q274" s="91"/>
     </row>
     <row r="275" spans="1:17" ht="45">
-      <c r="A275" s="238" t="str" cm="1">
+      <c r="A275" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A275" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E275),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E275)&gt;0)*ROW($E$11:E275),0)),
@@ -33031,7 +33028,7 @@
       <c r="Q275" s="91"/>
     </row>
     <row r="276" spans="1:17" ht="45">
-      <c r="A276" s="238" t="str" cm="1">
+      <c r="A276" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A276" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E276),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E276)&gt;0)*ROW($E$11:E276),0)),
@@ -33065,7 +33062,7 @@
       <c r="Q276" s="91"/>
     </row>
     <row r="277" spans="1:17" ht="22.5">
-      <c r="A277" s="238" t="str" cm="1">
+      <c r="A277" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A277" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E277),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E277)&gt;0)*ROW($E$11:E277),0)),
@@ -33099,7 +33096,7 @@
       <c r="Q277" s="91"/>
     </row>
     <row r="278" spans="1:17" ht="22.5">
-      <c r="A278" s="238" t="str" cm="1">
+      <c r="A278" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A278" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E278),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E278)&gt;0)*ROW($E$11:E278),0)),
@@ -33112,7 +33109,7 @@
         <v>94-1-1</v>
       </c>
       <c r="B278" s="158"/>
-      <c r="C278" s="251"/>
+      <c r="C278" s="184"/>
       <c r="D278" s="160"/>
       <c r="E278" s="160" t="s">
         <v>237</v>
@@ -33135,7 +33132,7 @@
       <c r="Q278" s="91"/>
     </row>
     <row r="279" spans="1:17" ht="22.5">
-      <c r="A279" s="238" t="str" cm="1">
+      <c r="A279" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A279" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E279),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E279)&gt;0)*ROW($E$11:E279),0)),
@@ -33156,7 +33153,7 @@
       <c r="D279" s="155" t="s">
         <v>497</v>
       </c>
-      <c r="E279" s="239" t="s">
+      <c r="E279" s="173" t="s">
         <v>497</v>
       </c>
       <c r="F279" s="88" t="s">
@@ -33177,7 +33174,7 @@
       <c r="Q279" s="91"/>
     </row>
     <row r="280" spans="1:17" ht="22.5">
-      <c r="A280" s="238" t="str" cm="1">
+      <c r="A280" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A280" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E280),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E280)&gt;0)*ROW($E$11:E280),0)),
@@ -33211,7 +33208,7 @@
       <c r="Q280" s="91"/>
     </row>
     <row r="281" spans="1:17" ht="22.5">
-      <c r="A281" s="238" t="str" cm="1">
+      <c r="A281" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A281" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E281),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E281)&gt;0)*ROW($E$11:E281),0)),
@@ -33245,7 +33242,7 @@
       <c r="Q281" s="91"/>
     </row>
     <row r="282" spans="1:17" ht="22.5">
-      <c r="A282" s="238" t="str" cm="1">
+      <c r="A282" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A282" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E282),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E282)&gt;0)*ROW($E$11:E282),0)),
@@ -33279,7 +33276,7 @@
       <c r="Q282" s="91"/>
     </row>
     <row r="283" spans="1:17" ht="22.5">
-      <c r="A283" s="238" t="str" cm="1">
+      <c r="A283" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A283" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E283),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E283)&gt;0)*ROW($E$11:E283),0)),
@@ -33319,7 +33316,7 @@
       <c r="Q283" s="91"/>
     </row>
     <row r="284" spans="1:17" ht="22.5">
-      <c r="A284" s="238" t="str" cm="1">
+      <c r="A284" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A284" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E284),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E284)&gt;0)*ROW($E$11:E284),0)),
@@ -33355,7 +33352,7 @@
       <c r="Q284" s="91"/>
     </row>
     <row r="285" spans="1:17" ht="22.5">
-      <c r="A285" s="238" t="str" cm="1">
+      <c r="A285" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A285" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E285),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E285)&gt;0)*ROW($E$11:E285),0)),
@@ -33391,7 +33388,7 @@
       <c r="Q285" s="91"/>
     </row>
     <row r="286" spans="1:17" ht="22.5">
-      <c r="A286" s="238" t="str" cm="1">
+      <c r="A286" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A286" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E286),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E286)&gt;0)*ROW($E$11:E286),0)),
@@ -33427,7 +33424,7 @@
       <c r="Q286" s="91"/>
     </row>
     <row r="287" spans="1:17" ht="22.5">
-      <c r="A287" s="238" t="str" cm="1">
+      <c r="A287" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E287),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E287)&gt;0)*ROW($E$11:E287),0)),
@@ -33465,7 +33462,7 @@
       <c r="Q287" s="91"/>
     </row>
     <row r="288" spans="1:17" ht="22.5">
-      <c r="A288" s="238" t="str" cm="1">
+      <c r="A288" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A288" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E288),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E288)&gt;0)*ROW($E$11:E288),0)),
@@ -33499,7 +33496,7 @@
       <c r="Q288" s="91"/>
     </row>
     <row r="289" spans="1:17" ht="33.75">
-      <c r="A289" s="238" t="str" cm="1">
+      <c r="A289" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A289" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E289),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E289)&gt;0)*ROW($E$11:E289),0)),
@@ -33533,7 +33530,7 @@
       <c r="Q289" s="91"/>
     </row>
     <row r="290" spans="1:17" ht="33.75">
-      <c r="A290" s="238" t="str" cm="1">
+      <c r="A290" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E290),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E290)&gt;0)*ROW($E$11:E290),0)),
@@ -33567,7 +33564,7 @@
       <c r="Q290" s="91"/>
     </row>
     <row r="291" spans="1:17" ht="33.75">
-      <c r="A291" s="238" t="str" cm="1">
+      <c r="A291" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E291),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E291)&gt;0)*ROW($E$11:E291),0)),
@@ -33601,7 +33598,7 @@
       <c r="Q291" s="91"/>
     </row>
     <row r="292" spans="1:17" ht="33.75">
-      <c r="A292" s="238" t="str" cm="1">
+      <c r="A292" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E292),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E292)&gt;0)*ROW($E$11:E292),0)),
@@ -33635,7 +33632,7 @@
       <c r="Q292" s="91"/>
     </row>
     <row r="293" spans="1:17" ht="33.75">
-      <c r="A293" s="238" t="str" cm="1">
+      <c r="A293" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A293" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E293),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E293)&gt;0)*ROW($E$11:E293),0)),
@@ -33669,7 +33666,7 @@
       <c r="Q293" s="91"/>
     </row>
     <row r="294" spans="1:17" ht="22.5">
-      <c r="A294" s="238" t="str" cm="1">
+      <c r="A294" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A294" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E294),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E294)&gt;0)*ROW($E$11:E294),0)),
@@ -33703,7 +33700,7 @@
       <c r="Q294" s="91"/>
     </row>
     <row r="295" spans="1:17" ht="22.5">
-      <c r="A295" s="238" t="str" cm="1">
+      <c r="A295" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A295" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E295),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E295)&gt;0)*ROW($E$11:E295),0)),
@@ -33716,7 +33713,7 @@
         <v>100-9-1</v>
       </c>
       <c r="B295" s="158"/>
-      <c r="C295" s="251"/>
+      <c r="C295" s="184"/>
       <c r="D295" s="160"/>
       <c r="E295" s="160"/>
       <c r="F295" s="88" t="s">
@@ -33737,7 +33734,7 @@
       <c r="Q295" s="91"/>
     </row>
     <row r="296" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A296" s="238" t="str" cm="1">
+      <c r="A296" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A296" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E296),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E296)&gt;0)*ROW($E$11:E296),0)),
@@ -33749,10 +33746,10 @@
 )</f>
         <v>101-1-1</v>
       </c>
-      <c r="B296" s="252" t="s">
+      <c r="B296" s="185" t="s">
         <v>412</v>
       </c>
-      <c r="C296" s="239" t="s">
+      <c r="C296" s="173" t="s">
         <v>413</v>
       </c>
       <c r="D296" s="156" t="s">
@@ -33779,7 +33776,7 @@
       <c r="Q296" s="73"/>
     </row>
     <row r="297" spans="1:17" s="33" customFormat="1">
-      <c r="A297" s="238" t="str" cm="1">
+      <c r="A297" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A297" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E297),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E297)&gt;0)*ROW($E$11:E297),0)),
@@ -33791,7 +33788,7 @@
 )</f>
         <v>101-2-1</v>
       </c>
-      <c r="B297" s="245"/>
+      <c r="B297" s="179"/>
       <c r="C297" s="159"/>
       <c r="D297" s="156"/>
       <c r="E297" s="156"/>
@@ -33813,7 +33810,7 @@
       <c r="Q297" s="73"/>
     </row>
     <row r="298" spans="1:17" s="33" customFormat="1">
-      <c r="A298" s="238" t="str" cm="1">
+      <c r="A298" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A298" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E298),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E298)&gt;0)*ROW($E$11:E298),0)),
@@ -33825,7 +33822,7 @@
 )</f>
         <v>101-3-1</v>
       </c>
-      <c r="B298" s="245"/>
+      <c r="B298" s="179"/>
       <c r="C298" s="159"/>
       <c r="D298" s="156"/>
       <c r="E298" s="156"/>
@@ -33847,7 +33844,7 @@
       <c r="Q298" s="73"/>
     </row>
     <row r="299" spans="1:17" s="33" customFormat="1">
-      <c r="A299" s="238" t="str" cm="1">
+      <c r="A299" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A299" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E299),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E299)&gt;0)*ROW($E$11:E299),0)),
@@ -33859,7 +33856,7 @@
 )</f>
         <v>101-4-1</v>
       </c>
-      <c r="B299" s="245"/>
+      <c r="B299" s="179"/>
       <c r="C299" s="159"/>
       <c r="D299" s="156"/>
       <c r="E299" s="156"/>
@@ -33881,7 +33878,7 @@
       <c r="Q299" s="73"/>
     </row>
     <row r="300" spans="1:17" s="33" customFormat="1">
-      <c r="A300" s="238" t="str" cm="1">
+      <c r="A300" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A300" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E300),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E300)&gt;0)*ROW($E$11:E300),0)),
@@ -33893,7 +33890,7 @@
 )</f>
         <v>101-5-1</v>
       </c>
-      <c r="B300" s="245"/>
+      <c r="B300" s="179"/>
       <c r="C300" s="159"/>
       <c r="D300" s="156"/>
       <c r="E300" s="156"/>
@@ -33915,7 +33912,7 @@
       <c r="Q300" s="73"/>
     </row>
     <row r="301" spans="1:17">
-      <c r="A301" s="238" t="str" cm="1">
+      <c r="A301" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A301" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E301),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E301)&gt;0)*ROW($E$11:E301),0)),
@@ -33927,8 +33924,8 @@
 )</f>
         <v>101-6-1</v>
       </c>
-      <c r="B301" s="253"/>
-      <c r="C301" s="254"/>
+      <c r="B301" s="186"/>
+      <c r="C301" s="187"/>
       <c r="D301" s="115"/>
       <c r="E301" s="115"/>
       <c r="F301" s="87" t="s">
@@ -33942,14 +33939,14 @@
       </c>
       <c r="K301" s="73"/>
       <c r="L301" s="91"/>
-      <c r="M301" s="232"/>
+      <c r="M301" s="167"/>
       <c r="N301" s="90"/>
-      <c r="O301" s="255"/>
+      <c r="O301" s="188"/>
       <c r="P301" s="90"/>
       <c r="Q301" s="90"/>
     </row>
     <row r="302" spans="1:17" s="33" customFormat="1">
-      <c r="A302" s="238" t="str" cm="1">
+      <c r="A302" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A302" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E302),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E302)&gt;0)*ROW($E$11:E302),0)),
@@ -33961,7 +33958,7 @@
 )</f>
         <v>101-7-1</v>
       </c>
-      <c r="B302" s="245"/>
+      <c r="B302" s="179"/>
       <c r="C302" s="159"/>
       <c r="D302" s="156"/>
       <c r="E302" s="156"/>
@@ -33983,7 +33980,7 @@
       <c r="Q302" s="73"/>
     </row>
     <row r="303" spans="1:17" s="33" customFormat="1">
-      <c r="A303" s="238" t="str" cm="1">
+      <c r="A303" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A303" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E303),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E303)&gt;0)*ROW($E$11:E303),0)),
@@ -33995,7 +33992,7 @@
 )</f>
         <v>101-8-1</v>
       </c>
-      <c r="B303" s="245"/>
+      <c r="B303" s="179"/>
       <c r="C303" s="159"/>
       <c r="D303" s="156"/>
       <c r="E303" s="156"/>
@@ -34017,7 +34014,7 @@
       <c r="Q303" s="73"/>
     </row>
     <row r="304" spans="1:17" s="33" customFormat="1">
-      <c r="A304" s="238" t="str" cm="1">
+      <c r="A304" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A304" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E304),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E304)&gt;0)*ROW($E$11:E304),0)),
@@ -34029,7 +34026,7 @@
 )</f>
         <v>101-9-1</v>
       </c>
-      <c r="B304" s="245"/>
+      <c r="B304" s="179"/>
       <c r="C304" s="159"/>
       <c r="D304" s="156"/>
       <c r="E304" s="156"/>
@@ -34051,7 +34048,7 @@
       <c r="Q304" s="73"/>
     </row>
     <row r="305" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A305" s="238" t="str" cm="1">
+      <c r="A305" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A305" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E305),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E305)&gt;0)*ROW($E$11:E305),0)),
@@ -34063,7 +34060,7 @@
 )</f>
         <v>101-10-1</v>
       </c>
-      <c r="B305" s="245"/>
+      <c r="B305" s="179"/>
       <c r="C305" s="159"/>
       <c r="D305" s="156"/>
       <c r="E305" s="156"/>
@@ -34085,7 +34082,7 @@
       <c r="Q305" s="73"/>
     </row>
     <row r="306" spans="1:17" s="33" customFormat="1">
-      <c r="A306" s="238" t="str" cm="1">
+      <c r="A306" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A306" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E306),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E306)&gt;0)*ROW($E$11:E306),0)),
@@ -34097,7 +34094,7 @@
 )</f>
         <v>101-11-1</v>
       </c>
-      <c r="B306" s="245"/>
+      <c r="B306" s="179"/>
       <c r="C306" s="159"/>
       <c r="D306" s="156"/>
       <c r="E306" s="156"/>
@@ -34119,7 +34116,7 @@
       <c r="Q306" s="73"/>
     </row>
     <row r="307" spans="1:17" s="33" customFormat="1">
-      <c r="A307" s="238" t="str" cm="1">
+      <c r="A307" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A307" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E307),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E307)&gt;0)*ROW($E$11:E307),0)),
@@ -34131,7 +34128,7 @@
 )</f>
         <v>101-12-1</v>
       </c>
-      <c r="B307" s="245"/>
+      <c r="B307" s="179"/>
       <c r="C307" s="159"/>
       <c r="D307" s="156"/>
       <c r="E307" s="156"/>
@@ -34153,7 +34150,7 @@
       <c r="Q307" s="73"/>
     </row>
     <row r="308" spans="1:17" s="33" customFormat="1">
-      <c r="A308" s="238" t="str" cm="1">
+      <c r="A308" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A308" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E308),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E308)&gt;0)*ROW($E$11:E308),0)),
@@ -34165,7 +34162,7 @@
 )</f>
         <v>101-13-1</v>
       </c>
-      <c r="B308" s="245"/>
+      <c r="B308" s="179"/>
       <c r="C308" s="159"/>
       <c r="D308" s="156"/>
       <c r="E308" s="156"/>
@@ -34187,7 +34184,7 @@
       <c r="Q308" s="73"/>
     </row>
     <row r="309" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A309" s="238" t="str" cm="1">
+      <c r="A309" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A309" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E309),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E309)&gt;0)*ROW($E$11:E309),0)),
@@ -34199,11 +34196,11 @@
 )</f>
         <v>101-14-1</v>
       </c>
-      <c r="B309" s="245"/>
+      <c r="B309" s="179"/>
       <c r="C309" s="159"/>
       <c r="D309" s="156"/>
       <c r="E309" s="156"/>
-      <c r="F309" s="243" t="s">
+      <c r="F309" s="177" t="s">
         <v>427</v>
       </c>
       <c r="G309" s="73"/>
@@ -34221,7 +34218,7 @@
       <c r="Q309" s="73"/>
     </row>
     <row r="310" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A310" s="238" t="str" cm="1">
+      <c r="A310" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A310" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E310),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E310)&gt;0)*ROW($E$11:E310),0)),
@@ -34233,7 +34230,7 @@
 )</f>
         <v>101-15-1</v>
       </c>
-      <c r="B310" s="245"/>
+      <c r="B310" s="179"/>
       <c r="C310" s="159"/>
       <c r="D310" s="156"/>
       <c r="E310" s="156"/>
@@ -34255,7 +34252,7 @@
       <c r="Q310" s="73"/>
     </row>
     <row r="311" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A311" s="238" t="str" cm="1">
+      <c r="A311" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A311" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E311),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E311)&gt;0)*ROW($E$11:E311),0)),
@@ -34267,7 +34264,7 @@
 )</f>
         <v>101-16-1</v>
       </c>
-      <c r="B311" s="245"/>
+      <c r="B311" s="179"/>
       <c r="C311" s="159"/>
       <c r="D311" s="156"/>
       <c r="E311" s="156"/>
@@ -34289,7 +34286,7 @@
       <c r="Q311" s="73"/>
     </row>
     <row r="312" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A312" s="238" t="str" cm="1">
+      <c r="A312" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A312" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E312),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E312)&gt;0)*ROW($E$11:E312),0)),
@@ -34301,11 +34298,11 @@
 )</f>
         <v>101-17-1</v>
       </c>
-      <c r="B312" s="245"/>
+      <c r="B312" s="179"/>
       <c r="C312" s="159"/>
       <c r="D312" s="156"/>
       <c r="E312" s="156"/>
-      <c r="F312" s="243" t="s">
+      <c r="F312" s="177" t="s">
         <v>430</v>
       </c>
       <c r="G312" s="73"/>
@@ -34323,7 +34320,7 @@
       <c r="Q312" s="73"/>
     </row>
     <row r="313" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A313" s="238" t="str" cm="1">
+      <c r="A313" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A313" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E313),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E313)&gt;0)*ROW($E$11:E313),0)),
@@ -34335,11 +34332,11 @@
 )</f>
         <v>101-18-1</v>
       </c>
-      <c r="B313" s="245"/>
+      <c r="B313" s="179"/>
       <c r="C313" s="159"/>
       <c r="D313" s="156"/>
       <c r="E313" s="156"/>
-      <c r="F313" s="243" t="s">
+      <c r="F313" s="177" t="s">
         <v>431</v>
       </c>
       <c r="G313" s="73"/>
@@ -34357,7 +34354,7 @@
       <c r="Q313" s="73"/>
     </row>
     <row r="314" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A314" s="238" t="str" cm="1">
+      <c r="A314" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A314" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E314),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E314)&gt;0)*ROW($E$11:E314),0)),
@@ -34369,11 +34366,11 @@
 )</f>
         <v>101-19-1</v>
       </c>
-      <c r="B314" s="245"/>
+      <c r="B314" s="179"/>
       <c r="C314" s="159"/>
       <c r="D314" s="156"/>
       <c r="E314" s="156"/>
-      <c r="F314" s="243" t="s">
+      <c r="F314" s="177" t="s">
         <v>432</v>
       </c>
       <c r="G314" s="73"/>
@@ -34391,7 +34388,7 @@
       <c r="Q314" s="73"/>
     </row>
     <row r="315" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A315" s="238" t="str" cm="1">
+      <c r="A315" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A315" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E315),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E315)&gt;0)*ROW($E$11:E315),0)),
@@ -34403,7 +34400,7 @@
 )</f>
         <v>101-20-1</v>
       </c>
-      <c r="B315" s="245"/>
+      <c r="B315" s="179"/>
       <c r="C315" s="159"/>
       <c r="D315" s="156"/>
       <c r="E315" s="156"/>
@@ -34425,7 +34422,7 @@
       <c r="Q315" s="73"/>
     </row>
     <row r="316" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A316" s="238" t="str" cm="1">
+      <c r="A316" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A316" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E316),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E316)&gt;0)*ROW($E$11:E316),0)),
@@ -34437,7 +34434,7 @@
 )</f>
         <v>101-21-1</v>
       </c>
-      <c r="B316" s="245"/>
+      <c r="B316" s="179"/>
       <c r="C316" s="159"/>
       <c r="D316" s="156"/>
       <c r="E316" s="156"/>
@@ -34459,7 +34456,7 @@
       <c r="Q316" s="73"/>
     </row>
     <row r="317" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A317" s="238" t="str" cm="1">
+      <c r="A317" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A317" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E317),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E317)&gt;0)*ROW($E$11:E317),0)),
@@ -34471,7 +34468,7 @@
 )</f>
         <v>102-1-1</v>
       </c>
-      <c r="B317" s="245"/>
+      <c r="B317" s="179"/>
       <c r="C317" s="156"/>
       <c r="D317" s="156"/>
       <c r="E317" s="155" t="s">
@@ -34495,7 +34492,7 @@
       <c r="Q317" s="73"/>
     </row>
     <row r="318" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A318" s="238" t="str" cm="1">
+      <c r="A318" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A318" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E318),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E318)&gt;0)*ROW($E$11:E318),0)),
@@ -34507,7 +34504,7 @@
 )</f>
         <v>102-2-1</v>
       </c>
-      <c r="B318" s="245"/>
+      <c r="B318" s="179"/>
       <c r="C318" s="159"/>
       <c r="D318" s="156"/>
       <c r="E318" s="158"/>
@@ -34529,7 +34526,7 @@
       <c r="Q318" s="73"/>
     </row>
     <row r="319" spans="1:17" ht="22.5">
-      <c r="A319" s="238" t="str" cm="1">
+      <c r="A319" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A319" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E319),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E319)&gt;0)*ROW($E$11:E319),0)),
@@ -34541,7 +34538,7 @@
 )</f>
         <v>103-1-1</v>
       </c>
-      <c r="B319" s="245"/>
+      <c r="B319" s="179"/>
       <c r="C319" s="159"/>
       <c r="D319" s="156"/>
       <c r="E319" s="156" t="s">
@@ -34556,7 +34553,7 @@
       <c r="J319" s="90" t="s">
         <v>664</v>
       </c>
-      <c r="K319" s="256"/>
+      <c r="K319" s="189"/>
       <c r="L319" s="112"/>
       <c r="M319" s="90"/>
       <c r="N319" s="91"/>
@@ -34565,7 +34562,7 @@
       <c r="Q319" s="111"/>
     </row>
     <row r="320" spans="1:17" ht="22.5">
-      <c r="A320" s="238" t="str" cm="1">
+      <c r="A320" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A320" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E320),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E320)&gt;0)*ROW($E$11:E320),0)),
@@ -34577,7 +34574,7 @@
 )</f>
         <v>103-2-1</v>
       </c>
-      <c r="B320" s="245"/>
+      <c r="B320" s="179"/>
       <c r="C320" s="159"/>
       <c r="D320" s="156"/>
       <c r="E320" s="156"/>
@@ -34590,7 +34587,7 @@
       <c r="J320" s="90" t="s">
         <v>664</v>
       </c>
-      <c r="K320" s="256"/>
+      <c r="K320" s="189"/>
       <c r="L320" s="112"/>
       <c r="M320" s="90"/>
       <c r="N320" s="91"/>
@@ -34599,7 +34596,7 @@
       <c r="Q320" s="111"/>
     </row>
     <row r="321" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A321" s="238" t="str" cm="1">
+      <c r="A321" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A321" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E321),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E321)&gt;0)*ROW($E$11:E321),0)),
@@ -34611,7 +34608,7 @@
 )</f>
         <v>104-1-1</v>
       </c>
-      <c r="B321" s="245"/>
+      <c r="B321" s="179"/>
       <c r="C321" s="159"/>
       <c r="D321" s="156"/>
       <c r="E321" s="111" t="s">
@@ -34635,7 +34632,7 @@
       <c r="Q321" s="73"/>
     </row>
     <row r="322" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A322" s="238" t="str" cm="1">
+      <c r="A322" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A322" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E322),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E322)&gt;0)*ROW($E$11:E322),0)),
@@ -34647,7 +34644,7 @@
 )</f>
         <v>105-1-1</v>
       </c>
-      <c r="B322" s="245"/>
+      <c r="B322" s="179"/>
       <c r="C322" s="159"/>
       <c r="D322" s="156"/>
       <c r="E322" s="156" t="s">
@@ -34671,7 +34668,7 @@
       <c r="Q322" s="73"/>
     </row>
     <row r="323" spans="1:17" ht="22.5">
-      <c r="A323" s="238" t="str" cm="1">
+      <c r="A323" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A323" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E323),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E323)&gt;0)*ROW($E$11:E323),0)),
@@ -34683,7 +34680,7 @@
 )</f>
         <v>105-2-1</v>
       </c>
-      <c r="B323" s="245"/>
+      <c r="B323" s="179"/>
       <c r="C323" s="159"/>
       <c r="D323" s="156"/>
       <c r="E323" s="156"/>
@@ -34705,7 +34702,7 @@
       <c r="Q323" s="91"/>
     </row>
     <row r="324" spans="1:17" ht="33.75">
-      <c r="A324" s="238" t="str" cm="1">
+      <c r="A324" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A324" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E324),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E324)&gt;0)*ROW($E$11:E324),0)),
@@ -34717,7 +34714,7 @@
 )</f>
         <v>105-3-1</v>
       </c>
-      <c r="B324" s="245"/>
+      <c r="B324" s="179"/>
       <c r="C324" s="159"/>
       <c r="D324" s="156"/>
       <c r="E324" s="156"/>
@@ -34739,7 +34736,7 @@
       <c r="Q324" s="91"/>
     </row>
     <row r="325" spans="1:17" ht="45">
-      <c r="A325" s="238" t="str" cm="1">
+      <c r="A325" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A325" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E325),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E325)&gt;0)*ROW($E$11:E325),0)),
@@ -34751,7 +34748,7 @@
 )</f>
         <v>105-4-1</v>
       </c>
-      <c r="B325" s="245"/>
+      <c r="B325" s="179"/>
       <c r="C325" s="159"/>
       <c r="D325" s="156"/>
       <c r="E325" s="156"/>
@@ -34773,7 +34770,7 @@
       <c r="Q325" s="91"/>
     </row>
     <row r="326" spans="1:17" ht="33.75">
-      <c r="A326" s="238" t="str" cm="1">
+      <c r="A326" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A326" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E326),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E326)&gt;0)*ROW($E$11:E326),0)),
@@ -34785,7 +34782,7 @@
 )</f>
         <v>105-5-1</v>
       </c>
-      <c r="B326" s="245"/>
+      <c r="B326" s="179"/>
       <c r="C326" s="159"/>
       <c r="D326" s="156"/>
       <c r="E326" s="156"/>
@@ -34807,7 +34804,7 @@
       <c r="Q326" s="91"/>
     </row>
     <row r="327" spans="1:17" ht="45">
-      <c r="A327" s="238" t="str" cm="1">
+      <c r="A327" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A327" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E327),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E327)&gt;0)*ROW($E$11:E327),0)),
@@ -34819,7 +34816,7 @@
 )</f>
         <v>105-6-1</v>
       </c>
-      <c r="B327" s="245"/>
+      <c r="B327" s="179"/>
       <c r="C327" s="159"/>
       <c r="D327" s="156"/>
       <c r="E327" s="156"/>
@@ -34841,7 +34838,7 @@
       <c r="Q327" s="91"/>
     </row>
     <row r="328" spans="1:17" ht="33.75">
-      <c r="A328" s="238" t="str" cm="1">
+      <c r="A328" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A328" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E328),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E328)&gt;0)*ROW($E$11:E328),0)),
@@ -34853,7 +34850,7 @@
 )</f>
         <v>105-7-1</v>
       </c>
-      <c r="B328" s="245"/>
+      <c r="B328" s="179"/>
       <c r="C328" s="159"/>
       <c r="D328" s="156"/>
       <c r="E328" s="156"/>
@@ -34875,7 +34872,7 @@
       <c r="Q328" s="91"/>
     </row>
     <row r="329" spans="1:17" ht="45">
-      <c r="A329" s="238" t="str" cm="1">
+      <c r="A329" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A329" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E329),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E329)&gt;0)*ROW($E$11:E329),0)),
@@ -34887,7 +34884,7 @@
 )</f>
         <v>105-8-1</v>
       </c>
-      <c r="B329" s="245"/>
+      <c r="B329" s="179"/>
       <c r="C329" s="159"/>
       <c r="D329" s="156"/>
       <c r="E329" s="156"/>
@@ -34909,7 +34906,7 @@
       <c r="Q329" s="91"/>
     </row>
     <row r="330" spans="1:17" ht="22.5">
-      <c r="A330" s="238" t="str" cm="1">
+      <c r="A330" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A330" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E330),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E330)&gt;0)*ROW($E$11:E330),0)),
@@ -34921,7 +34918,7 @@
 )</f>
         <v>105-9-1</v>
       </c>
-      <c r="B330" s="245"/>
+      <c r="B330" s="179"/>
       <c r="C330" s="159"/>
       <c r="D330" s="156"/>
       <c r="E330" s="156"/>
@@ -34943,7 +34940,7 @@
       <c r="Q330" s="91"/>
     </row>
     <row r="331" spans="1:17" ht="22.5">
-      <c r="A331" s="238" t="str" cm="1">
+      <c r="A331" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A331" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E331),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E331)&gt;0)*ROW($E$11:E331),0)),
@@ -34979,7 +34976,7 @@
       <c r="Q331" s="91"/>
     </row>
     <row r="332" spans="1:17" ht="22.5">
-      <c r="A332" s="238" t="str" cm="1">
+      <c r="A332" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A332" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E332),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E332)&gt;0)*ROW($E$11:E332),0)),
@@ -35015,7 +35012,7 @@
       <c r="Q332" s="91"/>
     </row>
     <row r="333" spans="1:17" ht="22.5">
-      <c r="A333" s="238" t="str" cm="1">
+      <c r="A333" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A333" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E333),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E333)&gt;0)*ROW($E$11:E333),0)),
@@ -35053,7 +35050,7 @@
       <c r="Q333" s="91"/>
     </row>
     <row r="334" spans="1:17" ht="22.5">
-      <c r="A334" s="238" t="str" cm="1">
+      <c r="A334" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A334" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E334),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E334)&gt;0)*ROW($E$11:E334),0)),
@@ -35089,7 +35086,7 @@
       <c r="Q334" s="91"/>
     </row>
     <row r="335" spans="1:17" ht="22.5">
-      <c r="A335" s="238" t="str" cm="1">
+      <c r="A335" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A335" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E335),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E335)&gt;0)*ROW($E$11:E335),0)),
@@ -35123,7 +35120,7 @@
       <c r="Q335" s="91"/>
     </row>
     <row r="336" spans="1:17" ht="22.5">
-      <c r="A336" s="238" t="str" cm="1">
+      <c r="A336" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A336" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E336),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E336)&gt;0)*ROW($E$11:E336),0)),
@@ -35157,7 +35154,7 @@
       <c r="Q336" s="91"/>
     </row>
     <row r="337" spans="1:17" ht="22.5">
-      <c r="A337" s="238" t="str" cm="1">
+      <c r="A337" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A337" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E337),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E337)&gt;0)*ROW($E$11:E337),0)),
@@ -35191,7 +35188,7 @@
       <c r="Q337" s="91"/>
     </row>
     <row r="338" spans="1:17">
-      <c r="A338" s="238" t="str" cm="1">
+      <c r="A338" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A338" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E338),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E338)&gt;0)*ROW($E$11:E338),0)),
@@ -35229,7 +35226,7 @@
       <c r="Q338" s="91"/>
     </row>
     <row r="339" spans="1:17" ht="22.5">
-      <c r="A339" s="238" t="str" cm="1">
+      <c r="A339" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A339" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E339),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E339)&gt;0)*ROW($E$11:E339),0)),
@@ -35263,7 +35260,7 @@
       <c r="Q339" s="91"/>
     </row>
     <row r="340" spans="1:17" ht="22.5">
-      <c r="A340" s="238" t="str" cm="1">
+      <c r="A340" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A340" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E340),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E340)&gt;0)*ROW($E$11:E340),0)),
@@ -35297,7 +35294,7 @@
       <c r="Q340" s="91"/>
     </row>
     <row r="341" spans="1:17" ht="22.5">
-      <c r="A341" s="238" t="str" cm="1">
+      <c r="A341" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A341" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E341),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E341)&gt;0)*ROW($E$11:E341),0)),
@@ -35335,7 +35332,7 @@
       <c r="Q341" s="91"/>
     </row>
     <row r="342" spans="1:17" ht="22.5">
-      <c r="A342" s="238" t="str" cm="1">
+      <c r="A342" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A342" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E342),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E342)&gt;0)*ROW($E$11:E342),0)),
@@ -35369,7 +35366,7 @@
       <c r="Q342" s="91"/>
     </row>
     <row r="343" spans="1:17" ht="22.5">
-      <c r="A343" s="238" t="str" cm="1">
+      <c r="A343" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A343" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E343),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E343)&gt;0)*ROW($E$11:E343),0)),
@@ -35403,7 +35400,7 @@
       <c r="Q343" s="91"/>
     </row>
     <row r="344" spans="1:17" ht="22.5">
-      <c r="A344" s="238" t="str" cm="1">
+      <c r="A344" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A344" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E344),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E344)&gt;0)*ROW($E$11:E344),0)),
@@ -35437,7 +35434,7 @@
       <c r="Q344" s="91"/>
     </row>
     <row r="345" spans="1:17" ht="22.5">
-      <c r="A345" s="238" t="str" cm="1">
+      <c r="A345" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A345" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E345),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E345)&gt;0)*ROW($E$11:E345),0)),
@@ -35471,7 +35468,7 @@
       <c r="Q345" s="91"/>
     </row>
     <row r="346" spans="1:17" ht="33.75">
-      <c r="A346" s="238" t="str" cm="1">
+      <c r="A346" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A346" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E346),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E346)&gt;0)*ROW($E$11:E346),0)),
@@ -35505,7 +35502,7 @@
       <c r="Q346" s="91"/>
     </row>
     <row r="347" spans="1:17" ht="22.5">
-      <c r="A347" s="238" t="str" cm="1">
+      <c r="A347" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A347" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E347),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E347)&gt;0)*ROW($E$11:E347),0)),
@@ -35539,7 +35536,7 @@
       <c r="Q347" s="91"/>
     </row>
     <row r="348" spans="1:17" ht="22.5">
-      <c r="A348" s="238" t="str" cm="1">
+      <c r="A348" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A348" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E348),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E348)&gt;0)*ROW($E$11:E348),0)),
@@ -35573,7 +35570,7 @@
       <c r="Q348" s="91"/>
     </row>
     <row r="349" spans="1:17" ht="22.5">
-      <c r="A349" s="238" t="str" cm="1">
+      <c r="A349" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A349" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E349),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E349)&gt;0)*ROW($E$11:E349),0)),
@@ -35607,7 +35604,7 @@
       <c r="Q349" s="91"/>
     </row>
     <row r="350" spans="1:17" ht="22.5">
-      <c r="A350" s="238" t="str" cm="1">
+      <c r="A350" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A350" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E350),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E350)&gt;0)*ROW($E$11:E350),0)),
@@ -35641,7 +35638,7 @@
       <c r="Q350" s="91"/>
     </row>
     <row r="351" spans="1:17" ht="22.5">
-      <c r="A351" s="238" t="str" cm="1">
+      <c r="A351" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A351" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E351),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E351)&gt;0)*ROW($E$11:E351),0)),
@@ -35675,7 +35672,7 @@
       <c r="Q351" s="91"/>
     </row>
     <row r="352" spans="1:17" ht="22.5">
-      <c r="A352" s="238" t="str" cm="1">
+      <c r="A352" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A352" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E352),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E352)&gt;0)*ROW($E$11:E352),0)),
@@ -35709,7 +35706,7 @@
       <c r="Q352" s="91"/>
     </row>
     <row r="353" spans="1:17" ht="22.5">
-      <c r="A353" s="238" t="str" cm="1">
+      <c r="A353" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A353" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E353),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E353)&gt;0)*ROW($E$11:E353),0)),
@@ -35743,7 +35740,7 @@
       <c r="Q353" s="91"/>
     </row>
     <row r="354" spans="1:17" ht="22.5">
-      <c r="A354" s="238" t="str" cm="1">
+      <c r="A354" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A354" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E354),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E354)&gt;0)*ROW($E$11:E354),0)),
@@ -35777,7 +35774,7 @@
       <c r="Q354" s="91"/>
     </row>
     <row r="355" spans="1:17" ht="22.5">
-      <c r="A355" s="238" t="str" cm="1">
+      <c r="A355" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A355" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E355),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E355)&gt;0)*ROW($E$11:E355),0)),
@@ -35813,7 +35810,7 @@
       <c r="Q355" s="91"/>
     </row>
     <row r="356" spans="1:17" ht="33.75">
-      <c r="A356" s="238" t="str" cm="1">
+      <c r="A356" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A356" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E356),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E356)&gt;0)*ROW($E$11:E356),0)),
@@ -35847,7 +35844,7 @@
       <c r="Q356" s="91"/>
     </row>
     <row r="357" spans="1:17" ht="33.75">
-      <c r="A357" s="238" t="str" cm="1">
+      <c r="A357" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A357" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E357),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E357)&gt;0)*ROW($E$11:E357),0)),
@@ -35881,7 +35878,7 @@
       <c r="Q357" s="91"/>
     </row>
     <row r="358" spans="1:17" ht="33.75">
-      <c r="A358" s="238" t="str" cm="1">
+      <c r="A358" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A358" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E358),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E358)&gt;0)*ROW($E$11:E358),0)),
@@ -35915,7 +35912,7 @@
       <c r="Q358" s="91"/>
     </row>
     <row r="359" spans="1:17" ht="22.5">
-      <c r="A359" s="238" t="str" cm="1">
+      <c r="A359" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A359" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E359),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E359)&gt;0)*ROW($E$11:E359),0)),
@@ -35949,7 +35946,7 @@
       <c r="Q359" s="91"/>
     </row>
     <row r="360" spans="1:17" ht="22.5">
-      <c r="A360" s="238" t="str" cm="1">
+      <c r="A360" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A360" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E360),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E360)&gt;0)*ROW($E$11:E360),0)),
@@ -35983,7 +35980,7 @@
       <c r="Q360" s="91"/>
     </row>
     <row r="361" spans="1:17" ht="22.5">
-      <c r="A361" s="238" t="str" cm="1">
+      <c r="A361" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A361" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E361),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E361)&gt;0)*ROW($E$11:E361),0)),
@@ -35995,7 +35992,7 @@
 )</f>
         <v>112-7-1</v>
       </c>
-      <c r="B361" s="251"/>
+      <c r="B361" s="184"/>
       <c r="C361" s="160"/>
       <c r="D361" s="158"/>
       <c r="E361" s="158"/>
@@ -36017,7 +36014,7 @@
       <c r="Q361" s="91"/>
     </row>
     <row r="362" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A362" s="238" t="str" cm="1">
+      <c r="A362" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A362" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E362),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E362)&gt;0)*ROW($E$11:E362),0)),
@@ -36041,25 +36038,25 @@
       <c r="E362" s="155" t="s">
         <v>497</v>
       </c>
-      <c r="F362" s="243" t="s">
+      <c r="F362" s="177" t="s">
         <v>502</v>
       </c>
-      <c r="G362" s="243"/>
+      <c r="G362" s="177"/>
       <c r="H362" s="79"/>
       <c r="I362" s="79"/>
       <c r="J362" s="90" t="s">
         <v>664</v>
       </c>
-      <c r="K362" s="257"/>
-      <c r="L362" s="258"/>
-      <c r="M362" s="259"/>
-      <c r="N362" s="259"/>
-      <c r="O362" s="259"/>
-      <c r="P362" s="259"/>
-      <c r="Q362" s="259"/>
+      <c r="K362" s="190"/>
+      <c r="L362" s="191"/>
+      <c r="M362" s="192"/>
+      <c r="N362" s="192"/>
+      <c r="O362" s="192"/>
+      <c r="P362" s="192"/>
+      <c r="Q362" s="192"/>
     </row>
     <row r="363" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A363" s="238" t="str" cm="1">
+      <c r="A363" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A363" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E363),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E363)&gt;0)*ROW($E$11:E363),0)),
@@ -36071,7 +36068,7 @@
 )</f>
         <v>113-2-1</v>
       </c>
-      <c r="B363" s="260"/>
+      <c r="B363" s="193"/>
       <c r="C363" s="156"/>
       <c r="D363" s="156"/>
       <c r="E363" s="157"/>
@@ -36093,7 +36090,7 @@
       <c r="Q363" s="165"/>
     </row>
     <row r="364" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A364" s="238" t="str" cm="1">
+      <c r="A364" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A364" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E364),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E364)&gt;0)*ROW($E$11:E364),0)),
@@ -36105,7 +36102,7 @@
 )</f>
         <v>113-3-1</v>
       </c>
-      <c r="B364" s="260"/>
+      <c r="B364" s="193"/>
       <c r="C364" s="156"/>
       <c r="D364" s="156"/>
       <c r="E364" s="157"/>
@@ -36127,7 +36124,7 @@
       <c r="Q364" s="165"/>
     </row>
     <row r="365" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A365" s="238" t="str" cm="1">
+      <c r="A365" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A365" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E365),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E365)&gt;0)*ROW($E$11:E365),0)),
@@ -36139,7 +36136,7 @@
 )</f>
         <v>113-4-1</v>
       </c>
-      <c r="B365" s="260"/>
+      <c r="B365" s="193"/>
       <c r="C365" s="156"/>
       <c r="D365" s="156"/>
       <c r="E365" s="157"/>
@@ -36161,7 +36158,7 @@
       <c r="Q365" s="165"/>
     </row>
     <row r="366" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A366" s="238" t="str" cm="1">
+      <c r="A366" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A366" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E366),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E366)&gt;0)*ROW($E$11:E366),0)),
@@ -36173,7 +36170,7 @@
 )</f>
         <v>113-5-1</v>
       </c>
-      <c r="B366" s="260"/>
+      <c r="B366" s="193"/>
       <c r="C366" s="156"/>
       <c r="D366" s="156"/>
       <c r="E366" s="157"/>
@@ -36195,7 +36192,7 @@
       <c r="Q366" s="165"/>
     </row>
     <row r="367" spans="1:17" s="33" customFormat="1">
-      <c r="A367" s="238" t="str" cm="1">
+      <c r="A367" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A367" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E367),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E367)&gt;0)*ROW($E$11:E367),0)),
@@ -36207,12 +36204,12 @@
 )</f>
         <v>114-1-1</v>
       </c>
-      <c r="B367" s="260"/>
+      <c r="B367" s="193"/>
       <c r="C367" s="159"/>
       <c r="D367" s="155" t="s">
         <v>507</v>
       </c>
-      <c r="E367" s="252" t="s">
+      <c r="E367" s="185" t="s">
         <v>493</v>
       </c>
       <c r="F367" s="162" t="s">
@@ -36233,7 +36230,7 @@
       <c r="Q367" s="165"/>
     </row>
     <row r="368" spans="1:17" s="33" customFormat="1">
-      <c r="A368" s="238" t="str" cm="1">
+      <c r="A368" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A368" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E368),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E368)&gt;0)*ROW($E$11:E368),0)),
@@ -36245,7 +36242,7 @@
 )</f>
         <v>114-2-1</v>
       </c>
-      <c r="B368" s="260"/>
+      <c r="B368" s="193"/>
       <c r="C368" s="156"/>
       <c r="D368" s="156"/>
       <c r="E368" s="157"/>
@@ -36267,7 +36264,7 @@
       <c r="Q368" s="165"/>
     </row>
     <row r="369" spans="1:17" s="33" customFormat="1" ht="33.75">
-      <c r="A369" s="238" t="str" cm="1">
+      <c r="A369" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A369" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E369),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E369)&gt;0)*ROW($E$11:E369),0)),
@@ -36279,7 +36276,7 @@
 )</f>
         <v>114-3-1</v>
       </c>
-      <c r="B369" s="260"/>
+      <c r="B369" s="193"/>
       <c r="C369" s="156"/>
       <c r="D369" s="156"/>
       <c r="E369" s="157"/>
@@ -36301,7 +36298,7 @@
       <c r="Q369" s="165"/>
     </row>
     <row r="370" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A370" s="238" t="str" cm="1">
+      <c r="A370" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A370" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E370),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E370)&gt;0)*ROW($E$11:E370),0)),
@@ -36313,7 +36310,7 @@
 )</f>
         <v>114-4-1</v>
       </c>
-      <c r="B370" s="260"/>
+      <c r="B370" s="193"/>
       <c r="C370" s="156"/>
       <c r="D370" s="156"/>
       <c r="E370" s="157"/>
@@ -36335,7 +36332,7 @@
       <c r="Q370" s="165"/>
     </row>
     <row r="371" spans="1:17" s="33" customFormat="1">
-      <c r="A371" s="238" t="str" cm="1">
+      <c r="A371" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A371" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E371),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E371)&gt;0)*ROW($E$11:E371),0)),
@@ -36347,11 +36344,11 @@
 )</f>
         <v>114-5-1</v>
       </c>
-      <c r="B371" s="260"/>
+      <c r="B371" s="193"/>
       <c r="C371" s="158"/>
       <c r="D371" s="158"/>
-      <c r="E371" s="251"/>
-      <c r="F371" s="261" t="s">
+      <c r="E371" s="184"/>
+      <c r="F371" s="194" t="s">
         <v>513</v>
       </c>
       <c r="G371" s="162"/>
@@ -36369,7 +36366,7 @@
       <c r="Q371" s="165"/>
     </row>
     <row r="372" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A372" s="238" t="str" cm="1">
+      <c r="A372" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A372" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E372),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E372)&gt;0)*ROW($E$11:E372),0)),
@@ -36381,11 +36378,11 @@
 )</f>
         <v>115-1-1</v>
       </c>
-      <c r="B372" s="260"/>
+      <c r="B372" s="193"/>
       <c r="C372" s="79" t="s">
         <v>514</v>
       </c>
-      <c r="D372" s="239" t="s">
+      <c r="D372" s="173" t="s">
         <v>485</v>
       </c>
       <c r="E372" s="155" t="s">
@@ -36409,7 +36406,7 @@
       <c r="Q372" s="149"/>
     </row>
     <row r="373" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A373" s="238" t="str" cm="1">
+      <c r="A373" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A373" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E373),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E373)&gt;0)*ROW($E$11:E373),0)),
@@ -36421,8 +36418,8 @@
 )</f>
         <v>115-2-1</v>
       </c>
-      <c r="B373" s="260"/>
-      <c r="C373" s="260"/>
+      <c r="B373" s="193"/>
+      <c r="C373" s="193"/>
       <c r="D373" s="159"/>
       <c r="E373" s="156"/>
       <c r="F373" s="146" t="s">
@@ -36443,7 +36440,7 @@
       <c r="Q373" s="149"/>
     </row>
     <row r="374" spans="1:17" s="33" customFormat="1">
-      <c r="A374" s="238" t="str" cm="1">
+      <c r="A374" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A374" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E374),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E374)&gt;0)*ROW($E$11:E374),0)),
@@ -36455,8 +36452,8 @@
 )</f>
         <v>115-3-1</v>
       </c>
-      <c r="B374" s="260"/>
-      <c r="C374" s="260"/>
+      <c r="B374" s="193"/>
+      <c r="C374" s="193"/>
       <c r="D374" s="159"/>
       <c r="E374" s="156"/>
       <c r="F374" s="146" t="s">
@@ -36477,7 +36474,7 @@
       <c r="Q374" s="149"/>
     </row>
     <row r="375" spans="1:17" s="33" customFormat="1">
-      <c r="A375" s="238" t="str" cm="1">
+      <c r="A375" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A375" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E375),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E375)&gt;0)*ROW($E$11:E375),0)),
@@ -36489,8 +36486,8 @@
 )</f>
         <v>115-4-1</v>
       </c>
-      <c r="B375" s="260"/>
-      <c r="C375" s="260"/>
+      <c r="B375" s="193"/>
+      <c r="C375" s="193"/>
       <c r="D375" s="159"/>
       <c r="E375" s="156"/>
       <c r="F375" s="146" t="s">
@@ -36511,7 +36508,7 @@
       <c r="Q375" s="149"/>
     </row>
     <row r="376" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A376" s="238" t="str" cm="1">
+      <c r="A376" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A376" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E376),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E376)&gt;0)*ROW($E$11:E376),0)),
@@ -36523,8 +36520,8 @@
 )</f>
         <v>115-5-1</v>
       </c>
-      <c r="B376" s="260"/>
-      <c r="C376" s="260"/>
+      <c r="B376" s="193"/>
+      <c r="C376" s="193"/>
       <c r="D376" s="159"/>
       <c r="E376" s="156"/>
       <c r="F376" s="146" t="s">
@@ -36545,7 +36542,7 @@
       <c r="Q376" s="149"/>
     </row>
     <row r="377" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A377" s="238" t="str" cm="1">
+      <c r="A377" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A377" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E377),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E377)&gt;0)*ROW($E$11:E377),0)),
@@ -36557,8 +36554,8 @@
 )</f>
         <v>115-6-1</v>
       </c>
-      <c r="B377" s="260"/>
-      <c r="C377" s="260"/>
+      <c r="B377" s="193"/>
+      <c r="C377" s="193"/>
       <c r="D377" s="160"/>
       <c r="E377" s="158"/>
       <c r="F377" s="146" t="s">
@@ -36579,7 +36576,7 @@
       <c r="Q377" s="149"/>
     </row>
     <row r="378" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A378" s="238" t="str" cm="1">
+      <c r="A378" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A378" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E378),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E378)&gt;0)*ROW($E$11:E378),0)),
@@ -36591,8 +36588,8 @@
 )</f>
         <v>116-1-1</v>
       </c>
-      <c r="B378" s="260"/>
-      <c r="C378" s="260"/>
+      <c r="B378" s="193"/>
+      <c r="C378" s="193"/>
       <c r="D378" s="111" t="s">
         <v>521</v>
       </c>
@@ -36617,7 +36614,7 @@
       <c r="Q378" s="149"/>
     </row>
     <row r="379" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A379" s="238" t="str" cm="1">
+      <c r="A379" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A379" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E379),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E379)&gt;0)*ROW($E$11:E379),0)),
@@ -36629,8 +36626,8 @@
 )</f>
         <v>117-1-1</v>
       </c>
-      <c r="B379" s="260"/>
-      <c r="C379" s="260"/>
+      <c r="B379" s="193"/>
+      <c r="C379" s="193"/>
       <c r="D379" s="155" t="s">
         <v>522</v>
       </c>
@@ -36655,7 +36652,7 @@
       <c r="Q379" s="149"/>
     </row>
     <row r="380" spans="1:17" s="33" customFormat="1" ht="22.5">
-      <c r="A380" s="238" t="str" cm="1">
+      <c r="A380" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A380" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E380),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E380)&gt;0)*ROW($E$11:E380),0)),
@@ -36667,15 +36664,15 @@
 )</f>
         <v>118-1-1</v>
       </c>
-      <c r="B380" s="262"/>
-      <c r="C380" s="262"/>
+      <c r="B380" s="195"/>
+      <c r="C380" s="195"/>
       <c r="D380" s="111" t="s">
         <v>523</v>
       </c>
       <c r="E380" s="111" t="s">
         <v>493</v>
       </c>
-      <c r="F380" s="263" t="s">
+      <c r="F380" s="196" t="s">
         <v>606</v>
       </c>
       <c r="G380" s="146"/>
@@ -36684,16 +36681,16 @@
       <c r="J380" s="113" t="s">
         <v>664</v>
       </c>
-      <c r="K380" s="264"/>
-      <c r="L380" s="265"/>
-      <c r="M380" s="266"/>
-      <c r="N380" s="266"/>
-      <c r="O380" s="266"/>
-      <c r="P380" s="266"/>
-      <c r="Q380" s="266"/>
+      <c r="K380" s="197"/>
+      <c r="L380" s="198"/>
+      <c r="M380" s="199"/>
+      <c r="N380" s="199"/>
+      <c r="O380" s="199"/>
+      <c r="P380" s="199"/>
+      <c r="Q380" s="199"/>
     </row>
     <row r="381" spans="1:17" ht="22.5">
-      <c r="A381" s="238" t="str" cm="1">
+      <c r="A381" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A381" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E381),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E381)&gt;0)*ROW($E$11:E381),0)),
@@ -36717,7 +36714,7 @@
       <c r="E381" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="F381" s="267" t="s">
+      <c r="F381" s="200" t="s">
         <v>488</v>
       </c>
       <c r="G381" s="89"/>
@@ -36735,7 +36732,7 @@
       <c r="Q381" s="91"/>
     </row>
     <row r="382" spans="1:17" ht="22.5">
-      <c r="A382" s="238" t="str" cm="1">
+      <c r="A382" s="172" t="str" cm="1">
         <f t="array" aca="1" ref="A382" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E382),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E382)&gt;0)*ROW($E$11:E382),0)),
@@ -36747,7 +36744,7 @@
 )</f>
         <v>119-2-1</v>
       </c>
-      <c r="B382" s="251"/>
+      <c r="B382" s="184"/>
       <c r="C382" s="158"/>
       <c r="D382" s="158"/>
       <c r="E382" s="158"/>
@@ -37093,7 +37090,7 @@
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
-      <c r="D16" s="268"/>
+      <c r="D16" s="201"/>
       <c r="E16" s="73" t="s">
         <v>583</v>
       </c>
@@ -37121,7 +37118,7 @@
       </c>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
-      <c r="D17" s="268"/>
+      <c r="D17" s="201"/>
       <c r="E17" s="82" t="s">
         <v>584</v>
       </c>
@@ -37237,10 +37234,10 @@
       </c>
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
-      <c r="D21" s="229" t="s">
+      <c r="D21" s="271" t="s">
         <v>630</v>
       </c>
-      <c r="E21" s="230"/>
+      <c r="E21" s="272"/>
       <c r="F21" s="90" t="s">
         <v>644</v>
       </c>
@@ -37328,7 +37325,7 @@
       <c r="D24" s="146" t="s">
         <v>646</v>
       </c>
-      <c r="E24" s="269" t="s">
+      <c r="E24" s="202" t="s">
         <v>624</v>
       </c>
       <c r="F24" s="79"/>
@@ -37338,10 +37335,10 @@
       <c r="H24" s="79" t="s">
         <v>621</v>
       </c>
-      <c r="I24" s="270" t="s">
+      <c r="I24" s="203" t="s">
         <v>671</v>
       </c>
-      <c r="J24" s="271"/>
+      <c r="J24" s="204"/>
       <c r="K24" s="81"/>
       <c r="L24" s="81"/>
       <c r="M24" s="81"/>
@@ -37354,9 +37351,9 @@
         <v>626</v>
       </c>
       <c r="B25" s="55"/>
-      <c r="C25" s="260"/>
-      <c r="D25" s="272"/>
-      <c r="E25" s="269" t="s">
+      <c r="C25" s="193"/>
+      <c r="D25" s="205"/>
+      <c r="E25" s="202" t="s">
         <v>625</v>
       </c>
       <c r="F25" s="79"/>
@@ -37366,10 +37363,10 @@
       <c r="H25" s="79" t="s">
         <v>620</v>
       </c>
-      <c r="I25" s="270" t="s">
+      <c r="I25" s="203" t="s">
         <v>671</v>
       </c>
-      <c r="J25" s="271"/>
+      <c r="J25" s="204"/>
       <c r="K25" s="81"/>
       <c r="L25" s="81"/>
       <c r="M25" s="81"/>
@@ -37382,11 +37379,11 @@
         <v>602</v>
       </c>
       <c r="B26" s="55"/>
-      <c r="C26" s="268"/>
+      <c r="C26" s="201"/>
       <c r="D26" s="146" t="s">
         <v>647</v>
       </c>
-      <c r="E26" s="269" t="s">
+      <c r="E26" s="202" t="s">
         <v>624</v>
       </c>
       <c r="F26" s="79"/>
@@ -37396,10 +37393,10 @@
       <c r="H26" s="79" t="s">
         <v>621</v>
       </c>
-      <c r="I26" s="270" t="s">
+      <c r="I26" s="203" t="s">
         <v>671</v>
       </c>
-      <c r="J26" s="271"/>
+      <c r="J26" s="204"/>
       <c r="K26" s="81"/>
       <c r="L26" s="81"/>
       <c r="M26" s="81"/>
@@ -37414,7 +37411,7 @@
       <c r="B27" s="55"/>
       <c r="C27" s="153"/>
       <c r="D27" s="153"/>
-      <c r="E27" s="269" t="s">
+      <c r="E27" s="202" t="s">
         <v>625</v>
       </c>
       <c r="F27" s="79"/>
@@ -37424,10 +37421,10 @@
       <c r="H27" s="79" t="s">
         <v>620</v>
       </c>
-      <c r="I27" s="270" t="s">
+      <c r="I27" s="203" t="s">
         <v>671</v>
       </c>
-      <c r="J27" s="271"/>
+      <c r="J27" s="204"/>
       <c r="K27" s="81"/>
       <c r="L27" s="81"/>
       <c r="M27" s="81"/>
